--- a/Global_M2/TVDataFeed/FinalData/Egypt.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Egypt.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D326"/>
+  <dimension ref="A1:D329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4895,13 +4895,13 @@
         <v>44927</v>
       </c>
       <c r="B325" t="n">
-        <v>7737106000000</v>
+        <v>7710432000000</v>
       </c>
       <c r="C325" t="n">
         <v>0.03318951211417192</v>
       </c>
       <c r="D325" t="n">
-        <v>256790773315.6322</v>
+        <v>255905476269.4988</v>
       </c>
     </row>
     <row r="326">
@@ -4909,13 +4909,55 @@
         <v>44958</v>
       </c>
       <c r="B326" t="n">
-        <v>7823812000000</v>
+        <v>7822810000000</v>
       </c>
       <c r="C326" t="n">
         <v>0.03270111183780249</v>
       </c>
       <c r="D326" t="n">
-        <v>255847351209.9411</v>
+        <v>255814584695.8797</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B327" t="n">
+        <v>7965088000000</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0.03252032520325204</v>
+      </c>
+      <c r="D327" t="n">
+        <v>259027252032.5204</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B328" t="n">
+        <v>8069151000000</v>
+      </c>
+      <c r="C328" t="n">
+        <v>0.03241491085899514</v>
+      </c>
+      <c r="D328" t="n">
+        <v>261560810372.7715</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B329" t="n">
+        <v>8140535000000</v>
+      </c>
+      <c r="C329" t="n">
+        <v>0.03241491085899514</v>
+      </c>
+      <c r="D329" t="n">
+        <v>263874716369.53</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Egypt.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Egypt.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D329"/>
+  <dimension ref="A1:D330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4797,13 +4797,13 @@
         <v>44713</v>
       </c>
       <c r="B318" t="n">
-        <v>6611593000000</v>
+        <v>6614488000000</v>
       </c>
       <c r="C318" t="n">
         <v>0.05330490405117271</v>
       </c>
       <c r="D318" t="n">
-        <v>352430330490.4051</v>
+        <v>352584648187.6332</v>
       </c>
     </row>
     <row r="319">
@@ -4811,13 +4811,13 @@
         <v>44743</v>
       </c>
       <c r="B319" t="n">
-        <v>6708585000000</v>
+        <v>6708871000000</v>
       </c>
       <c r="C319" t="n">
         <v>0.05299417064122946</v>
       </c>
       <c r="D319" t="n">
-        <v>355515898251.1923</v>
+        <v>355531054583.9957</v>
       </c>
     </row>
     <row r="320">
@@ -4825,13 +4825,13 @@
         <v>44774</v>
       </c>
       <c r="B320" t="n">
-        <v>6808379000000</v>
+        <v>6808405000000</v>
       </c>
       <c r="C320" t="n">
         <v>0.05205622071837585</v>
       </c>
       <c r="D320" t="n">
-        <v>354418479958.355</v>
+        <v>354419833420.0937</v>
       </c>
     </row>
     <row r="321">
@@ -4923,13 +4923,13 @@
         <v>44986</v>
       </c>
       <c r="B327" t="n">
-        <v>7965088000000</v>
+        <v>7965913000000</v>
       </c>
       <c r="C327" t="n">
         <v>0.03252032520325204</v>
       </c>
       <c r="D327" t="n">
-        <v>259027252032.5204</v>
+        <v>259054081300.813</v>
       </c>
     </row>
     <row r="328">
@@ -4951,13 +4951,27 @@
         <v>45047</v>
       </c>
       <c r="B329" t="n">
-        <v>8140535000000</v>
+        <v>8140532000000</v>
       </c>
       <c r="C329" t="n">
         <v>0.03241491085899514</v>
       </c>
       <c r="D329" t="n">
-        <v>263874716369.53</v>
+        <v>263874619124.7974</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B330" t="n">
+        <v>8248190000000</v>
+      </c>
+      <c r="C330" t="n">
+        <v>0.03241491085899514</v>
+      </c>
+      <c r="D330" t="n">
+        <v>267364343598.0551</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Egypt.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Egypt.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D330"/>
+  <dimension ref="A1:D333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4974,6 +4974,48 @@
         <v>267364343598.0551</v>
       </c>
     </row>
+    <row r="331">
+      <c r="A331" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B331" t="n">
+        <v>8343414000000</v>
+      </c>
+      <c r="C331" t="n">
+        <v>0.03241491085899514</v>
+      </c>
+      <c r="D331" t="n">
+        <v>270451021069.692</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B332" t="n">
+        <v>8467486000000</v>
+      </c>
+      <c r="C332" t="n">
+        <v>0.03241491085899514</v>
+      </c>
+      <c r="D332" t="n">
+        <v>274472803889.7893</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B333" t="n">
+        <v>8551079000000</v>
+      </c>
+      <c r="C333" t="n">
+        <v>0.03241491085899514</v>
+      </c>
+      <c r="D333" t="n">
+        <v>277182463533.2253</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/Egypt.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Egypt.xlsx
@@ -1,40 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Egypt_M2 (EGP)</t>
+  </si>
+  <si>
+    <t>Egypt_FX (USD)</t>
+  </si>
+  <si>
+    <t>Egypt_M2 (USD)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +66,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,4597 +385,4541 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D333"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Egypt_M2 (EGP)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Egypt_FX (USD)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Egypt_M2 (USD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
         <v>35096</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>161125000000</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
         <v>35125</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>161779000000</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
         <v>35156</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>163274000000</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>35186</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>165611000000</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>35217</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>168028000000</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>35247</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>169865000000</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>35278</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>172071000000</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>35309</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>172935000000</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>35339</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>175562000000</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>35370</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>177061000000</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
         <v>35400</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>179156000000</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
         <v>35431</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>180602000000</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
         <v>35462</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>181825000000</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
         <v>35490</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>183044000000</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>35521</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>186512000000</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
         <v>35551</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>190627000000</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2">
         <v>35582</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>193903000000</v>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2">
         <v>35612</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>196435000000</v>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
         <v>35643</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>198455000000</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.2950026550238952</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>58544751902.76713</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
         <v>35674</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>197891000000</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.2954209748892171</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>58461152141.80207</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
         <v>35704</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>200037000000</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.2942388042134997</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>58858647678.45583</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
         <v>35735</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>201499000000</v>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
         <v>35765</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>202336000000</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.2940744008234083</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>59501837965.00514</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
         <v>35796</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>203371000000</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.293728888236158</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>59735937729.47569</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:4">
+      <c r="A26" s="2">
         <v>35827</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>203143000000</v>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2">
         <v>35855</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>202840000000</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>0.2936598831233665</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>59565970692.74366</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:4">
+      <c r="A28" s="2">
         <v>35886</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>203700000000</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>0.2938583602703497</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>59858947987.07023</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:4">
+      <c r="A29" s="2">
         <v>35916</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>207523000000</v>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2">
         <v>35947</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>210487000000</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0.2928086202857812</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>61632408058.09322</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:4">
+      <c r="A31" s="2">
         <v>35977</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>211559000000</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0.2938756318326085</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>62172034794.87481</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:4">
+      <c r="A32" s="2">
         <v>36008</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>214473000000</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.2935564362248642</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>62959929546.4553</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:4">
+      <c r="A33" s="2">
         <v>36039</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>216579000000</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.2930231195241305</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>63462654203.41665</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:4">
+      <c r="A34" s="2">
         <v>36069</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>218506000000</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.2931175987806308</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>64047954039.16051</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:4">
+      <c r="A35" s="2">
         <v>36100</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>219602000000</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.2929029612489382</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>64322076096.18933</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:4">
+      <c r="A36" s="2">
         <v>36130</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>221608000000</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.2925858739540055</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>64839370355.19925</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:4">
+      <c r="A37" s="2">
         <v>36161</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>222545000000</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.2926629400918961</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>65130674002.75103</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:4">
+      <c r="A38" s="2">
         <v>36192</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>224550000000</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.299060948621329</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>67154136012.91943</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:4">
+      <c r="A39" s="2">
         <v>36220</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>227515000000</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.2995805871779509</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>68159077291.7915</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:4">
+      <c r="A40" s="2">
         <v>36251</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>227862000000</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.2932809338064932</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>66827580139.01516</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:4">
+      <c r="A41" s="2">
         <v>36281</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>230413000000</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.2947244326554672</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>67908340701.44415</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:4">
+      <c r="A42" s="2">
         <v>36312</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>234569000000</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.2947331191606001</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>69135253028.3828</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:4">
+      <c r="A43" s="2">
         <v>36342</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>236005000000</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.2947244326554672</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>69556439728.85353</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:4">
+      <c r="A44" s="2">
         <v>36373</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>237548000000</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.2945681630729351</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>69974078001.64958</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:4">
+      <c r="A45" s="2">
         <v>36404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>238981000000</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.2944380649530371</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>70365103200.54176</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:4">
+      <c r="A46" s="2">
         <v>36434</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>240913000000</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.2932551319648093</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>70648973607.03812</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:4">
+      <c r="A47" s="2">
         <v>36465</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>242485000000</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.2944293958308798</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>71394712048.05089</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:4">
+      <c r="A48" s="2">
         <v>36495</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>244097000000</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.2905540866432286</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>70923380887.35217</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:4">
+      <c r="A49" s="2">
         <v>36526</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>243917000000</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.293703007518797</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>71639156484.96242</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:4">
+      <c r="A50" s="2">
         <v>36557</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>244844000000</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>0.293513354857646</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>71864983856.76549</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:4">
+      <c r="A51" s="2">
         <v>36586</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>247477000000</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>0.289452356142179</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>71632800740.99803</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:4">
+      <c r="A52" s="2">
         <v>36617</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>247904000000</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>0.2934272300469484</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>72741784037.55869</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:4">
+      <c r="A53" s="2">
         <v>36647</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>250176000000</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>0.2918004085205719</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>73001459002.0426</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:4">
+      <c r="A54" s="2">
         <v>36678</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>255276000000</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>0.2894356005788712</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>73885962373.37192</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:4">
+      <c r="A55" s="2">
         <v>36708</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>257583000000</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>0.2879355024474518</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>74167290526.92198</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:4">
+      <c r="A56" s="2">
         <v>36739</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>260139000000</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>0.2859593937660852</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>74389190734.91563</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:4">
+      <c r="A57" s="2">
         <v>36770</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>262164000000</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>0.2822466836014677</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>73994919559.69516</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:4">
+      <c r="A58" s="2">
         <v>36800</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>266113000000</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>0.2689979825151311</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>71583860121.04909</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:4">
+      <c r="A59" s="2">
         <v>36831</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>268062000000</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>0.2658655252173451</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>71268444420.81195</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:4">
+      <c r="A60" s="2">
         <v>36861</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>270942000000</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>0.2583979328165374</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>70010852713.17828</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:4">
+      <c r="A61" s="2">
         <v>36892</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>271625000000</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>0.2597402597402597</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>70551948051.94804</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:4">
+      <c r="A62" s="2">
         <v>36923</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>273886000000</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>0.2588996763754046</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>70908996763.75406</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:4">
+      <c r="A63" s="2">
         <v>36951</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>274183000000</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>0.2607561929595828</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>71494915254.23729</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:4">
+      <c r="A64" s="2">
         <v>36982</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>275560000000</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>0.2585114908357676</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>71235426414.70413</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:4">
+      <c r="A65" s="2">
         <v>37012</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>280081000000</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>0.2585649644473174</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>72419133807.36909</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:4">
+      <c r="A66" s="2">
         <v>37043</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>284879000000</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>0.2578648788035069</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>73460288808.66426</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:4">
+      <c r="A67" s="2">
         <v>37073</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>287528000000</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>0.2545500827287769</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>73190276186.83975</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:4">
+      <c r="A68" s="2">
         <v>37104</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>293399000000</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>0.2357211889776772</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>69160361124.86151</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:4">
+      <c r="A69" s="2">
         <v>37135</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>297226000000</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>0.2357211889776772</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>70062466115.07909</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:4">
+      <c r="A70" s="2">
         <v>37165</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>298164000000</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>0.2356823002592505</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>70271977374.49918</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:4">
+      <c r="A71" s="2">
         <v>37196</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>299249000000</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>0.2356545304583481</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>70519382585.1302</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:4">
+      <c r="A72" s="2">
         <v>37226</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>306910000000</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>0.2206531332744925</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>67720653133.27449</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:4">
+      <c r="A73" s="2">
         <v>37257</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>309184000000</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>0.2166847237269773</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>66995449620.80173</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:4">
+      <c r="A74" s="2">
         <v>37288</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>312174000000</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>0.2172732210755025</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>67827050516.0239</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:4">
+      <c r="A75" s="2">
         <v>37316</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>313858000000</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>0.2164502164502164</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>67934632034.63203</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:4">
+      <c r="A76" s="2">
         <v>37347</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>316078000000</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>0.2154708037060978</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>68105580693.81599</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:4">
+      <c r="A77" s="2">
         <v>37377</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>321885000000</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>0.2188183807439825</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>70434354485.77681</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:4">
+      <c r="A78" s="2">
         <v>37408</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>328728000000</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>0.2169197396963123</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>71307592190.88936</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:4">
+      <c r="A79" s="2">
         <v>37438</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>329767000000</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>0.2152852529601723</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>70993972012.91713</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:4">
+      <c r="A80" s="2">
         <v>37469</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>334220000000</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>0.2183406113537118</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>72973799126.63756</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:4">
+      <c r="A81" s="2">
         <v>37500</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>338156000000</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>0.2173865785526402</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>73510575857.04659</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:4">
+      <c r="A82" s="2">
         <v>37530</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>339355000000</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>0.2164502164502164</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>73453463203.4632</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:4">
+      <c r="A83" s="2">
         <v>37561</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>340959000000</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>0.2164502164502164</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>73800649350.64935</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:4">
+      <c r="A84" s="2">
         <v>37591</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>342503000000</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>0.2177700348432056</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>74586890243.90245</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:4">
+      <c r="A85" s="2">
         <v>37622</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>358572000000</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>0.1876172607879925</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>67274296435.27204</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    <row r="86" spans="1:4">
+      <c r="A86" s="2">
         <v>37653</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>363325000000</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>0.1798561151079137</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>65346223021.58274</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    <row r="87" spans="1:4">
+      <c r="A87" s="2">
         <v>37681</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>366561000000</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>0.1739130434782609</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>63749739130.43478</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    <row r="88" spans="1:4">
+      <c r="A88" s="2">
         <v>37712</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>369850000000</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>0.1684919966301601</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>62316764953.6647</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:4">
+      <c r="A89" s="2">
         <v>37742</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>377449000000</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>0.1673640167364017</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>63171380753.13808</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    <row r="90" spans="1:4">
+      <c r="A90" s="2">
         <v>37773</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>384262000000</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>0.1663893510815308</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>63937104825.29119</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    <row r="91" spans="1:4">
+      <c r="A91" s="2">
         <v>37803</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>390672000000</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>0.1624695369618196</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>63472298943.94801</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    <row r="92" spans="1:4">
+      <c r="A92" s="2">
         <v>37834</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>396339000000</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>0.1626016260162602</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>64445365853.65854</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    <row r="93" spans="1:4">
+      <c r="A93" s="2">
         <v>37865</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>401009000000</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>0.163025758069775</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>65374796217.80241</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    <row r="94" spans="1:4">
+      <c r="A94" s="2">
         <v>37895</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>403668000000</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>0.1633986928104575</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>65958823529.41177</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    <row r="95" spans="1:4">
+      <c r="A95" s="2">
         <v>37926</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>408040000000</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>0.1622691721026839</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>66212312984.77915</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    <row r="96" spans="1:4">
+      <c r="A96" s="2">
         <v>37956</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>410807000000</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>0.1627339300244101</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>66852237591.53784</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    <row r="97" spans="1:4">
+      <c r="A97" s="2">
         <v>37987</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>416327000000</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>0.16220600162206</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>67530738037.30737</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    <row r="98" spans="1:4">
+      <c r="A98" s="2">
         <v>38018</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>418961000000</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>0.1615639389288311</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>67688989417.562</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    <row r="99" spans="1:4">
+      <c r="A99" s="2">
         <v>38047</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>420091000000</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>0.1615508885298869</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>67866074313.40872</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    <row r="100" spans="1:4">
+      <c r="A100" s="2">
         <v>38078</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>422901000000</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>0.1613527817219569</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>68236252742.99729</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    <row r="101" spans="1:4">
+      <c r="A101" s="2">
         <v>38108</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>432268000000</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>0.1614205004035512</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>69776916868.44229</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    <row r="102" spans="1:4">
+      <c r="A102" s="2">
         <v>38139</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>434911000000</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>0.1616814874696847</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>70317057396.92805</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    <row r="103" spans="1:4">
+      <c r="A103" s="2">
         <v>38169</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>441277000000</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>0.1611214049786514</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>71099170224.76436</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    <row r="104" spans="1:4">
+      <c r="A104" s="2">
         <v>38200</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>447171000000</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>0.1605780810919309</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>71805861099.95985</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    <row r="105" spans="1:4">
+      <c r="A105" s="2">
         <v>38231</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>450914000000</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>0.1605136436597111</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>72377849117.17496</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    <row r="106" spans="1:4">
+      <c r="A106" s="2">
         <v>38261</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>458404000000</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>0.1606425702811245</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>73639196787.14859</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    <row r="107" spans="1:4">
+      <c r="A107" s="2">
         <v>38292</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>464369000000</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>0.1610305958132045</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>74777616747.18196</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    <row r="108" spans="1:4">
+      <c r="A108" s="2">
         <v>38322</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>468261000000</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>0.164406083025072</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>76984956843.40321</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    <row r="109" spans="1:4">
+      <c r="A109" s="2">
         <v>38353</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>469567000000</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>0.1715265866209262</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>80543224699.82848</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    <row r="110" spans="1:4">
+      <c r="A110" s="2">
         <v>38384</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>474100000000</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>0.1719690455717971</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>81530524505.58899</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    <row r="111" spans="1:4">
+      <c r="A111" s="2">
         <v>38412</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>479063000000</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>0.1725625539257981</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>82668334771.35461</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    <row r="112" spans="1:4">
+      <c r="A112" s="2">
         <v>38443</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>484156000000</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>0.172488141440276</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>83511168607.15825</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    <row r="113" spans="1:4">
+      <c r="A113" s="2">
         <v>38473</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>490130000000</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>0.1727115716753022</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>84651122625.21588</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    <row r="114" spans="1:4">
+      <c r="A114" s="2">
         <v>38504</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>493884000000</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>0.1727861771058316</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>85336328293.73651</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    <row r="115" spans="1:4">
+      <c r="A115" s="2">
         <v>38534</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>505899000000</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>0.1733102253032929</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>87677469670.71057</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    <row r="116" spans="1:4">
+      <c r="A116" s="2">
         <v>38565</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>512730000000</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>0.1733763306633378</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>88895246021.0132</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    <row r="117" spans="1:4">
+      <c r="A117" s="2">
         <v>38596</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>514822000000</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>0.1737619461337967</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>89456472632.49348</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    <row r="118" spans="1:4">
+      <c r="A118" s="2">
         <v>38626</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>516716000000</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>0.1738676866904286</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>89840215595.93149</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    <row r="119" spans="1:4">
+      <c r="A119" s="2">
         <v>38657</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>518905000000</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>0.1736653815428433</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>90115834809.48907</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    <row r="120" spans="1:4">
+      <c r="A120" s="2">
         <v>38687</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>522296000000</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>0.1744044089434581</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>91090725173.53239</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    <row r="121" spans="1:4">
+      <c r="A121" s="2">
         <v>38718</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>528828000000</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>0.1746175874834113</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>92342669553.67744</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    <row r="122" spans="1:4">
+      <c r="A122" s="2">
         <v>38749</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>534409000000</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>0.1745566261695294</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>93284632034.63205</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+    <row r="123" spans="1:4">
+      <c r="A123" s="2">
         <v>38777</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>534663000000</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>0.1744439598778892</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>93268730920.19189</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+    <row r="124" spans="1:4">
+      <c r="A124" s="2">
         <v>38808</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>545907000000</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>0.1739432944859976</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>94956862062.96748</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+    <row r="125" spans="1:4">
+      <c r="A125" s="2">
         <v>38838</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>551179000000</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>0.1733102253032929</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>95524956672.44368</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+    <row r="126" spans="1:4">
+      <c r="A126" s="2">
         <v>38869</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>560356000000</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>0.1739130434782609</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>97453217391.30435</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+    <row r="127" spans="1:4">
+      <c r="A127" s="2">
         <v>38899</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>567104000000</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>0.1739886907351022</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>98669682470.63942</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+    <row r="128" spans="1:4">
+      <c r="A128" s="2">
         <v>38930</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>574499000000</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>0.1741796140179753</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>100066014073.7128</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+    <row r="129" spans="1:4">
+      <c r="A129" s="2">
         <v>38961</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>582226000000</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>0.1743800788197956</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>101528615770.9343</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+    <row r="130" spans="1:4">
+      <c r="A130" s="2">
         <v>38991</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>588952000000</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>0.174544439014173</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>102798296446.2752</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+    <row r="131" spans="1:4">
+      <c r="A131" s="2">
         <v>39022</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>587340000000</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>0.1749934377460845</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>102780645725.7853</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+    <row r="132" spans="1:4">
+      <c r="A132" s="2">
         <v>39052</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>601309000000</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>0.1750945510575711</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>105285929401.877</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
+    <row r="133" spans="1:4">
+      <c r="A133" s="2">
         <v>39083</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>596701000000</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>0.1756851721714687</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>104831517919.8876</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    <row r="134" spans="1:4">
+      <c r="A134" s="2">
         <v>39114</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>604683000000</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>0.1757469244288225</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>106271177504.3937</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+    <row r="135" spans="1:4">
+      <c r="A135" s="2">
         <v>39142</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>610452000000</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>0.1757098678661794</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>107262440258.6449</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+    <row r="136" spans="1:4">
+      <c r="A136" s="2">
         <v>39173</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>619179000000</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>0.176056338028169</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>109010387323.9437</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+    <row r="137" spans="1:4">
+      <c r="A137" s="2">
         <v>39203</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>650023000000</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>0.1759479194158529</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>114370194422.4509</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+    <row r="138" spans="1:4">
+      <c r="A138" s="2">
         <v>39234</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>662688000000</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>0.1758705592683785</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>116547309180.4432</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
+    <row r="139" spans="1:4">
+      <c r="A139" s="2">
         <v>39264</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>671041000000</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>0.1769535673839185</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>118743098810.872</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
+    <row r="140" spans="1:4">
+      <c r="A140" s="2">
         <v>39295</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>676909000000</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>0.1772578215013738</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>119987414694.6734</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
+    <row r="141" spans="1:4">
+      <c r="A141" s="2">
         <v>39326</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>681900000000</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>0.1792114695340502</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>122204301075.2688</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
+    <row r="142" spans="1:4">
+      <c r="A142" s="2">
         <v>39356</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>689933000000</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>0.1817025529208685</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>125362587444.3536</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
+    <row r="143" spans="1:4">
+      <c r="A143" s="2">
         <v>39387</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>704631000000</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>0.1808318264014467</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>127419710669.0778</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
+    <row r="144" spans="1:4">
+      <c r="A144" s="2">
         <v>39417</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>716275000000</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>0.1815541031227306</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>130042665214.2338</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
+    <row r="145" spans="1:4">
+      <c r="A145" s="2">
         <v>39448</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>724715000000</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>0.1802613789995493</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>130638125281.6584</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
+    <row r="146" spans="1:4">
+      <c r="A146" s="2">
         <v>39479</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>738454000000</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>0.1826150474799123</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>134852812271.7312</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
+    <row r="147" spans="1:4">
+      <c r="A147" s="2">
         <v>39508</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>756553000000</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>0.1837120864181655</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>138987930115.9223</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="2" t="n">
+    <row r="148" spans="1:4">
+      <c r="A148" s="2">
         <v>39539</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>760927000000</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>0.186219739292365</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>141699627560.5214</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="2" t="n">
+    <row r="149" spans="1:4">
+      <c r="A149" s="2">
         <v>39569</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>762182000000</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>0.1873466099630927</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>142792213874.8899</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
+    <row r="150" spans="1:4">
+      <c r="A150" s="2">
         <v>39600</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>766664000000</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>0.1878710453144961</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>144033967084.9929</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
+    <row r="151" spans="1:4">
+      <c r="A151" s="2">
         <v>39630</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>775261000000</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>0.188821752265861</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>146386140483.3837</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
+    <row r="152" spans="1:4">
+      <c r="A152" s="2">
         <v>39661</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>781199000000</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>0.1865497621490532</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>145732487641.0782</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
+    <row r="153" spans="1:4">
+      <c r="A153" s="2">
         <v>39692</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>777871000000</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>0.1839249586168843</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>143069891484.2744</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
+    <row r="154" spans="1:4">
+      <c r="A154" s="2">
         <v>39722</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>780543000000</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>0.1795332136445242</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>140133393177.7379</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
+    <row r="155" spans="1:4">
+      <c r="A155" s="2">
         <v>39753</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>784801000000</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>0.1813236627379873</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>142302991840.4352</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
+    <row r="156" spans="1:4">
+      <c r="A156" s="2">
         <v>39783</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>791378000000</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>0.1821991436640248</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>144188393914.5486</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
+    <row r="157" spans="1:4">
+      <c r="A157" s="2">
         <v>39814</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>793354000000</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>0.1798076058617279</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>142651083340.8253</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
+    <row r="158" spans="1:4">
+      <c r="A158" s="2">
         <v>39845</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>799754000000</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>0.1791633073546538</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>143286571710.1138</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
+    <row r="159" spans="1:4">
+      <c r="A159" s="2">
         <v>39873</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>808603000000</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>0.1778410101369376</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>143802774319.7581</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
+    <row r="160" spans="1:4">
+      <c r="A160" s="2">
         <v>39904</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>812410000000</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>0.1775252973548731</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>144223326824.0724</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
+    <row r="161" spans="1:4">
+      <c r="A161" s="2">
         <v>39934</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>826847000000</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>0.1779359430604982</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>147125800711.7438</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
+    <row r="162" spans="1:4">
+      <c r="A162" s="2">
         <v>39965</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>831211000000</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>0.1787629603146228</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>148589739006.0779</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
+    <row r="163" spans="1:4">
+      <c r="A163" s="2">
         <v>39995</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>835457000000</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>0.1802613789995493</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>150600630914.8265</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
+    <row r="164" spans="1:4">
+      <c r="A164" s="2">
         <v>40026</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>836503000000</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>0.1809627216793341</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>151375859572.928</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
+    <row r="165" spans="1:4">
+      <c r="A165" s="2">
         <v>40057</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>847808000000</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>0.1817520901490367</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>154090876045.0745</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
+    <row r="166" spans="1:4">
+      <c r="A166" s="2">
         <v>40087</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>847757000000</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>0.1827819411442149</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>154954670078.5962</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
+    <row r="167" spans="1:4">
+      <c r="A167" s="2">
         <v>40118</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>854057000000</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>0.1825817053131276</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>155935183494.6138</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
+    <row r="168" spans="1:4">
+      <c r="A168" s="2">
         <v>40148</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>866354000000</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>0.1823320266204759</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>157964080590.7558</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
+    <row r="169" spans="1:4">
+      <c r="A169" s="2">
         <v>40179</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>867734000000</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>0.183368478958467</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>159115063720.5464</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
+    <row r="170" spans="1:4">
+      <c r="A170" s="2">
         <v>40210</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>875586000000</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>0.1821493624772313</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>159487431693.9891</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
+    <row r="171" spans="1:4">
+      <c r="A171" s="2">
         <v>40238</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>888176000000</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>0.1817025529208685</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>161383846643.0453</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
+    <row r="172" spans="1:4">
+      <c r="A172" s="2">
         <v>40269</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>890376000000</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>0.1799208348326736</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>160197193234.9766</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
+    <row r="173" spans="1:4">
+      <c r="A173" s="2">
         <v>40299</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>896033000000</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>0.1767096660187312</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>158337692171.7618</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
+    <row r="174" spans="1:4">
+      <c r="A174" s="2">
         <v>40330</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>917459000000</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>0.1755926251097454</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>161099034240.5619</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="2" t="n">
+    <row r="175" spans="1:4">
+      <c r="A175" s="2">
         <v>40360</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>922637000000</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>0.1754385964912281</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>161866140350.8772</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="2" t="n">
+    <row r="176" spans="1:4">
+      <c r="A176" s="2">
         <v>40391</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>935234000000</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>0.1752694768206117</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>163917973884.848</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="2" t="n">
+    <row r="177" spans="1:4">
+      <c r="A177" s="2">
         <v>40422</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>948172000000</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>0.1756543123133673</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>166550500614.7901</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="2" t="n">
+    <row r="178" spans="1:4">
+      <c r="A178" s="2">
         <v>40452</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>961244000000</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>0.1732051615138131</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>166492422274.1837</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="2" t="n">
+    <row r="179" spans="1:4">
+      <c r="A179" s="2">
         <v>40483</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>963255000000</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>0.1727414061150458</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>166394023147.3484</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
+    <row r="180" spans="1:4">
+      <c r="A180" s="2">
         <v>40513</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>973962000000</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>0.1722949689869056</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>167808752584.4245</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
+    <row r="181" spans="1:4">
+      <c r="A181" s="2">
         <v>40544</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>969712000000</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>0.1707941929974381</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>165621178479.9317</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
+    <row r="182" spans="1:4">
+      <c r="A182" s="2">
         <v>40575</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>982547000000</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>0.1698225354504543</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>166858622739.2375</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
+    <row r="183" spans="1:4">
+      <c r="A183" s="2">
         <v>40603</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>988076000000</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>0.167897918065816</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>165895903290.7992</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
+    <row r="184" spans="1:4">
+      <c r="A184" s="2">
         <v>40634</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>986792000000</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>0.1682085786375105</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>165986879730.8663</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
+    <row r="185" spans="1:4">
+      <c r="A185" s="2">
         <v>40664</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>994431000000</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>0.1679261125104954</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>166990931989.9244</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
+    <row r="186" spans="1:4">
+      <c r="A186" s="2">
         <v>40695</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>1009411000000</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>0.1675603217158177</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>169137231903.4853</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="2" t="n">
+    <row r="187" spans="1:4">
+      <c r="A187" s="2">
         <v>40725</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>1018926000000</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>0.1678697330871244</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>171046835655.5313</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="2" t="n">
+    <row r="188" spans="1:4">
+      <c r="A188" s="2">
         <v>40756</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>1024359000000</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>0.1680248676804167</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>172117785432.244</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
+    <row r="189" spans="1:4">
+      <c r="A189" s="2">
         <v>40787</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>1024430000000</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>0.1676727028839705</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>171768947015.4259</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="2" t="n">
+    <row r="190" spans="1:4">
+      <c r="A190" s="2">
         <v>40817</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>1030934000000</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>0.1676164934629568</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>172801542071.7399</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="2" t="n">
+    <row r="191" spans="1:4">
+      <c r="A191" s="2">
         <v>40848</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>1031696000000</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>0.1669170422300117</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>172207644800.5341</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="2" t="n">
+    <row r="192" spans="1:4">
+      <c r="A192" s="2">
         <v>40878</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>1038871000000</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>0.1658649859014762</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>172312323768.4525</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="2" t="n">
+    <row r="193" spans="1:4">
+      <c r="A193" s="2">
         <v>40909</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>1043877000000</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>0.1659475605708596</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>173228841686.0272</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="2" t="n">
+    <row r="194" spans="1:4">
+      <c r="A194" s="2">
         <v>40940</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>1050128000000</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>0.1658649859014762</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>174179465914.7454</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="2" t="n">
+    <row r="195" spans="1:4">
+      <c r="A195" s="2">
         <v>40969</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>1054996000000</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>0.1656177542232527</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>174726068234.5147</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="2" t="n">
+    <row r="196" spans="1:4">
+      <c r="A196" s="2">
         <v>41000</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>1058770000000</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>0.16604400166044</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>175802407638.0241</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="2" t="n">
+    <row r="197" spans="1:4">
+      <c r="A197" s="2">
         <v>41030</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>1067581000000</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>0.1659585767392459</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>177174223313.8609</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="2" t="n">
+    <row r="198" spans="1:4">
+      <c r="A198" s="2">
         <v>41061</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>1094408000000</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>0.1650328415354655</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>180613262039.1458</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="2" t="n">
+    <row r="199" spans="1:4">
+      <c r="A199" s="2">
         <v>41091</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>1101874000000</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>0.1645900883848775</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>181357539048.9985</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="2" t="n">
+    <row r="200" spans="1:4">
+      <c r="A200" s="2">
         <v>41122</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>1115267000000</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>0.1643034355848381</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>183242199694.3956</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="2" t="n">
+    <row r="201" spans="1:4">
+      <c r="A201" s="2">
         <v>41153</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>1124332000000</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>0.164009709374795</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>184401364560.782</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="2" t="n">
+    <row r="202" spans="1:4">
+      <c r="A202" s="2">
         <v>41183</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>1144653000000</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>0.1636446946389998</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>187316390652.6151</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="2" t="n">
+    <row r="203" spans="1:4">
+      <c r="A203" s="2">
         <v>41214</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>1147497000000</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>0.1640446857724044</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>188240784789.7767</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
+    <row r="204" spans="1:4">
+      <c r="A204" s="2">
         <v>41244</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>1167160000000</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>0.1571116592562334</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>183374444217.5054</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
+    <row r="205" spans="1:4">
+      <c r="A205" s="2">
         <v>41275</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>1198095000000</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>0.1489203276247208</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>178420699925.5398</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
+    <row r="206" spans="1:4">
+      <c r="A206" s="2">
         <v>41306</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>1211317000000</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>0.1483591478250549</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>179709957866.002</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
+    <row r="207" spans="1:4">
+      <c r="A207" s="2">
         <v>41334</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>1236938000000</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>0.1469982948197801</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>181827776797.7891</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
+    <row r="208" spans="1:4">
+      <c r="A208" s="2">
         <v>41365</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>1252861000000</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>0.1442169022209403</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>180683732333.4295</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="2" t="n">
+    <row r="209" spans="1:4">
+      <c r="A209" s="2">
         <v>41395</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>1268513000000</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>0.1431987742184927</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>181649506680.2228</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="2" t="n">
+    <row r="210" spans="1:4">
+      <c r="A210" s="2">
         <v>41426</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>1296086000000</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>0.1424704373842428</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>184653939307.5937</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="2" t="n">
+    <row r="211" spans="1:4">
+      <c r="A211" s="2">
         <v>41456</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>1316054000000</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>0.1428795953649859</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>188037262998.4712</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
+    <row r="212" spans="1:4">
+      <c r="A212" s="2">
         <v>41487</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>1329492000000</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>0.1431536754706177</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>190321666308.7825</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="2" t="n">
+    <row r="213" spans="1:4">
+      <c r="A213" s="2">
         <v>41518</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>1334967000000</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>0.145106290357687</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>193712109119.9304</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="2" t="n">
+    <row r="214" spans="1:4">
+      <c r="A214" s="2">
         <v>41548</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>1348484000000</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>0.1451947787957545</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>195792836089.6142</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
+    <row r="215" spans="1:4">
+      <c r="A215" s="2">
         <v>41579</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>1360134000000</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>0.1453488372093023</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>197693895348.8372</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
+    <row r="216" spans="1:4">
+      <c r="A216" s="2">
         <v>41609</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>1387688000000</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>0.1439159530833993</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>199710441102.3962</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
+    <row r="217" spans="1:4">
+      <c r="A217" s="2">
         <v>41640</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>1398255000000</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>0.1436472024707319</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>200855419090.7132</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
+    <row r="218" spans="1:4">
+      <c r="A218" s="2">
         <v>41671</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>1417624000000</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>0.1436678399540263</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>203666977946.9866</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="2" t="n">
+    <row r="219" spans="1:4">
+      <c r="A219" s="2">
         <v>41699</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>1438421000000</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>0.1435276218908329</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>206453145407.8337</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="2" t="n">
+    <row r="220" spans="1:4">
+      <c r="A220" s="2">
         <v>41730</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>1459568000000</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>0.1428591837026243</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>208512693038.472</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="2" t="n">
+    <row r="221" spans="1:4">
+      <c r="A221" s="2">
         <v>41760</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>1484420000000</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>0.1398562277978238</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>207605381667.6457</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
+    <row r="222" spans="1:4">
+      <c r="A222" s="2">
         <v>41791</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>1516601000000</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>0.1398601398601398</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>212112027972.028</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
+    <row r="223" spans="1:4">
+      <c r="A223" s="2">
         <v>41821</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>1545031000000</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>0.1398601398601398</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>216088251748.2517</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
+    <row r="224" spans="1:4">
+      <c r="A224" s="2">
         <v>41852</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>1557379000000</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>0.1398601398601398</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>217815244755.2447</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
+    <row r="225" spans="1:4">
+      <c r="A225" s="2">
         <v>41883</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>1543756000000</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>0.1398601398601398</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>215909930069.9301</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="2" t="n">
+    <row r="226" spans="1:4">
+      <c r="A226" s="2">
         <v>41913</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>1560327000000</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>0.1398601398601398</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>218227552447.5524</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="2" t="n">
+    <row r="227" spans="1:4">
+      <c r="A227" s="2">
         <v>41944</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>1572950000000</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>0.1398601398601398</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>219993006993.007</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="2" t="n">
+    <row r="228" spans="1:4">
+      <c r="A228" s="2">
         <v>41974</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>1606505000000</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>0.1398601398601398</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>224686013986.0139</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="2" t="n">
+    <row r="229" spans="1:4">
+      <c r="A229" s="2">
         <v>42005</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>1627547000000</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>0.1317523056653492</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>214433069828.722</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="2" t="n">
+    <row r="230" spans="1:4">
+      <c r="A230" s="2">
         <v>42036</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>1637378000000</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>0.131578947368421</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>215444473684.2105</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="2" t="n">
+    <row r="231" spans="1:4">
+      <c r="A231" s="2">
         <v>42064</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>1682225000000</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>0.1310615989515072</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>220475098296.1992</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="2" t="n">
+    <row r="232" spans="1:4">
+      <c r="A232" s="2">
         <v>42095</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>1700416000000</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>0.1310615989515072</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>222859239842.7261</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="2" t="n">
+    <row r="233" spans="1:4">
+      <c r="A233" s="2">
         <v>42125</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>1720048000000</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>0.1310615989515072</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>225432241153.3421</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="2" t="n">
+    <row r="234" spans="1:4">
+      <c r="A234" s="2">
         <v>42156</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>1765492000000</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>0.1310615989515072</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>231388204456.0944</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="2" t="n">
+    <row r="235" spans="1:4">
+      <c r="A235" s="2">
         <v>42186</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>1799490000000</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>0.1282051282051282</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>230703846153.8462</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
+    <row r="236" spans="1:4">
+      <c r="A236" s="2">
         <v>42217</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>1819118000000</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>0.1277139208173691</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>232326692209.4508</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
+    <row r="237" spans="1:4">
+      <c r="A237" s="2">
         <v>42248</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>1850305000000</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>0.1277139208173691</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>236309706257.9821</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
+    <row r="238" spans="1:4">
+      <c r="A238" s="2">
         <v>42278</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>1868174000000</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>0.12453300124533</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>232649315068.4932</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
+    <row r="239" spans="1:4">
+      <c r="A239" s="2">
         <v>42309</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>1876828000000</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>0.1277139208173691</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>239697062579.8212</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
+    <row r="240" spans="1:4">
+      <c r="A240" s="2">
         <v>42339</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>1905464000000</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>0.1277139208173691</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>243354278416.3474</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="2" t="n">
+    <row r="241" spans="1:4">
+      <c r="A241" s="2">
         <v>42370</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>1909422000000</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>0.1277139208173691</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>243859770114.9425</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="2" t="n">
+    <row r="242" spans="1:4">
+      <c r="A242" s="2">
         <v>42401</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>1922685000000</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>0.1277139208173691</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>245553639846.7433</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="2" t="n">
+    <row r="243" spans="1:4">
+      <c r="A243" s="2">
         <v>42430</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>1987839000000</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>0.1126138807869458</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>223858264169.6416</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="2" t="n">
+    <row r="244" spans="1:4">
+      <c r="A244" s="2">
         <v>42461</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>2006632000000</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>0.1126151489898421</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>225977161647.7849</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="2" t="n">
+    <row r="245" spans="1:4">
+      <c r="A245" s="2">
         <v>42491</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>2044293000000</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>0.1126151489898421</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>230218360773.8913</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="2" t="n">
+    <row r="246" spans="1:4">
+      <c r="A246" s="2">
         <v>42522</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>2094500000000</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>0.1126138807869458</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>235869773308.258</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="2" t="n">
+    <row r="247" spans="1:4">
+      <c r="A247" s="2">
         <v>42552</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>2119715000000</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>0.1126138807869458</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>238709332312.3008</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="2" t="n">
+    <row r="248" spans="1:4">
+      <c r="A248" s="2">
         <v>42583</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>2151648000000</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>0.1128999480660239</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>242920947456.3642</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="2" t="n">
+    <row r="249" spans="1:4">
+      <c r="A249" s="2">
         <v>42614</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>2183148000000</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>0.1129012227202421</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>246480078579.251</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="2" t="n">
+    <row r="250" spans="1:4">
+      <c r="A250" s="2">
         <v>42644</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>2198196000000</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>0.1128884774731043</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>248150999627.468</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="2" t="n">
+    <row r="251" spans="1:4">
+      <c r="A251" s="2">
         <v>42675</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>2601171000000</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>0.05649717514124294</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>146958813559.322</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="2" t="n">
+    <row r="252" spans="1:4">
+      <c r="A252" s="2">
         <v>42705</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>2648595000000</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>0.05555555555555555</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>147144166666.6667</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="2" t="n">
+    <row r="253" spans="1:4">
+      <c r="A253" s="2">
         <v>42736</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>2701634000000</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>0.053475935828877</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>144472406417.1123</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="2" t="n">
+    <row r="254" spans="1:4">
+      <c r="A254" s="2">
         <v>42767</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>2627193000000</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>0.06369426751592357</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>167337133757.9618</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="2" t="n">
+    <row r="255" spans="1:4">
+      <c r="A255" s="2">
         <v>42795</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>2743818000000</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>0.05714285714285714</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>156789600000</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="2" t="n">
+    <row r="256" spans="1:4">
+      <c r="A256" s="2">
         <v>42826</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>2784571000000</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>0.05571030640668524</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>155129303621.1699</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="2" t="n">
+    <row r="257" spans="1:4">
+      <c r="A257" s="2">
         <v>42856</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>2849601000000</v>
       </c>
-      <c r="C257" t="inlineStr"/>
-      <c r="D257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="2" t="n">
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="2">
         <v>42887</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>2918193000000</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>0.05514199062586159</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>160914971050.4549</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="2" t="n">
+    <row r="259" spans="1:4">
+      <c r="A259" s="2">
         <v>42917</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>2940815000000</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>0.05611672278338945</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>165028900112.2335</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="2" t="n">
+    <row r="260" spans="1:4">
+      <c r="A260" s="2">
         <v>42948</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>3003886000000</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>0.0564652738565782</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>169615245623.9413</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="2" t="n">
+    <row r="261" spans="1:4">
+      <c r="A261" s="2">
         <v>42979</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>3050373000000</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>0.05668934240362811</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>172923639455.7823</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="2" t="n">
+    <row r="262" spans="1:4">
+      <c r="A262" s="2">
         <v>43009</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>3088052000000</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>0.05667649059170256</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>175019950124.6883</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="2" t="n">
+    <row r="263" spans="1:4">
+      <c r="A263" s="2">
         <v>43040</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>3140629000000</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>0.05668934240362811</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>178040192743.7642</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="2" t="n">
+    <row r="264" spans="1:4">
+      <c r="A264" s="2">
         <v>43070</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>3202657000000</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>0.05624296962879639</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>180126940382.4522</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="2" t="n">
+    <row r="265" spans="1:4">
+      <c r="A265" s="2">
         <v>43101</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>3254247000000</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>0.05672149744753262</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>184585762904.1407</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="2" t="n">
+    <row r="266" spans="1:4">
+      <c r="A266" s="2">
         <v>43132</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>3294896000000</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>0.05678591709256105</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>187103691084.611</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="2" t="n">
+    <row r="267" spans="1:4">
+      <c r="A267" s="2">
         <v>43160</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>3343484000000</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>0.05688282138794085</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>190186803185.438</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="2" t="n">
+    <row r="268" spans="1:4">
+      <c r="A268" s="2">
         <v>43191</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>3379461000000</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>0.05672149744753262</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>191688088485.536</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="2" t="n">
+    <row r="269" spans="1:4">
+      <c r="A269" s="2">
         <v>43221</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>3401360000000</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>0.05599104143337066</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>190445688689.8096</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="2" t="n">
+    <row r="270" spans="1:4">
+      <c r="A270" s="2">
         <v>43252</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>3454321000000</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>0.05605381165919283</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>193627858744.3946</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="2" t="n">
+    <row r="271" spans="1:4">
+      <c r="A271" s="2">
         <v>43282</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>3466152000000</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>0.05611672278338945</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>194509090909.0909</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="2" t="n">
+    <row r="272" spans="1:4">
+      <c r="A272" s="2">
         <v>43313</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>3515419000000</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>0.05624296962879639</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>197717604049.4938</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="2" t="n">
+    <row r="273" spans="1:4">
+      <c r="A273" s="2">
         <v>43344</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>3549306000000</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>0.05621135469364812</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>199511298482.2934</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="2" t="n">
+    <row r="274" spans="1:4">
+      <c r="A274" s="2">
         <v>43374</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>3563376000000</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>0.05599104143337066</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>199517133258.6786</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="2" t="n">
+    <row r="275" spans="1:4">
+      <c r="A275" s="2">
         <v>43405</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>3581583000000</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>0.05599104143337066</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>200536562150.056</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="2" t="n">
+    <row r="276" spans="1:4">
+      <c r="A276" s="2">
         <v>43435</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>3628681000000</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>0.05599104143337066</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>203173628219.4849</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="2" t="n">
+    <row r="277" spans="1:4">
+      <c r="A277" s="2">
         <v>43466</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>3640093000000</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>0.05672149744753262</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>206471525808.2813</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="2" t="n">
+    <row r="278" spans="1:4">
+      <c r="A278" s="2">
         <v>43497</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>3674700000000</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>0.0572737686139748</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>210463917525.7732</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="2" t="n">
+    <row r="279" spans="1:4">
+      <c r="A279" s="2">
         <v>43525</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>3724689000000</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>0.05787037037037036</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>215549131944.4444</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="2" t="n">
+    <row r="280" spans="1:4">
+      <c r="A280" s="2">
         <v>43556</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>3762427000000</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>0.05841121495327103</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>219767932242.9907</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="2" t="n">
+    <row r="281" spans="1:4">
+      <c r="A281" s="2">
         <v>43586</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>3796864000000</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>0.05980861244019139</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>227085167464.1149</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="2" t="n">
+    <row r="282" spans="1:4">
+      <c r="A282" s="2">
         <v>43617</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>3863642000000</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>0.06006006006006007</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>232050570570.5706</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="2" t="n">
+    <row r="283" spans="1:4">
+      <c r="A283" s="2">
         <v>43647</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>3884855000000</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>0.06060606060606061</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>235445757575.7576</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="2" t="n">
+    <row r="284" spans="1:4">
+      <c r="A284" s="2">
         <v>43678</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>3929472000000</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>0.06060606060606061</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>238149818181.8182</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="2" t="n">
+    <row r="285" spans="1:4">
+      <c r="A285" s="2">
         <v>43709</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>4010381000000</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>0.06161429451632779</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>247096796056.6852</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="2" t="n">
+    <row r="286" spans="1:4">
+      <c r="A286" s="2">
         <v>43739</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>4024016000000</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>0.06215040397762586</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>250094220012.4301</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="2" t="n">
+    <row r="287" spans="1:4">
+      <c r="A287" s="2">
         <v>43770</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>4053149000000</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>0.06222775357809583</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>252218357187.3055</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="2" t="n">
+    <row r="288" spans="1:4">
+      <c r="A288" s="2">
         <v>43800</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>4110516000000</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>0.0625</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>256907250000</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="2" t="n">
+    <row r="289" spans="1:4">
+      <c r="A289" s="2">
         <v>43831</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>4140451000000</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>0.06353240152477764</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>263052795425.6671</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="2" t="n">
+    <row r="290" spans="1:4">
+      <c r="A290" s="2">
         <v>43862</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>4186575000000</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>0.06412311638345623</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>268456235973.0683</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="2" t="n">
+    <row r="291" spans="1:4">
+      <c r="A291" s="2">
         <v>43891</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>4276765000000</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>0.06373486297004462</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>272579031230.0829</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="2" t="n">
+    <row r="292" spans="1:4">
+      <c r="A292" s="2">
         <v>43922</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>4353065000000</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>0.06369426751592357</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>277265286624.2038</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="2" t="n">
+    <row r="293" spans="1:4">
+      <c r="A293" s="2">
         <v>43952</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>4451434000000</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>0.06333122229259025</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>281914756174.7942</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="2" t="n">
+    <row r="294" spans="1:4">
+      <c r="A294" s="2">
         <v>43983</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>4538808000000</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>0.06207324643078833</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>281738547486.0335</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="2" t="n">
+    <row r="295" spans="1:4">
+      <c r="A295" s="2">
         <v>44013</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>4627173000000</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>0.06281407035175879</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>290651570351.7588</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="2" t="n">
+    <row r="296" spans="1:4">
+      <c r="A296" s="2">
         <v>44044</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>4682128000000</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>0.06321112515802781</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>295962579013.9064</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="2" t="n">
+    <row r="297" spans="1:4">
+      <c r="A297" s="2">
         <v>44075</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>4757180000000</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>0.06357279084551812</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>302427209154.4819</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="2" t="n">
+    <row r="298" spans="1:4">
+      <c r="A298" s="2">
         <v>44105</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>4805875000000</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>0.06389776357827476</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>307084664536.7412</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="2" t="n">
+    <row r="299" spans="1:4">
+      <c r="A299" s="2">
         <v>44136</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>4845958000000</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>0.06406149903907751</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>310439333760.41</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="2" t="n">
+    <row r="300" spans="1:4">
+      <c r="A300" s="2">
         <v>44166</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>4920525000000</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>0.06373486297004462</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>313608986615.6788</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="2" t="n">
+    <row r="301" spans="1:4">
+      <c r="A301" s="2">
         <v>44197</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>4959491000000</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>0.06385696040868455</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>316698020434.2274</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="2" t="n">
+    <row r="302" spans="1:4">
+      <c r="A302" s="2">
         <v>44228</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>5023185000000</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>0.06389776357827476</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>320970287539.9361</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="2" t="n">
+    <row r="303" spans="1:4">
+      <c r="A303" s="2">
         <v>44256</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>5131876000000</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>0.06379585326953748</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>327392408293.4609</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="2" t="n">
+    <row r="304" spans="1:4">
+      <c r="A304" s="2">
         <v>44287</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>5184027000000</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>0.06406149903907751</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>332096540679.0519</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="2" t="n">
+    <row r="305" spans="1:4">
+      <c r="A305" s="2">
         <v>44317</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B305">
         <v>5257355000000</v>
       </c>
-      <c r="C305" t="n">
+      <c r="C305">
         <v>0.06385696040868455</v>
       </c>
-      <c r="D305" t="n">
+      <c r="D305">
         <v>335718710089.3998</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="2" t="n">
+    <row r="306" spans="1:4">
+      <c r="A306" s="2">
         <v>44348</v>
       </c>
-      <c r="B306" t="n">
+      <c r="B306">
         <v>5356609000000</v>
       </c>
-      <c r="C306" t="n">
+      <c r="C306">
         <v>0.06385696040868455</v>
       </c>
-      <c r="D306" t="n">
+      <c r="D306">
         <v>342056768837.8033</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="2" t="n">
+    <row r="307" spans="1:4">
+      <c r="A307" s="2">
         <v>44378</v>
       </c>
-      <c r="B307" t="n">
+      <c r="B307">
         <v>5425832000000</v>
       </c>
-      <c r="C307" t="n">
+      <c r="C307">
         <v>0.06381620931716656</v>
       </c>
-      <c r="D307" t="n">
+      <c r="D307">
         <v>346256030631.7805</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="2" t="n">
+    <row r="308" spans="1:4">
+      <c r="A308" s="2">
         <v>44409</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B308">
         <v>5490613000000</v>
       </c>
-      <c r="C308" t="n">
+      <c r="C308">
         <v>0.06389776357827476</v>
       </c>
-      <c r="D308" t="n">
+      <c r="D308">
         <v>350837891373.8019</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="2" t="n">
+    <row r="309" spans="1:4">
+      <c r="A309" s="2">
         <v>44440</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B309">
         <v>5574011000000</v>
       </c>
-      <c r="C309" t="n">
+      <c r="C309">
         <v>0.06373486297004462</v>
       </c>
-      <c r="D309" t="n">
+      <c r="D309">
         <v>355258827278.5214</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="2" t="n">
+    <row r="310" spans="1:4">
+      <c r="A310" s="2">
         <v>44470</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B310">
         <v>5651909000000</v>
       </c>
-      <c r="C310" t="n">
+      <c r="C310">
         <v>0.06385696040868455</v>
       </c>
-      <c r="D310" t="n">
+      <c r="D310">
         <v>360913729246.4879</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="2" t="n">
+    <row r="311" spans="1:4">
+      <c r="A311" s="2">
         <v>44501</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B311">
         <v>5740127000000</v>
       </c>
-      <c r="C311" t="n">
+      <c r="C311">
         <v>0.06353643814727745</v>
       </c>
-      <c r="D311" t="n">
+      <c r="D311">
         <v>364707224093.0173</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="2" t="n">
+    <row r="312" spans="1:4">
+      <c r="A312" s="2">
         <v>44531</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B312">
         <v>5822649000000</v>
       </c>
-      <c r="C312" t="n">
+      <c r="C312">
         <v>0.06385696040868455</v>
       </c>
-      <c r="D312" t="n">
+      <c r="D312">
         <v>371816666666.6667</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="2" t="n">
+    <row r="313" spans="1:4">
+      <c r="A313" s="2">
         <v>44562</v>
       </c>
-      <c r="B313" t="n">
+      <c r="B313">
         <v>5876621000000</v>
       </c>
-      <c r="C313" t="n">
+      <c r="C313">
         <v>0.06385696040868455</v>
       </c>
-      <c r="D313" t="n">
+      <c r="D313">
         <v>375263154533.8442</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="2" t="n">
+    <row r="314" spans="1:4">
+      <c r="A314" s="2">
         <v>44593</v>
       </c>
-      <c r="B314" t="n">
+      <c r="B314">
         <v>5948841000000</v>
       </c>
-      <c r="C314" t="n">
+      <c r="C314">
         <v>0.06385696040868455</v>
       </c>
-      <c r="D314" t="n">
+      <c r="D314">
         <v>379874904214.5594</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="2" t="n">
+    <row r="315" spans="1:4">
+      <c r="A315" s="2">
         <v>44621</v>
       </c>
-      <c r="B315" t="n">
+      <c r="B315">
         <v>6280452000000</v>
       </c>
-      <c r="C315" t="n">
+      <c r="C315">
         <v>0.05485463521667581</v>
       </c>
-      <c r="D315" t="n">
+      <c r="D315">
         <v>344511903455.842</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="2" t="n">
+    <row r="316" spans="1:4">
+      <c r="A316" s="2">
         <v>44652</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B316">
         <v>6416251000000</v>
       </c>
-      <c r="C316" t="n">
+      <c r="C316">
         <v>0.05431830526887561</v>
       </c>
-      <c r="D316" t="n">
+      <c r="D316">
         <v>348519880499.7284</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="2" t="n">
+    <row r="317" spans="1:4">
+      <c r="A317" s="2">
         <v>44682</v>
       </c>
-      <c r="B317" t="n">
+      <c r="B317">
         <v>6500587000000</v>
       </c>
-      <c r="C317" t="n">
+      <c r="C317">
         <v>0.05382131324004306</v>
       </c>
-      <c r="D317" t="n">
+      <c r="D317">
         <v>349870129171.1518</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="2" t="n">
+    <row r="318" spans="1:4">
+      <c r="A318" s="2">
         <v>44713</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B318">
         <v>6614488000000</v>
       </c>
-      <c r="C318" t="n">
+      <c r="C318">
         <v>0.05330490405117271</v>
       </c>
-      <c r="D318" t="n">
+      <c r="D318">
         <v>352584648187.6332</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="2" t="n">
+    <row r="319" spans="1:4">
+      <c r="A319" s="2">
         <v>44743</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B319">
         <v>6708871000000</v>
       </c>
-      <c r="C319" t="n">
+      <c r="C319">
         <v>0.05299417064122946</v>
       </c>
-      <c r="D319" t="n">
+      <c r="D319">
         <v>355531054583.9957</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="2" t="n">
+    <row r="320" spans="1:4">
+      <c r="A320" s="2">
         <v>44774</v>
       </c>
-      <c r="B320" t="n">
+      <c r="B320">
         <v>6808405000000</v>
       </c>
-      <c r="C320" t="n">
+      <c r="C320">
         <v>0.05205622071837585</v>
       </c>
-      <c r="D320" t="n">
+      <c r="D320">
         <v>354419833420.0937</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="2" t="n">
+    <row r="321" spans="1:4">
+      <c r="A321" s="2">
         <v>44805</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B321">
         <v>6949656000000</v>
       </c>
-      <c r="C321" t="n">
+      <c r="C321">
         <v>0.05130836326321191</v>
       </c>
-      <c r="D321" t="n">
+      <c r="D321">
         <v>356575474602.3602</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="2" t="n">
+    <row r="322" spans="1:4">
+      <c r="A322" s="2">
         <v>44835</v>
       </c>
-      <c r="B322" t="n">
+      <c r="B322">
         <v>7181661000000</v>
       </c>
-      <c r="C322" t="n">
+      <c r="C322">
         <v>0.04140786749482402</v>
       </c>
-      <c r="D322" t="n">
+      <c r="D322">
         <v>297377267080.7454</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="2" t="n">
+    <row r="323" spans="1:4">
+      <c r="A323" s="2">
         <v>44866</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B323">
         <v>7317012000000</v>
       </c>
-      <c r="C323" t="n">
+      <c r="C323">
         <v>0.04081632653061224</v>
       </c>
-      <c r="D323" t="n">
+      <c r="D323">
         <v>298653551020.4081</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="2" t="n">
+    <row r="324" spans="1:4">
+      <c r="A324" s="2">
         <v>44896</v>
       </c>
-      <c r="B324" t="n">
+      <c r="B324">
         <v>7402740000000</v>
       </c>
-      <c r="C324" t="n">
+      <c r="C324">
         <v>0.04050222762251924</v>
       </c>
-      <c r="D324" t="n">
+      <c r="D324">
         <v>299827460510.3281</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="2" t="n">
+    <row r="325" spans="1:4">
+      <c r="A325" s="2">
         <v>44927</v>
       </c>
-      <c r="B325" t="n">
+      <c r="B325">
         <v>7710432000000</v>
       </c>
-      <c r="C325" t="n">
+      <c r="C325">
         <v>0.03318951211417192</v>
       </c>
-      <c r="D325" t="n">
+      <c r="D325">
         <v>255905476269.4988</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="2" t="n">
+    <row r="326" spans="1:4">
+      <c r="A326" s="2">
         <v>44958</v>
       </c>
-      <c r="B326" t="n">
+      <c r="B326">
         <v>7822810000000</v>
       </c>
-      <c r="C326" t="n">
+      <c r="C326">
         <v>0.03270111183780249</v>
       </c>
-      <c r="D326" t="n">
+      <c r="D326">
         <v>255814584695.8797</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="2" t="n">
+    <row r="327" spans="1:4">
+      <c r="A327" s="2">
         <v>44986</v>
       </c>
-      <c r="B327" t="n">
+      <c r="B327">
         <v>7965913000000</v>
       </c>
-      <c r="C327" t="n">
+      <c r="C327">
         <v>0.03252032520325204</v>
       </c>
-      <c r="D327" t="n">
+      <c r="D327">
         <v>259054081300.813</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="2" t="n">
+    <row r="328" spans="1:4">
+      <c r="A328" s="2">
         <v>45017</v>
       </c>
-      <c r="B328" t="n">
+      <c r="B328">
         <v>8069151000000</v>
       </c>
-      <c r="C328" t="n">
+      <c r="C328">
         <v>0.03241491085899514</v>
       </c>
-      <c r="D328" t="n">
+      <c r="D328">
         <v>261560810372.7715</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="2" t="n">
+    <row r="329" spans="1:4">
+      <c r="A329" s="2">
         <v>45047</v>
       </c>
-      <c r="B329" t="n">
+      <c r="B329">
         <v>8140532000000</v>
       </c>
-      <c r="C329" t="n">
+      <c r="C329">
         <v>0.03241491085899514</v>
       </c>
-      <c r="D329" t="n">
+      <c r="D329">
         <v>263874619124.7974</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" s="2" t="n">
+    <row r="330" spans="1:4">
+      <c r="A330" s="2">
         <v>45078</v>
       </c>
-      <c r="B330" t="n">
+      <c r="B330">
         <v>8248190000000</v>
       </c>
-      <c r="C330" t="n">
+      <c r="C330">
         <v>0.03241491085899514</v>
       </c>
-      <c r="D330" t="n">
+      <c r="D330">
         <v>267364343598.0551</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" s="2" t="n">
+    <row r="331" spans="1:4">
+      <c r="A331" s="2">
         <v>45108</v>
       </c>
-      <c r="B331" t="n">
+      <c r="B331">
         <v>8343414000000</v>
       </c>
-      <c r="C331" t="n">
+      <c r="C331">
         <v>0.03241491085899514</v>
       </c>
-      <c r="D331" t="n">
+      <c r="D331">
         <v>270451021069.692</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" s="2" t="n">
+    <row r="332" spans="1:4">
+      <c r="A332" s="2">
         <v>45139</v>
       </c>
-      <c r="B332" t="n">
+      <c r="B332">
         <v>8467486000000</v>
       </c>
-      <c r="C332" t="n">
+      <c r="C332">
         <v>0.03241491085899514</v>
       </c>
-      <c r="D332" t="n">
+      <c r="D332">
         <v>274472803889.7893</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" s="2" t="n">
+    <row r="333" spans="1:4">
+      <c r="A333" s="2">
         <v>45170</v>
       </c>
-      <c r="B333" t="n">
+      <c r="B333">
         <v>8551079000000</v>
       </c>
-      <c r="C333" t="n">
+      <c r="C333">
         <v>0.03241491085899514</v>
       </c>
-      <c r="D333" t="n">
+      <c r="D333">
         <v>277182463533.2253</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Global_M2/TVDataFeed/FinalData/Egypt.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Egypt.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D333"/>
+  <dimension ref="A1:D334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4919,6 +4919,20 @@
         <v>277182463533.2253</v>
       </c>
     </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B334">
+        <v>8682319000000</v>
+      </c>
+      <c r="C334">
+        <v>0.03236245954692557</v>
+      </c>
+      <c r="D334">
+        <v>280981197411.0033</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/Egypt.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Egypt.xlsx
@@ -1,57 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Egypt_M2 (EGP)</t>
-  </si>
-  <si>
-    <t>Egypt_FX (USD)</t>
-  </si>
-  <si>
-    <t>Egypt_M2 (USD)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,38 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -385,4555 +426,4625 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D334"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D335"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Egypt_M2 (EGP)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Egypt_FX (USD)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Egypt_M2 (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>35096</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>161125000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>35125</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>161779000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>35156</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>163274000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>35186</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>165611000000</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>35217</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>168028000000</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>35247</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>169865000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>35278</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>172071000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>35309</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>172935000000</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>35339</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>175562000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2">
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>35370</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>177061000000</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2">
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>35400</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>179156000000</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2">
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>35431</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>180602000000</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>35462</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>181825000000</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2">
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>35490</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>183044000000</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2">
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>35521</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>186512000000</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2">
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>35551</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>190627000000</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2">
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>35582</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>193903000000</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2">
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>35612</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>196435000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2">
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>35643</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>198455000000</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>0.2950026550238952</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>58544751902.76713</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2">
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>35674</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>197891000000</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>0.2954209748892171</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>58461152141.80207</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2">
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>35704</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>200037000000</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>0.2942388042134997</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>58858647678.45583</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2">
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>35735</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>201499000000</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2">
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>35765</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>202336000000</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>0.2940744008234083</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>59501837965.00514</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2">
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>35796</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>203371000000</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>0.293728888236158</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>59735937729.47569</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2">
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>35827</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>203143000000</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2">
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>35855</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>202840000000</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>0.2936598831233665</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>59565970692.74366</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2">
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>35886</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>203700000000</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>0.2938583602703497</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>59858947987.07023</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2">
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>35916</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>207523000000</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2">
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>35947</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>210487000000</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>0.2928086202857812</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>61632408058.09322</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2">
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>35977</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>211559000000</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>0.2938756318326085</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>62172034794.87481</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2">
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>36008</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>214473000000</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>0.2935564362248642</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>62959929546.4553</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2">
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>36039</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>216579000000</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>0.2930231195241305</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>63462654203.41665</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2">
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>36069</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>218506000000</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>0.2931175987806308</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>64047954039.16051</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="2">
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>36100</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>219602000000</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>0.2929029612489382</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>64322076096.18933</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="2">
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>36130</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>221608000000</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>0.2925858739540055</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>64839370355.19925</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="2">
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>36161</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>222545000000</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>0.2926629400918961</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>65130674002.75103</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2">
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>36192</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>224550000000</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>0.299060948621329</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>67154136012.91943</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="2">
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>36220</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>227515000000</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>0.2995805871779509</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>68159077291.7915</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="2">
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>36251</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>227862000000</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>0.2932809338064932</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>66827580139.01516</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="2">
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>36281</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>230413000000</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>0.2947244326554672</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>67908340701.44415</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="2">
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>36312</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>234569000000</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>0.2947331191606001</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>69135253028.3828</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="2">
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>36342</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>236005000000</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>0.2947244326554672</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>69556439728.85353</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="2">
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>36373</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>237548000000</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>0.2945681630729351</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>69974078001.64958</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="2">
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>36404</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>238981000000</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>0.2944380649530371</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>70365103200.54176</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="2">
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>36434</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>240913000000</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>0.2932551319648093</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>70648973607.03812</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="2">
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>36465</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>242485000000</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>0.2944293958308798</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>71394712048.05089</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="2">
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>36495</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>244097000000</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>0.2905540866432286</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>70923380887.35217</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="2">
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>36526</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>243917000000</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>0.293703007518797</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>71639156484.96242</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="2">
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>36557</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>244844000000</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>0.293513354857646</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>71864983856.76549</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="2">
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>36586</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>247477000000</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>0.289452356142179</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>71632800740.99803</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="2">
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>36617</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>247904000000</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>0.2934272300469484</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>72741784037.55869</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="2">
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>36647</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>250176000000</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>0.2918004085205719</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>73001459002.0426</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="2">
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>36678</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>255276000000</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>0.2894356005788712</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>73885962373.37192</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="2">
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>36708</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>257583000000</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>0.2879355024474518</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>74167290526.92198</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="2">
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>36739</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>260139000000</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>0.2859593937660852</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>74389190734.91563</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="2">
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>36770</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>262164000000</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>0.2822466836014677</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>73994919559.69516</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="2">
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>36800</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>266113000000</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>0.2689979825151311</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>71583860121.04909</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="2">
+    <row r="59">
+      <c r="A59" s="2" t="n">
         <v>36831</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>268062000000</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>0.2658655252173451</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>71268444420.81195</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="2">
+    <row r="60">
+      <c r="A60" s="2" t="n">
         <v>36861</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>270942000000</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>0.2583979328165374</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>70010852713.17828</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="2">
+    <row r="61">
+      <c r="A61" s="2" t="n">
         <v>36892</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>271625000000</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>0.2597402597402597</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>70551948051.94804</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="2">
+    <row r="62">
+      <c r="A62" s="2" t="n">
         <v>36923</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>273886000000</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>0.2588996763754046</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="n">
         <v>70908996763.75406</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="2">
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>36951</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>274183000000</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>0.2607561929595828</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="n">
         <v>71494915254.23729</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="2">
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>36982</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>275560000000</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>0.2585114908357676</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="n">
         <v>71235426414.70413</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="2">
+    <row r="65">
+      <c r="A65" s="2" t="n">
         <v>37012</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>280081000000</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>0.2585649644473174</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="n">
         <v>72419133807.36909</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="2">
+    <row r="66">
+      <c r="A66" s="2" t="n">
         <v>37043</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>284879000000</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>0.2578648788035069</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="n">
         <v>73460288808.66426</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="2">
+    <row r="67">
+      <c r="A67" s="2" t="n">
         <v>37073</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>287528000000</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>0.2545500827287769</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="n">
         <v>73190276186.83975</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="2">
+    <row r="68">
+      <c r="A68" s="2" t="n">
         <v>37104</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>293399000000</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>0.2357211889776772</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="n">
         <v>69160361124.86151</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="2">
+    <row r="69">
+      <c r="A69" s="2" t="n">
         <v>37135</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>297226000000</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>0.2357211889776772</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="n">
         <v>70062466115.07909</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="2">
+    <row r="70">
+      <c r="A70" s="2" t="n">
         <v>37165</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>298164000000</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>0.2356823002592505</v>
       </c>
-      <c r="D70">
+      <c r="D70" t="n">
         <v>70271977374.49918</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="2">
+    <row r="71">
+      <c r="A71" s="2" t="n">
         <v>37196</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>299249000000</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>0.2356545304583481</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="n">
         <v>70519382585.1302</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="2">
+    <row r="72">
+      <c r="A72" s="2" t="n">
         <v>37226</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>306910000000</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>0.2206531332744925</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="n">
         <v>67720653133.27449</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="2">
+    <row r="73">
+      <c r="A73" s="2" t="n">
         <v>37257</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>309184000000</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>0.2166847237269773</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="n">
         <v>66995449620.80173</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="2">
+    <row r="74">
+      <c r="A74" s="2" t="n">
         <v>37288</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>312174000000</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>0.2172732210755025</v>
       </c>
-      <c r="D74">
+      <c r="D74" t="n">
         <v>67827050516.0239</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="2">
+    <row r="75">
+      <c r="A75" s="2" t="n">
         <v>37316</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>313858000000</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>0.2164502164502164</v>
       </c>
-      <c r="D75">
+      <c r="D75" t="n">
         <v>67934632034.63203</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="2">
+    <row r="76">
+      <c r="A76" s="2" t="n">
         <v>37347</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>316078000000</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>0.2154708037060978</v>
       </c>
-      <c r="D76">
+      <c r="D76" t="n">
         <v>68105580693.81599</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="2">
+    <row r="77">
+      <c r="A77" s="2" t="n">
         <v>37377</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>321885000000</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="n">
         <v>0.2188183807439825</v>
       </c>
-      <c r="D77">
+      <c r="D77" t="n">
         <v>70434354485.77681</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="2">
+    <row r="78">
+      <c r="A78" s="2" t="n">
         <v>37408</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>328728000000</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>0.2169197396963123</v>
       </c>
-      <c r="D78">
+      <c r="D78" t="n">
         <v>71307592190.88936</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="2">
+    <row r="79">
+      <c r="A79" s="2" t="n">
         <v>37438</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>329767000000</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>0.2152852529601723</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="n">
         <v>70993972012.91713</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="2">
+    <row r="80">
+      <c r="A80" s="2" t="n">
         <v>37469</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>334220000000</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>0.2183406113537118</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="n">
         <v>72973799126.63756</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="2">
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>37500</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>338156000000</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>0.2173865785526402</v>
       </c>
-      <c r="D81">
+      <c r="D81" t="n">
         <v>73510575857.04659</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="2">
+    <row r="82">
+      <c r="A82" s="2" t="n">
         <v>37530</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>339355000000</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>0.2164502164502164</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="n">
         <v>73453463203.4632</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="2">
+    <row r="83">
+      <c r="A83" s="2" t="n">
         <v>37561</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>340959000000</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>0.2164502164502164</v>
       </c>
-      <c r="D83">
+      <c r="D83" t="n">
         <v>73800649350.64935</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="2">
+    <row r="84">
+      <c r="A84" s="2" t="n">
         <v>37591</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="n">
         <v>342503000000</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="n">
         <v>0.2177700348432056</v>
       </c>
-      <c r="D84">
+      <c r="D84" t="n">
         <v>74586890243.90245</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="2">
+    <row r="85">
+      <c r="A85" s="2" t="n">
         <v>37622</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="n">
         <v>358572000000</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="n">
         <v>0.1876172607879925</v>
       </c>
-      <c r="D85">
+      <c r="D85" t="n">
         <v>67274296435.27204</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="2">
+    <row r="86">
+      <c r="A86" s="2" t="n">
         <v>37653</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="n">
         <v>363325000000</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="n">
         <v>0.1798561151079137</v>
       </c>
-      <c r="D86">
+      <c r="D86" t="n">
         <v>65346223021.58274</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="2">
+    <row r="87">
+      <c r="A87" s="2" t="n">
         <v>37681</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="n">
         <v>366561000000</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="n">
         <v>0.1739130434782609</v>
       </c>
-      <c r="D87">
+      <c r="D87" t="n">
         <v>63749739130.43478</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="2">
+    <row r="88">
+      <c r="A88" s="2" t="n">
         <v>37712</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="n">
         <v>369850000000</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>0.1684919966301601</v>
       </c>
-      <c r="D88">
+      <c r="D88" t="n">
         <v>62316764953.6647</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="2">
+    <row r="89">
+      <c r="A89" s="2" t="n">
         <v>37742</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="n">
         <v>377449000000</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="n">
         <v>0.1673640167364017</v>
       </c>
-      <c r="D89">
+      <c r="D89" t="n">
         <v>63171380753.13808</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="2">
+    <row r="90">
+      <c r="A90" s="2" t="n">
         <v>37773</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="n">
         <v>384262000000</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="n">
         <v>0.1663893510815308</v>
       </c>
-      <c r="D90">
+      <c r="D90" t="n">
         <v>63937104825.29119</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="2">
+    <row r="91">
+      <c r="A91" s="2" t="n">
         <v>37803</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="n">
         <v>390672000000</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="n">
         <v>0.1624695369618196</v>
       </c>
-      <c r="D91">
+      <c r="D91" t="n">
         <v>63472298943.94801</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="2">
+    <row r="92">
+      <c r="A92" s="2" t="n">
         <v>37834</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="n">
         <v>396339000000</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="n">
         <v>0.1626016260162602</v>
       </c>
-      <c r="D92">
+      <c r="D92" t="n">
         <v>64445365853.65854</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="2">
+    <row r="93">
+      <c r="A93" s="2" t="n">
         <v>37865</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="n">
         <v>401009000000</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="n">
         <v>0.163025758069775</v>
       </c>
-      <c r="D93">
+      <c r="D93" t="n">
         <v>65374796217.80241</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="2">
+    <row r="94">
+      <c r="A94" s="2" t="n">
         <v>37895</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="n">
         <v>403668000000</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="n">
         <v>0.1633986928104575</v>
       </c>
-      <c r="D94">
+      <c r="D94" t="n">
         <v>65958823529.41177</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="2">
+    <row r="95">
+      <c r="A95" s="2" t="n">
         <v>37926</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="n">
         <v>408040000000</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="n">
         <v>0.1622691721026839</v>
       </c>
-      <c r="D95">
+      <c r="D95" t="n">
         <v>66212312984.77915</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="2">
+    <row r="96">
+      <c r="A96" s="2" t="n">
         <v>37956</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="n">
         <v>410807000000</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="n">
         <v>0.1627339300244101</v>
       </c>
-      <c r="D96">
+      <c r="D96" t="n">
         <v>66852237591.53784</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="2">
+    <row r="97">
+      <c r="A97" s="2" t="n">
         <v>37987</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="n">
         <v>416327000000</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="n">
         <v>0.16220600162206</v>
       </c>
-      <c r="D97">
+      <c r="D97" t="n">
         <v>67530738037.30737</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="2">
+    <row r="98">
+      <c r="A98" s="2" t="n">
         <v>38018</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="n">
         <v>418961000000</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="n">
         <v>0.1615639389288311</v>
       </c>
-      <c r="D98">
+      <c r="D98" t="n">
         <v>67688989417.562</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="2">
+    <row r="99">
+      <c r="A99" s="2" t="n">
         <v>38047</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="n">
         <v>420091000000</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>0.1615508885298869</v>
       </c>
-      <c r="D99">
+      <c r="D99" t="n">
         <v>67866074313.40872</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="2">
+    <row r="100">
+      <c r="A100" s="2" t="n">
         <v>38078</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="n">
         <v>422901000000</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="n">
         <v>0.1613527817219569</v>
       </c>
-      <c r="D100">
+      <c r="D100" t="n">
         <v>68236252742.99729</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="2">
+    <row r="101">
+      <c r="A101" s="2" t="n">
         <v>38108</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="n">
         <v>432268000000</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="n">
         <v>0.1614205004035512</v>
       </c>
-      <c r="D101">
+      <c r="D101" t="n">
         <v>69776916868.44229</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="2">
+    <row r="102">
+      <c r="A102" s="2" t="n">
         <v>38139</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="n">
         <v>434911000000</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="n">
         <v>0.1616814874696847</v>
       </c>
-      <c r="D102">
+      <c r="D102" t="n">
         <v>70317057396.92805</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="2">
+    <row r="103">
+      <c r="A103" s="2" t="n">
         <v>38169</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="n">
         <v>441277000000</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="n">
         <v>0.1611214049786514</v>
       </c>
-      <c r="D103">
+      <c r="D103" t="n">
         <v>71099170224.76436</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="2">
+    <row r="104">
+      <c r="A104" s="2" t="n">
         <v>38200</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="n">
         <v>447171000000</v>
       </c>
-      <c r="C104">
+      <c r="C104" t="n">
         <v>0.1605780810919309</v>
       </c>
-      <c r="D104">
+      <c r="D104" t="n">
         <v>71805861099.95985</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="2">
+    <row r="105">
+      <c r="A105" s="2" t="n">
         <v>38231</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="n">
         <v>450914000000</v>
       </c>
-      <c r="C105">
+      <c r="C105" t="n">
         <v>0.1605136436597111</v>
       </c>
-      <c r="D105">
+      <c r="D105" t="n">
         <v>72377849117.17496</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="2">
+    <row r="106">
+      <c r="A106" s="2" t="n">
         <v>38261</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="n">
         <v>458404000000</v>
       </c>
-      <c r="C106">
+      <c r="C106" t="n">
         <v>0.1606425702811245</v>
       </c>
-      <c r="D106">
+      <c r="D106" t="n">
         <v>73639196787.14859</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="2">
+    <row r="107">
+      <c r="A107" s="2" t="n">
         <v>38292</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="n">
         <v>464369000000</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="n">
         <v>0.1610305958132045</v>
       </c>
-      <c r="D107">
+      <c r="D107" t="n">
         <v>74777616747.18196</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="2">
+    <row r="108">
+      <c r="A108" s="2" t="n">
         <v>38322</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="n">
         <v>468261000000</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="n">
         <v>0.164406083025072</v>
       </c>
-      <c r="D108">
+      <c r="D108" t="n">
         <v>76984956843.40321</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="2">
+    <row r="109">
+      <c r="A109" s="2" t="n">
         <v>38353</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="n">
         <v>469567000000</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="n">
         <v>0.1715265866209262</v>
       </c>
-      <c r="D109">
+      <c r="D109" t="n">
         <v>80543224699.82848</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="2">
+    <row r="110">
+      <c r="A110" s="2" t="n">
         <v>38384</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="n">
         <v>474100000000</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="n">
         <v>0.1719690455717971</v>
       </c>
-      <c r="D110">
+      <c r="D110" t="n">
         <v>81530524505.58899</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="2">
+    <row r="111">
+      <c r="A111" s="2" t="n">
         <v>38412</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="n">
         <v>479063000000</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="n">
         <v>0.1725625539257981</v>
       </c>
-      <c r="D111">
+      <c r="D111" t="n">
         <v>82668334771.35461</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="2">
+    <row r="112">
+      <c r="A112" s="2" t="n">
         <v>38443</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="n">
         <v>484156000000</v>
       </c>
-      <c r="C112">
+      <c r="C112" t="n">
         <v>0.172488141440276</v>
       </c>
-      <c r="D112">
+      <c r="D112" t="n">
         <v>83511168607.15825</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="2">
+    <row r="113">
+      <c r="A113" s="2" t="n">
         <v>38473</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="n">
         <v>490130000000</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="n">
         <v>0.1727115716753022</v>
       </c>
-      <c r="D113">
+      <c r="D113" t="n">
         <v>84651122625.21588</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="2">
+    <row r="114">
+      <c r="A114" s="2" t="n">
         <v>38504</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="n">
         <v>493884000000</v>
       </c>
-      <c r="C114">
+      <c r="C114" t="n">
         <v>0.1727861771058316</v>
       </c>
-      <c r="D114">
+      <c r="D114" t="n">
         <v>85336328293.73651</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="2">
+    <row r="115">
+      <c r="A115" s="2" t="n">
         <v>38534</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="n">
         <v>505899000000</v>
       </c>
-      <c r="C115">
+      <c r="C115" t="n">
         <v>0.1733102253032929</v>
       </c>
-      <c r="D115">
+      <c r="D115" t="n">
         <v>87677469670.71057</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="2">
+    <row r="116">
+      <c r="A116" s="2" t="n">
         <v>38565</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="n">
         <v>512730000000</v>
       </c>
-      <c r="C116">
+      <c r="C116" t="n">
         <v>0.1733763306633378</v>
       </c>
-      <c r="D116">
+      <c r="D116" t="n">
         <v>88895246021.0132</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="2">
+    <row r="117">
+      <c r="A117" s="2" t="n">
         <v>38596</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="n">
         <v>514822000000</v>
       </c>
-      <c r="C117">
+      <c r="C117" t="n">
         <v>0.1737619461337967</v>
       </c>
-      <c r="D117">
+      <c r="D117" t="n">
         <v>89456472632.49348</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="2">
+    <row r="118">
+      <c r="A118" s="2" t="n">
         <v>38626</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="n">
         <v>516716000000</v>
       </c>
-      <c r="C118">
+      <c r="C118" t="n">
         <v>0.1738676866904286</v>
       </c>
-      <c r="D118">
+      <c r="D118" t="n">
         <v>89840215595.93149</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="2">
+    <row r="119">
+      <c r="A119" s="2" t="n">
         <v>38657</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="n">
         <v>518905000000</v>
       </c>
-      <c r="C119">
+      <c r="C119" t="n">
         <v>0.1736653815428433</v>
       </c>
-      <c r="D119">
+      <c r="D119" t="n">
         <v>90115834809.48907</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="2">
+    <row r="120">
+      <c r="A120" s="2" t="n">
         <v>38687</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="n">
         <v>522296000000</v>
       </c>
-      <c r="C120">
+      <c r="C120" t="n">
         <v>0.1744044089434581</v>
       </c>
-      <c r="D120">
+      <c r="D120" t="n">
         <v>91090725173.53239</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="2">
+    <row r="121">
+      <c r="A121" s="2" t="n">
         <v>38718</v>
       </c>
-      <c r="B121">
+      <c r="B121" t="n">
         <v>528828000000</v>
       </c>
-      <c r="C121">
+      <c r="C121" t="n">
         <v>0.1746175874834113</v>
       </c>
-      <c r="D121">
+      <c r="D121" t="n">
         <v>92342669553.67744</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="2">
+    <row r="122">
+      <c r="A122" s="2" t="n">
         <v>38749</v>
       </c>
-      <c r="B122">
+      <c r="B122" t="n">
         <v>534409000000</v>
       </c>
-      <c r="C122">
+      <c r="C122" t="n">
         <v>0.1745566261695294</v>
       </c>
-      <c r="D122">
+      <c r="D122" t="n">
         <v>93284632034.63205</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="2">
+    <row r="123">
+      <c r="A123" s="2" t="n">
         <v>38777</v>
       </c>
-      <c r="B123">
+      <c r="B123" t="n">
         <v>534663000000</v>
       </c>
-      <c r="C123">
+      <c r="C123" t="n">
         <v>0.1744439598778892</v>
       </c>
-      <c r="D123">
+      <c r="D123" t="n">
         <v>93268730920.19189</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="2">
+    <row r="124">
+      <c r="A124" s="2" t="n">
         <v>38808</v>
       </c>
-      <c r="B124">
+      <c r="B124" t="n">
         <v>545907000000</v>
       </c>
-      <c r="C124">
+      <c r="C124" t="n">
         <v>0.1739432944859976</v>
       </c>
-      <c r="D124">
+      <c r="D124" t="n">
         <v>94956862062.96748</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="2">
+    <row r="125">
+      <c r="A125" s="2" t="n">
         <v>38838</v>
       </c>
-      <c r="B125">
+      <c r="B125" t="n">
         <v>551179000000</v>
       </c>
-      <c r="C125">
+      <c r="C125" t="n">
         <v>0.1733102253032929</v>
       </c>
-      <c r="D125">
+      <c r="D125" t="n">
         <v>95524956672.44368</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="2">
+    <row r="126">
+      <c r="A126" s="2" t="n">
         <v>38869</v>
       </c>
-      <c r="B126">
+      <c r="B126" t="n">
         <v>560356000000</v>
       </c>
-      <c r="C126">
+      <c r="C126" t="n">
         <v>0.1739130434782609</v>
       </c>
-      <c r="D126">
+      <c r="D126" t="n">
         <v>97453217391.30435</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="2">
+    <row r="127">
+      <c r="A127" s="2" t="n">
         <v>38899</v>
       </c>
-      <c r="B127">
+      <c r="B127" t="n">
         <v>567104000000</v>
       </c>
-      <c r="C127">
+      <c r="C127" t="n">
         <v>0.1739886907351022</v>
       </c>
-      <c r="D127">
+      <c r="D127" t="n">
         <v>98669682470.63942</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="2">
+    <row r="128">
+      <c r="A128" s="2" t="n">
         <v>38930</v>
       </c>
-      <c r="B128">
+      <c r="B128" t="n">
         <v>574499000000</v>
       </c>
-      <c r="C128">
+      <c r="C128" t="n">
         <v>0.1741796140179753</v>
       </c>
-      <c r="D128">
+      <c r="D128" t="n">
         <v>100066014073.7128</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="2">
+    <row r="129">
+      <c r="A129" s="2" t="n">
         <v>38961</v>
       </c>
-      <c r="B129">
+      <c r="B129" t="n">
         <v>582226000000</v>
       </c>
-      <c r="C129">
+      <c r="C129" t="n">
         <v>0.1743800788197956</v>
       </c>
-      <c r="D129">
+      <c r="D129" t="n">
         <v>101528615770.9343</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="2">
+    <row r="130">
+      <c r="A130" s="2" t="n">
         <v>38991</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="n">
         <v>588952000000</v>
       </c>
-      <c r="C130">
+      <c r="C130" t="n">
         <v>0.174544439014173</v>
       </c>
-      <c r="D130">
+      <c r="D130" t="n">
         <v>102798296446.2752</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="2">
+    <row r="131">
+      <c r="A131" s="2" t="n">
         <v>39022</v>
       </c>
-      <c r="B131">
+      <c r="B131" t="n">
         <v>587340000000</v>
       </c>
-      <c r="C131">
+      <c r="C131" t="n">
         <v>0.1749934377460845</v>
       </c>
-      <c r="D131">
+      <c r="D131" t="n">
         <v>102780645725.7853</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="2">
+    <row r="132">
+      <c r="A132" s="2" t="n">
         <v>39052</v>
       </c>
-      <c r="B132">
+      <c r="B132" t="n">
         <v>601309000000</v>
       </c>
-      <c r="C132">
+      <c r="C132" t="n">
         <v>0.1750945510575711</v>
       </c>
-      <c r="D132">
+      <c r="D132" t="n">
         <v>105285929401.877</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="2">
+    <row r="133">
+      <c r="A133" s="2" t="n">
         <v>39083</v>
       </c>
-      <c r="B133">
+      <c r="B133" t="n">
         <v>596701000000</v>
       </c>
-      <c r="C133">
+      <c r="C133" t="n">
         <v>0.1756851721714687</v>
       </c>
-      <c r="D133">
+      <c r="D133" t="n">
         <v>104831517919.8876</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="2">
+    <row r="134">
+      <c r="A134" s="2" t="n">
         <v>39114</v>
       </c>
-      <c r="B134">
+      <c r="B134" t="n">
         <v>604683000000</v>
       </c>
-      <c r="C134">
+      <c r="C134" t="n">
         <v>0.1757469244288225</v>
       </c>
-      <c r="D134">
+      <c r="D134" t="n">
         <v>106271177504.3937</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="2">
+    <row r="135">
+      <c r="A135" s="2" t="n">
         <v>39142</v>
       </c>
-      <c r="B135">
+      <c r="B135" t="n">
         <v>610452000000</v>
       </c>
-      <c r="C135">
+      <c r="C135" t="n">
         <v>0.1757098678661794</v>
       </c>
-      <c r="D135">
+      <c r="D135" t="n">
         <v>107262440258.6449</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="2">
+    <row r="136">
+      <c r="A136" s="2" t="n">
         <v>39173</v>
       </c>
-      <c r="B136">
+      <c r="B136" t="n">
         <v>619179000000</v>
       </c>
-      <c r="C136">
+      <c r="C136" t="n">
         <v>0.176056338028169</v>
       </c>
-      <c r="D136">
+      <c r="D136" t="n">
         <v>109010387323.9437</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="2">
+    <row r="137">
+      <c r="A137" s="2" t="n">
         <v>39203</v>
       </c>
-      <c r="B137">
+      <c r="B137" t="n">
         <v>650023000000</v>
       </c>
-      <c r="C137">
+      <c r="C137" t="n">
         <v>0.1759479194158529</v>
       </c>
-      <c r="D137">
+      <c r="D137" t="n">
         <v>114370194422.4509</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="2">
+    <row r="138">
+      <c r="A138" s="2" t="n">
         <v>39234</v>
       </c>
-      <c r="B138">
+      <c r="B138" t="n">
         <v>662688000000</v>
       </c>
-      <c r="C138">
+      <c r="C138" t="n">
         <v>0.1758705592683785</v>
       </c>
-      <c r="D138">
+      <c r="D138" t="n">
         <v>116547309180.4432</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="2">
+    <row r="139">
+      <c r="A139" s="2" t="n">
         <v>39264</v>
       </c>
-      <c r="B139">
+      <c r="B139" t="n">
         <v>671041000000</v>
       </c>
-      <c r="C139">
+      <c r="C139" t="n">
         <v>0.1769535673839185</v>
       </c>
-      <c r="D139">
+      <c r="D139" t="n">
         <v>118743098810.872</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="2">
+    <row r="140">
+      <c r="A140" s="2" t="n">
         <v>39295</v>
       </c>
-      <c r="B140">
+      <c r="B140" t="n">
         <v>676909000000</v>
       </c>
-      <c r="C140">
+      <c r="C140" t="n">
         <v>0.1772578215013738</v>
       </c>
-      <c r="D140">
+      <c r="D140" t="n">
         <v>119987414694.6734</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="2">
+    <row r="141">
+      <c r="A141" s="2" t="n">
         <v>39326</v>
       </c>
-      <c r="B141">
+      <c r="B141" t="n">
         <v>681900000000</v>
       </c>
-      <c r="C141">
+      <c r="C141" t="n">
         <v>0.1792114695340502</v>
       </c>
-      <c r="D141">
+      <c r="D141" t="n">
         <v>122204301075.2688</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="2">
+    <row r="142">
+      <c r="A142" s="2" t="n">
         <v>39356</v>
       </c>
-      <c r="B142">
+      <c r="B142" t="n">
         <v>689933000000</v>
       </c>
-      <c r="C142">
+      <c r="C142" t="n">
         <v>0.1817025529208685</v>
       </c>
-      <c r="D142">
+      <c r="D142" t="n">
         <v>125362587444.3536</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="2">
+    <row r="143">
+      <c r="A143" s="2" t="n">
         <v>39387</v>
       </c>
-      <c r="B143">
+      <c r="B143" t="n">
         <v>704631000000</v>
       </c>
-      <c r="C143">
+      <c r="C143" t="n">
         <v>0.1808318264014467</v>
       </c>
-      <c r="D143">
+      <c r="D143" t="n">
         <v>127419710669.0778</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="2">
+    <row r="144">
+      <c r="A144" s="2" t="n">
         <v>39417</v>
       </c>
-      <c r="B144">
+      <c r="B144" t="n">
         <v>716275000000</v>
       </c>
-      <c r="C144">
+      <c r="C144" t="n">
         <v>0.1815541031227306</v>
       </c>
-      <c r="D144">
+      <c r="D144" t="n">
         <v>130042665214.2338</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="2">
+    <row r="145">
+      <c r="A145" s="2" t="n">
         <v>39448</v>
       </c>
-      <c r="B145">
+      <c r="B145" t="n">
         <v>724715000000</v>
       </c>
-      <c r="C145">
+      <c r="C145" t="n">
         <v>0.1802613789995493</v>
       </c>
-      <c r="D145">
+      <c r="D145" t="n">
         <v>130638125281.6584</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="2">
+    <row r="146">
+      <c r="A146" s="2" t="n">
         <v>39479</v>
       </c>
-      <c r="B146">
+      <c r="B146" t="n">
         <v>738454000000</v>
       </c>
-      <c r="C146">
+      <c r="C146" t="n">
         <v>0.1826150474799123</v>
       </c>
-      <c r="D146">
+      <c r="D146" t="n">
         <v>134852812271.7312</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="2">
+    <row r="147">
+      <c r="A147" s="2" t="n">
         <v>39508</v>
       </c>
-      <c r="B147">
+      <c r="B147" t="n">
         <v>756553000000</v>
       </c>
-      <c r="C147">
+      <c r="C147" t="n">
         <v>0.1837120864181655</v>
       </c>
-      <c r="D147">
+      <c r="D147" t="n">
         <v>138987930115.9223</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="2">
+    <row r="148">
+      <c r="A148" s="2" t="n">
         <v>39539</v>
       </c>
-      <c r="B148">
+      <c r="B148" t="n">
         <v>760927000000</v>
       </c>
-      <c r="C148">
+      <c r="C148" t="n">
         <v>0.186219739292365</v>
       </c>
-      <c r="D148">
+      <c r="D148" t="n">
         <v>141699627560.5214</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="2">
+    <row r="149">
+      <c r="A149" s="2" t="n">
         <v>39569</v>
       </c>
-      <c r="B149">
+      <c r="B149" t="n">
         <v>762182000000</v>
       </c>
-      <c r="C149">
+      <c r="C149" t="n">
         <v>0.1873466099630927</v>
       </c>
-      <c r="D149">
+      <c r="D149" t="n">
         <v>142792213874.8899</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="2">
+    <row r="150">
+      <c r="A150" s="2" t="n">
         <v>39600</v>
       </c>
-      <c r="B150">
+      <c r="B150" t="n">
         <v>766664000000</v>
       </c>
-      <c r="C150">
+      <c r="C150" t="n">
         <v>0.1878710453144961</v>
       </c>
-      <c r="D150">
+      <c r="D150" t="n">
         <v>144033967084.9929</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="2">
+    <row r="151">
+      <c r="A151" s="2" t="n">
         <v>39630</v>
       </c>
-      <c r="B151">
+      <c r="B151" t="n">
         <v>775261000000</v>
       </c>
-      <c r="C151">
+      <c r="C151" t="n">
         <v>0.188821752265861</v>
       </c>
-      <c r="D151">
+      <c r="D151" t="n">
         <v>146386140483.3837</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="2">
+    <row r="152">
+      <c r="A152" s="2" t="n">
         <v>39661</v>
       </c>
-      <c r="B152">
+      <c r="B152" t="n">
         <v>781199000000</v>
       </c>
-      <c r="C152">
+      <c r="C152" t="n">
         <v>0.1865497621490532</v>
       </c>
-      <c r="D152">
+      <c r="D152" t="n">
         <v>145732487641.0782</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="2">
+    <row r="153">
+      <c r="A153" s="2" t="n">
         <v>39692</v>
       </c>
-      <c r="B153">
+      <c r="B153" t="n">
         <v>777871000000</v>
       </c>
-      <c r="C153">
+      <c r="C153" t="n">
         <v>0.1839249586168843</v>
       </c>
-      <c r="D153">
+      <c r="D153" t="n">
         <v>143069891484.2744</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="2">
+    <row r="154">
+      <c r="A154" s="2" t="n">
         <v>39722</v>
       </c>
-      <c r="B154">
+      <c r="B154" t="n">
         <v>780543000000</v>
       </c>
-      <c r="C154">
+      <c r="C154" t="n">
         <v>0.1795332136445242</v>
       </c>
-      <c r="D154">
+      <c r="D154" t="n">
         <v>140133393177.7379</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="2">
+    <row r="155">
+      <c r="A155" s="2" t="n">
         <v>39753</v>
       </c>
-      <c r="B155">
+      <c r="B155" t="n">
         <v>784801000000</v>
       </c>
-      <c r="C155">
+      <c r="C155" t="n">
         <v>0.1813236627379873</v>
       </c>
-      <c r="D155">
+      <c r="D155" t="n">
         <v>142302991840.4352</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="2">
+    <row r="156">
+      <c r="A156" s="2" t="n">
         <v>39783</v>
       </c>
-      <c r="B156">
+      <c r="B156" t="n">
         <v>791378000000</v>
       </c>
-      <c r="C156">
+      <c r="C156" t="n">
         <v>0.1821991436640248</v>
       </c>
-      <c r="D156">
+      <c r="D156" t="n">
         <v>144188393914.5486</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="2">
+    <row r="157">
+      <c r="A157" s="2" t="n">
         <v>39814</v>
       </c>
-      <c r="B157">
+      <c r="B157" t="n">
         <v>793354000000</v>
       </c>
-      <c r="C157">
+      <c r="C157" t="n">
         <v>0.1798076058617279</v>
       </c>
-      <c r="D157">
+      <c r="D157" t="n">
         <v>142651083340.8253</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="2">
+    <row r="158">
+      <c r="A158" s="2" t="n">
         <v>39845</v>
       </c>
-      <c r="B158">
+      <c r="B158" t="n">
         <v>799754000000</v>
       </c>
-      <c r="C158">
+      <c r="C158" t="n">
         <v>0.1791633073546538</v>
       </c>
-      <c r="D158">
+      <c r="D158" t="n">
         <v>143286571710.1138</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="2">
+    <row r="159">
+      <c r="A159" s="2" t="n">
         <v>39873</v>
       </c>
-      <c r="B159">
+      <c r="B159" t="n">
         <v>808603000000</v>
       </c>
-      <c r="C159">
+      <c r="C159" t="n">
         <v>0.1778410101369376</v>
       </c>
-      <c r="D159">
+      <c r="D159" t="n">
         <v>143802774319.7581</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="2">
+    <row r="160">
+      <c r="A160" s="2" t="n">
         <v>39904</v>
       </c>
-      <c r="B160">
+      <c r="B160" t="n">
         <v>812410000000</v>
       </c>
-      <c r="C160">
+      <c r="C160" t="n">
         <v>0.1775252973548731</v>
       </c>
-      <c r="D160">
+      <c r="D160" t="n">
         <v>144223326824.0724</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="2">
+    <row r="161">
+      <c r="A161" s="2" t="n">
         <v>39934</v>
       </c>
-      <c r="B161">
+      <c r="B161" t="n">
         <v>826847000000</v>
       </c>
-      <c r="C161">
+      <c r="C161" t="n">
         <v>0.1779359430604982</v>
       </c>
-      <c r="D161">
+      <c r="D161" t="n">
         <v>147125800711.7438</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="2">
+    <row r="162">
+      <c r="A162" s="2" t="n">
         <v>39965</v>
       </c>
-      <c r="B162">
+      <c r="B162" t="n">
         <v>831211000000</v>
       </c>
-      <c r="C162">
+      <c r="C162" t="n">
         <v>0.1787629603146228</v>
       </c>
-      <c r="D162">
+      <c r="D162" t="n">
         <v>148589739006.0779</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="2">
+    <row r="163">
+      <c r="A163" s="2" t="n">
         <v>39995</v>
       </c>
-      <c r="B163">
+      <c r="B163" t="n">
         <v>835457000000</v>
       </c>
-      <c r="C163">
+      <c r="C163" t="n">
         <v>0.1802613789995493</v>
       </c>
-      <c r="D163">
+      <c r="D163" t="n">
         <v>150600630914.8265</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="2">
+    <row r="164">
+      <c r="A164" s="2" t="n">
         <v>40026</v>
       </c>
-      <c r="B164">
+      <c r="B164" t="n">
         <v>836503000000</v>
       </c>
-      <c r="C164">
+      <c r="C164" t="n">
         <v>0.1809627216793341</v>
       </c>
-      <c r="D164">
+      <c r="D164" t="n">
         <v>151375859572.928</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="2">
+    <row r="165">
+      <c r="A165" s="2" t="n">
         <v>40057</v>
       </c>
-      <c r="B165">
+      <c r="B165" t="n">
         <v>847808000000</v>
       </c>
-      <c r="C165">
+      <c r="C165" t="n">
         <v>0.1817520901490367</v>
       </c>
-      <c r="D165">
+      <c r="D165" t="n">
         <v>154090876045.0745</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="2">
+    <row r="166">
+      <c r="A166" s="2" t="n">
         <v>40087</v>
       </c>
-      <c r="B166">
+      <c r="B166" t="n">
         <v>847757000000</v>
       </c>
-      <c r="C166">
+      <c r="C166" t="n">
         <v>0.1827819411442149</v>
       </c>
-      <c r="D166">
+      <c r="D166" t="n">
         <v>154954670078.5962</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="2">
+    <row r="167">
+      <c r="A167" s="2" t="n">
         <v>40118</v>
       </c>
-      <c r="B167">
+      <c r="B167" t="n">
         <v>854057000000</v>
       </c>
-      <c r="C167">
+      <c r="C167" t="n">
         <v>0.1825817053131276</v>
       </c>
-      <c r="D167">
+      <c r="D167" t="n">
         <v>155935183494.6138</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="2">
+    <row r="168">
+      <c r="A168" s="2" t="n">
         <v>40148</v>
       </c>
-      <c r="B168">
+      <c r="B168" t="n">
         <v>866354000000</v>
       </c>
-      <c r="C168">
+      <c r="C168" t="n">
         <v>0.1823320266204759</v>
       </c>
-      <c r="D168">
+      <c r="D168" t="n">
         <v>157964080590.7558</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="2">
+    <row r="169">
+      <c r="A169" s="2" t="n">
         <v>40179</v>
       </c>
-      <c r="B169">
+      <c r="B169" t="n">
         <v>867734000000</v>
       </c>
-      <c r="C169">
+      <c r="C169" t="n">
         <v>0.183368478958467</v>
       </c>
-      <c r="D169">
+      <c r="D169" t="n">
         <v>159115063720.5464</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="2">
+    <row r="170">
+      <c r="A170" s="2" t="n">
         <v>40210</v>
       </c>
-      <c r="B170">
+      <c r="B170" t="n">
         <v>875586000000</v>
       </c>
-      <c r="C170">
+      <c r="C170" t="n">
         <v>0.1821493624772313</v>
       </c>
-      <c r="D170">
+      <c r="D170" t="n">
         <v>159487431693.9891</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="2">
+    <row r="171">
+      <c r="A171" s="2" t="n">
         <v>40238</v>
       </c>
-      <c r="B171">
+      <c r="B171" t="n">
         <v>888176000000</v>
       </c>
-      <c r="C171">
+      <c r="C171" t="n">
         <v>0.1817025529208685</v>
       </c>
-      <c r="D171">
+      <c r="D171" t="n">
         <v>161383846643.0453</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="2">
+    <row r="172">
+      <c r="A172" s="2" t="n">
         <v>40269</v>
       </c>
-      <c r="B172">
+      <c r="B172" t="n">
         <v>890376000000</v>
       </c>
-      <c r="C172">
+      <c r="C172" t="n">
         <v>0.1799208348326736</v>
       </c>
-      <c r="D172">
+      <c r="D172" t="n">
         <v>160197193234.9766</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="2">
+    <row r="173">
+      <c r="A173" s="2" t="n">
         <v>40299</v>
       </c>
-      <c r="B173">
+      <c r="B173" t="n">
         <v>896033000000</v>
       </c>
-      <c r="C173">
+      <c r="C173" t="n">
         <v>0.1767096660187312</v>
       </c>
-      <c r="D173">
+      <c r="D173" t="n">
         <v>158337692171.7618</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="2">
+    <row r="174">
+      <c r="A174" s="2" t="n">
         <v>40330</v>
       </c>
-      <c r="B174">
+      <c r="B174" t="n">
         <v>917459000000</v>
       </c>
-      <c r="C174">
+      <c r="C174" t="n">
         <v>0.1755926251097454</v>
       </c>
-      <c r="D174">
+      <c r="D174" t="n">
         <v>161099034240.5619</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="2">
+    <row r="175">
+      <c r="A175" s="2" t="n">
         <v>40360</v>
       </c>
-      <c r="B175">
+      <c r="B175" t="n">
         <v>922637000000</v>
       </c>
-      <c r="C175">
+      <c r="C175" t="n">
         <v>0.1754385964912281</v>
       </c>
-      <c r="D175">
+      <c r="D175" t="n">
         <v>161866140350.8772</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="2">
+    <row r="176">
+      <c r="A176" s="2" t="n">
         <v>40391</v>
       </c>
-      <c r="B176">
+      <c r="B176" t="n">
         <v>935234000000</v>
       </c>
-      <c r="C176">
+      <c r="C176" t="n">
         <v>0.1752694768206117</v>
       </c>
-      <c r="D176">
+      <c r="D176" t="n">
         <v>163917973884.848</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="2">
+    <row r="177">
+      <c r="A177" s="2" t="n">
         <v>40422</v>
       </c>
-      <c r="B177">
+      <c r="B177" t="n">
         <v>948172000000</v>
       </c>
-      <c r="C177">
+      <c r="C177" t="n">
         <v>0.1756543123133673</v>
       </c>
-      <c r="D177">
+      <c r="D177" t="n">
         <v>166550500614.7901</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="2">
+    <row r="178">
+      <c r="A178" s="2" t="n">
         <v>40452</v>
       </c>
-      <c r="B178">
+      <c r="B178" t="n">
         <v>961244000000</v>
       </c>
-      <c r="C178">
+      <c r="C178" t="n">
         <v>0.1732051615138131</v>
       </c>
-      <c r="D178">
+      <c r="D178" t="n">
         <v>166492422274.1837</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="2">
+    <row r="179">
+      <c r="A179" s="2" t="n">
         <v>40483</v>
       </c>
-      <c r="B179">
+      <c r="B179" t="n">
         <v>963255000000</v>
       </c>
-      <c r="C179">
+      <c r="C179" t="n">
         <v>0.1727414061150458</v>
       </c>
-      <c r="D179">
+      <c r="D179" t="n">
         <v>166394023147.3484</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="2">
+    <row r="180">
+      <c r="A180" s="2" t="n">
         <v>40513</v>
       </c>
-      <c r="B180">
+      <c r="B180" t="n">
         <v>973962000000</v>
       </c>
-      <c r="C180">
+      <c r="C180" t="n">
         <v>0.1722949689869056</v>
       </c>
-      <c r="D180">
+      <c r="D180" t="n">
         <v>167808752584.4245</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="2">
+    <row r="181">
+      <c r="A181" s="2" t="n">
         <v>40544</v>
       </c>
-      <c r="B181">
+      <c r="B181" t="n">
         <v>969712000000</v>
       </c>
-      <c r="C181">
+      <c r="C181" t="n">
         <v>0.1707941929974381</v>
       </c>
-      <c r="D181">
+      <c r="D181" t="n">
         <v>165621178479.9317</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="2">
+    <row r="182">
+      <c r="A182" s="2" t="n">
         <v>40575</v>
       </c>
-      <c r="B182">
+      <c r="B182" t="n">
         <v>982547000000</v>
       </c>
-      <c r="C182">
+      <c r="C182" t="n">
         <v>0.1698225354504543</v>
       </c>
-      <c r="D182">
+      <c r="D182" t="n">
         <v>166858622739.2375</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="2">
+    <row r="183">
+      <c r="A183" s="2" t="n">
         <v>40603</v>
       </c>
-      <c r="B183">
+      <c r="B183" t="n">
         <v>988076000000</v>
       </c>
-      <c r="C183">
+      <c r="C183" t="n">
         <v>0.167897918065816</v>
       </c>
-      <c r="D183">
+      <c r="D183" t="n">
         <v>165895903290.7992</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="2">
+    <row r="184">
+      <c r="A184" s="2" t="n">
         <v>40634</v>
       </c>
-      <c r="B184">
+      <c r="B184" t="n">
         <v>986792000000</v>
       </c>
-      <c r="C184">
+      <c r="C184" t="n">
         <v>0.1682085786375105</v>
       </c>
-      <c r="D184">
+      <c r="D184" t="n">
         <v>165986879730.8663</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="2">
+    <row r="185">
+      <c r="A185" s="2" t="n">
         <v>40664</v>
       </c>
-      <c r="B185">
+      <c r="B185" t="n">
         <v>994431000000</v>
       </c>
-      <c r="C185">
+      <c r="C185" t="n">
         <v>0.1679261125104954</v>
       </c>
-      <c r="D185">
+      <c r="D185" t="n">
         <v>166990931989.9244</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="2">
+    <row r="186">
+      <c r="A186" s="2" t="n">
         <v>40695</v>
       </c>
-      <c r="B186">
+      <c r="B186" t="n">
         <v>1009411000000</v>
       </c>
-      <c r="C186">
+      <c r="C186" t="n">
         <v>0.1675603217158177</v>
       </c>
-      <c r="D186">
+      <c r="D186" t="n">
         <v>169137231903.4853</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="2">
+    <row r="187">
+      <c r="A187" s="2" t="n">
         <v>40725</v>
       </c>
-      <c r="B187">
+      <c r="B187" t="n">
         <v>1018926000000</v>
       </c>
-      <c r="C187">
+      <c r="C187" t="n">
         <v>0.1678697330871244</v>
       </c>
-      <c r="D187">
+      <c r="D187" t="n">
         <v>171046835655.5313</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="2">
+    <row r="188">
+      <c r="A188" s="2" t="n">
         <v>40756</v>
       </c>
-      <c r="B188">
+      <c r="B188" t="n">
         <v>1024359000000</v>
       </c>
-      <c r="C188">
+      <c r="C188" t="n">
         <v>0.1680248676804167</v>
       </c>
-      <c r="D188">
+      <c r="D188" t="n">
         <v>172117785432.244</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="2">
+    <row r="189">
+      <c r="A189" s="2" t="n">
         <v>40787</v>
       </c>
-      <c r="B189">
+      <c r="B189" t="n">
         <v>1024430000000</v>
       </c>
-      <c r="C189">
+      <c r="C189" t="n">
         <v>0.1676727028839705</v>
       </c>
-      <c r="D189">
+      <c r="D189" t="n">
         <v>171768947015.4259</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="2">
+    <row r="190">
+      <c r="A190" s="2" t="n">
         <v>40817</v>
       </c>
-      <c r="B190">
+      <c r="B190" t="n">
         <v>1030934000000</v>
       </c>
-      <c r="C190">
+      <c r="C190" t="n">
         <v>0.1676164934629568</v>
       </c>
-      <c r="D190">
+      <c r="D190" t="n">
         <v>172801542071.7399</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="2">
+    <row r="191">
+      <c r="A191" s="2" t="n">
         <v>40848</v>
       </c>
-      <c r="B191">
+      <c r="B191" t="n">
         <v>1031696000000</v>
       </c>
-      <c r="C191">
+      <c r="C191" t="n">
         <v>0.1669170422300117</v>
       </c>
-      <c r="D191">
+      <c r="D191" t="n">
         <v>172207644800.5341</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="2">
+    <row r="192">
+      <c r="A192" s="2" t="n">
         <v>40878</v>
       </c>
-      <c r="B192">
+      <c r="B192" t="n">
         <v>1038871000000</v>
       </c>
-      <c r="C192">
+      <c r="C192" t="n">
         <v>0.1658649859014762</v>
       </c>
-      <c r="D192">
+      <c r="D192" t="n">
         <v>172312323768.4525</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="2">
+    <row r="193">
+      <c r="A193" s="2" t="n">
         <v>40909</v>
       </c>
-      <c r="B193">
+      <c r="B193" t="n">
         <v>1043877000000</v>
       </c>
-      <c r="C193">
+      <c r="C193" t="n">
         <v>0.1659475605708596</v>
       </c>
-      <c r="D193">
+      <c r="D193" t="n">
         <v>173228841686.0272</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="2">
+    <row r="194">
+      <c r="A194" s="2" t="n">
         <v>40940</v>
       </c>
-      <c r="B194">
+      <c r="B194" t="n">
         <v>1050128000000</v>
       </c>
-      <c r="C194">
+      <c r="C194" t="n">
         <v>0.1658649859014762</v>
       </c>
-      <c r="D194">
+      <c r="D194" t="n">
         <v>174179465914.7454</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="2">
+    <row r="195">
+      <c r="A195" s="2" t="n">
         <v>40969</v>
       </c>
-      <c r="B195">
+      <c r="B195" t="n">
         <v>1054996000000</v>
       </c>
-      <c r="C195">
+      <c r="C195" t="n">
         <v>0.1656177542232527</v>
       </c>
-      <c r="D195">
+      <c r="D195" t="n">
         <v>174726068234.5147</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="2">
+    <row r="196">
+      <c r="A196" s="2" t="n">
         <v>41000</v>
       </c>
-      <c r="B196">
+      <c r="B196" t="n">
         <v>1058770000000</v>
       </c>
-      <c r="C196">
+      <c r="C196" t="n">
         <v>0.16604400166044</v>
       </c>
-      <c r="D196">
+      <c r="D196" t="n">
         <v>175802407638.0241</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="2">
+    <row r="197">
+      <c r="A197" s="2" t="n">
         <v>41030</v>
       </c>
-      <c r="B197">
+      <c r="B197" t="n">
         <v>1067581000000</v>
       </c>
-      <c r="C197">
+      <c r="C197" t="n">
         <v>0.1659585767392459</v>
       </c>
-      <c r="D197">
+      <c r="D197" t="n">
         <v>177174223313.8609</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="2">
+    <row r="198">
+      <c r="A198" s="2" t="n">
         <v>41061</v>
       </c>
-      <c r="B198">
+      <c r="B198" t="n">
         <v>1094408000000</v>
       </c>
-      <c r="C198">
+      <c r="C198" t="n">
         <v>0.1650328415354655</v>
       </c>
-      <c r="D198">
+      <c r="D198" t="n">
         <v>180613262039.1458</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="2">
+    <row r="199">
+      <c r="A199" s="2" t="n">
         <v>41091</v>
       </c>
-      <c r="B199">
+      <c r="B199" t="n">
         <v>1101874000000</v>
       </c>
-      <c r="C199">
+      <c r="C199" t="n">
         <v>0.1645900883848775</v>
       </c>
-      <c r="D199">
+      <c r="D199" t="n">
         <v>181357539048.9985</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="2">
+    <row r="200">
+      <c r="A200" s="2" t="n">
         <v>41122</v>
       </c>
-      <c r="B200">
+      <c r="B200" t="n">
         <v>1115267000000</v>
       </c>
-      <c r="C200">
+      <c r="C200" t="n">
         <v>0.1643034355848381</v>
       </c>
-      <c r="D200">
+      <c r="D200" t="n">
         <v>183242199694.3956</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="2">
+    <row r="201">
+      <c r="A201" s="2" t="n">
         <v>41153</v>
       </c>
-      <c r="B201">
+      <c r="B201" t="n">
         <v>1124332000000</v>
       </c>
-      <c r="C201">
+      <c r="C201" t="n">
         <v>0.164009709374795</v>
       </c>
-      <c r="D201">
+      <c r="D201" t="n">
         <v>184401364560.782</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="2">
+    <row r="202">
+      <c r="A202" s="2" t="n">
         <v>41183</v>
       </c>
-      <c r="B202">
+      <c r="B202" t="n">
         <v>1144653000000</v>
       </c>
-      <c r="C202">
+      <c r="C202" t="n">
         <v>0.1636446946389998</v>
       </c>
-      <c r="D202">
+      <c r="D202" t="n">
         <v>187316390652.6151</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="2">
+    <row r="203">
+      <c r="A203" s="2" t="n">
         <v>41214</v>
       </c>
-      <c r="B203">
+      <c r="B203" t="n">
         <v>1147497000000</v>
       </c>
-      <c r="C203">
+      <c r="C203" t="n">
         <v>0.1640446857724044</v>
       </c>
-      <c r="D203">
+      <c r="D203" t="n">
         <v>188240784789.7767</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="2">
+    <row r="204">
+      <c r="A204" s="2" t="n">
         <v>41244</v>
       </c>
-      <c r="B204">
+      <c r="B204" t="n">
         <v>1167160000000</v>
       </c>
-      <c r="C204">
+      <c r="C204" t="n">
         <v>0.1571116592562334</v>
       </c>
-      <c r="D204">
+      <c r="D204" t="n">
         <v>183374444217.5054</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
-      <c r="A205" s="2">
+    <row r="205">
+      <c r="A205" s="2" t="n">
         <v>41275</v>
       </c>
-      <c r="B205">
+      <c r="B205" t="n">
         <v>1198095000000</v>
       </c>
-      <c r="C205">
+      <c r="C205" t="n">
         <v>0.1489203276247208</v>
       </c>
-      <c r="D205">
+      <c r="D205" t="n">
         <v>178420699925.5398</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="2">
+    <row r="206">
+      <c r="A206" s="2" t="n">
         <v>41306</v>
       </c>
-      <c r="B206">
+      <c r="B206" t="n">
         <v>1211317000000</v>
       </c>
-      <c r="C206">
+      <c r="C206" t="n">
         <v>0.1483591478250549</v>
       </c>
-      <c r="D206">
+      <c r="D206" t="n">
         <v>179709957866.002</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="2">
+    <row r="207">
+      <c r="A207" s="2" t="n">
         <v>41334</v>
       </c>
-      <c r="B207">
+      <c r="B207" t="n">
         <v>1236938000000</v>
       </c>
-      <c r="C207">
+      <c r="C207" t="n">
         <v>0.1469982948197801</v>
       </c>
-      <c r="D207">
+      <c r="D207" t="n">
         <v>181827776797.7891</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="2">
+    <row r="208">
+      <c r="A208" s="2" t="n">
         <v>41365</v>
       </c>
-      <c r="B208">
+      <c r="B208" t="n">
         <v>1252861000000</v>
       </c>
-      <c r="C208">
+      <c r="C208" t="n">
         <v>0.1442169022209403</v>
       </c>
-      <c r="D208">
+      <c r="D208" t="n">
         <v>180683732333.4295</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="2">
+    <row r="209">
+      <c r="A209" s="2" t="n">
         <v>41395</v>
       </c>
-      <c r="B209">
+      <c r="B209" t="n">
         <v>1268513000000</v>
       </c>
-      <c r="C209">
+      <c r="C209" t="n">
         <v>0.1431987742184927</v>
       </c>
-      <c r="D209">
+      <c r="D209" t="n">
         <v>181649506680.2228</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="2">
+    <row r="210">
+      <c r="A210" s="2" t="n">
         <v>41426</v>
       </c>
-      <c r="B210">
+      <c r="B210" t="n">
         <v>1296086000000</v>
       </c>
-      <c r="C210">
+      <c r="C210" t="n">
         <v>0.1424704373842428</v>
       </c>
-      <c r="D210">
+      <c r="D210" t="n">
         <v>184653939307.5937</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
-      <c r="A211" s="2">
+    <row r="211">
+      <c r="A211" s="2" t="n">
         <v>41456</v>
       </c>
-      <c r="B211">
+      <c r="B211" t="n">
         <v>1316054000000</v>
       </c>
-      <c r="C211">
+      <c r="C211" t="n">
         <v>0.1428795953649859</v>
       </c>
-      <c r="D211">
+      <c r="D211" t="n">
         <v>188037262998.4712</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
-      <c r="A212" s="2">
+    <row r="212">
+      <c r="A212" s="2" t="n">
         <v>41487</v>
       </c>
-      <c r="B212">
+      <c r="B212" t="n">
         <v>1329492000000</v>
       </c>
-      <c r="C212">
+      <c r="C212" t="n">
         <v>0.1431536754706177</v>
       </c>
-      <c r="D212">
+      <c r="D212" t="n">
         <v>190321666308.7825</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
-      <c r="A213" s="2">
+    <row r="213">
+      <c r="A213" s="2" t="n">
         <v>41518</v>
       </c>
-      <c r="B213">
+      <c r="B213" t="n">
         <v>1334967000000</v>
       </c>
-      <c r="C213">
+      <c r="C213" t="n">
         <v>0.145106290357687</v>
       </c>
-      <c r="D213">
+      <c r="D213" t="n">
         <v>193712109119.9304</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
-      <c r="A214" s="2">
+    <row r="214">
+      <c r="A214" s="2" t="n">
         <v>41548</v>
       </c>
-      <c r="B214">
+      <c r="B214" t="n">
         <v>1348484000000</v>
       </c>
-      <c r="C214">
+      <c r="C214" t="n">
         <v>0.1451947787957545</v>
       </c>
-      <c r="D214">
+      <c r="D214" t="n">
         <v>195792836089.6142</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
-      <c r="A215" s="2">
+    <row r="215">
+      <c r="A215" s="2" t="n">
         <v>41579</v>
       </c>
-      <c r="B215">
+      <c r="B215" t="n">
         <v>1360134000000</v>
       </c>
-      <c r="C215">
+      <c r="C215" t="n">
         <v>0.1453488372093023</v>
       </c>
-      <c r="D215">
+      <c r="D215" t="n">
         <v>197693895348.8372</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
-      <c r="A216" s="2">
+    <row r="216">
+      <c r="A216" s="2" t="n">
         <v>41609</v>
       </c>
-      <c r="B216">
+      <c r="B216" t="n">
         <v>1387688000000</v>
       </c>
-      <c r="C216">
+      <c r="C216" t="n">
         <v>0.1439159530833993</v>
       </c>
-      <c r="D216">
+      <c r="D216" t="n">
         <v>199710441102.3962</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="2">
+    <row r="217">
+      <c r="A217" s="2" t="n">
         <v>41640</v>
       </c>
-      <c r="B217">
+      <c r="B217" t="n">
         <v>1398255000000</v>
       </c>
-      <c r="C217">
+      <c r="C217" t="n">
         <v>0.1436472024707319</v>
       </c>
-      <c r="D217">
+      <c r="D217" t="n">
         <v>200855419090.7132</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="2">
+    <row r="218">
+      <c r="A218" s="2" t="n">
         <v>41671</v>
       </c>
-      <c r="B218">
+      <c r="B218" t="n">
         <v>1417624000000</v>
       </c>
-      <c r="C218">
+      <c r="C218" t="n">
         <v>0.1436678399540263</v>
       </c>
-      <c r="D218">
+      <c r="D218" t="n">
         <v>203666977946.9866</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="2">
+    <row r="219">
+      <c r="A219" s="2" t="n">
         <v>41699</v>
       </c>
-      <c r="B219">
+      <c r="B219" t="n">
         <v>1438421000000</v>
       </c>
-      <c r="C219">
+      <c r="C219" t="n">
         <v>0.1435276218908329</v>
       </c>
-      <c r="D219">
+      <c r="D219" t="n">
         <v>206453145407.8337</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="2">
+    <row r="220">
+      <c r="A220" s="2" t="n">
         <v>41730</v>
       </c>
-      <c r="B220">
+      <c r="B220" t="n">
         <v>1459568000000</v>
       </c>
-      <c r="C220">
+      <c r="C220" t="n">
         <v>0.1428591837026243</v>
       </c>
-      <c r="D220">
+      <c r="D220" t="n">
         <v>208512693038.472</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
-      <c r="A221" s="2">
+    <row r="221">
+      <c r="A221" s="2" t="n">
         <v>41760</v>
       </c>
-      <c r="B221">
+      <c r="B221" t="n">
         <v>1484420000000</v>
       </c>
-      <c r="C221">
+      <c r="C221" t="n">
         <v>0.1398562277978238</v>
       </c>
-      <c r="D221">
+      <c r="D221" t="n">
         <v>207605381667.6457</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
-      <c r="A222" s="2">
+    <row r="222">
+      <c r="A222" s="2" t="n">
         <v>41791</v>
       </c>
-      <c r="B222">
+      <c r="B222" t="n">
         <v>1516601000000</v>
       </c>
-      <c r="C222">
+      <c r="C222" t="n">
         <v>0.1398601398601398</v>
       </c>
-      <c r="D222">
+      <c r="D222" t="n">
         <v>212112027972.028</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
-      <c r="A223" s="2">
+    <row r="223">
+      <c r="A223" s="2" t="n">
         <v>41821</v>
       </c>
-      <c r="B223">
+      <c r="B223" t="n">
         <v>1545031000000</v>
       </c>
-      <c r="C223">
+      <c r="C223" t="n">
         <v>0.1398601398601398</v>
       </c>
-      <c r="D223">
+      <c r="D223" t="n">
         <v>216088251748.2517</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
-      <c r="A224" s="2">
+    <row r="224">
+      <c r="A224" s="2" t="n">
         <v>41852</v>
       </c>
-      <c r="B224">
+      <c r="B224" t="n">
         <v>1557379000000</v>
       </c>
-      <c r="C224">
+      <c r="C224" t="n">
         <v>0.1398601398601398</v>
       </c>
-      <c r="D224">
+      <c r="D224" t="n">
         <v>217815244755.2447</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
-      <c r="A225" s="2">
+    <row r="225">
+      <c r="A225" s="2" t="n">
         <v>41883</v>
       </c>
-      <c r="B225">
+      <c r="B225" t="n">
         <v>1543756000000</v>
       </c>
-      <c r="C225">
+      <c r="C225" t="n">
         <v>0.1398601398601398</v>
       </c>
-      <c r="D225">
+      <c r="D225" t="n">
         <v>215909930069.9301</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
-      <c r="A226" s="2">
+    <row r="226">
+      <c r="A226" s="2" t="n">
         <v>41913</v>
       </c>
-      <c r="B226">
+      <c r="B226" t="n">
         <v>1560327000000</v>
       </c>
-      <c r="C226">
+      <c r="C226" t="n">
         <v>0.1398601398601398</v>
       </c>
-      <c r="D226">
+      <c r="D226" t="n">
         <v>218227552447.5524</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
-      <c r="A227" s="2">
+    <row r="227">
+      <c r="A227" s="2" t="n">
         <v>41944</v>
       </c>
-      <c r="B227">
+      <c r="B227" t="n">
         <v>1572950000000</v>
       </c>
-      <c r="C227">
+      <c r="C227" t="n">
         <v>0.1398601398601398</v>
       </c>
-      <c r="D227">
+      <c r="D227" t="n">
         <v>219993006993.007</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
-      <c r="A228" s="2">
+    <row r="228">
+      <c r="A228" s="2" t="n">
         <v>41974</v>
       </c>
-      <c r="B228">
+      <c r="B228" t="n">
         <v>1606505000000</v>
       </c>
-      <c r="C228">
+      <c r="C228" t="n">
         <v>0.1398601398601398</v>
       </c>
-      <c r="D228">
+      <c r="D228" t="n">
         <v>224686013986.0139</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
-      <c r="A229" s="2">
+    <row r="229">
+      <c r="A229" s="2" t="n">
         <v>42005</v>
       </c>
-      <c r="B229">
+      <c r="B229" t="n">
         <v>1627547000000</v>
       </c>
-      <c r="C229">
+      <c r="C229" t="n">
         <v>0.1317523056653492</v>
       </c>
-      <c r="D229">
+      <c r="D229" t="n">
         <v>214433069828.722</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
-      <c r="A230" s="2">
+    <row r="230">
+      <c r="A230" s="2" t="n">
         <v>42036</v>
       </c>
-      <c r="B230">
+      <c r="B230" t="n">
         <v>1637378000000</v>
       </c>
-      <c r="C230">
+      <c r="C230" t="n">
         <v>0.131578947368421</v>
       </c>
-      <c r="D230">
+      <c r="D230" t="n">
         <v>215444473684.2105</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
-      <c r="A231" s="2">
+    <row r="231">
+      <c r="A231" s="2" t="n">
         <v>42064</v>
       </c>
-      <c r="B231">
+      <c r="B231" t="n">
         <v>1682225000000</v>
       </c>
-      <c r="C231">
+      <c r="C231" t="n">
         <v>0.1310615989515072</v>
       </c>
-      <c r="D231">
+      <c r="D231" t="n">
         <v>220475098296.1992</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
-      <c r="A232" s="2">
+    <row r="232">
+      <c r="A232" s="2" t="n">
         <v>42095</v>
       </c>
-      <c r="B232">
+      <c r="B232" t="n">
         <v>1700416000000</v>
       </c>
-      <c r="C232">
+      <c r="C232" t="n">
         <v>0.1310615989515072</v>
       </c>
-      <c r="D232">
+      <c r="D232" t="n">
         <v>222859239842.7261</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
-      <c r="A233" s="2">
+    <row r="233">
+      <c r="A233" s="2" t="n">
         <v>42125</v>
       </c>
-      <c r="B233">
+      <c r="B233" t="n">
         <v>1720048000000</v>
       </c>
-      <c r="C233">
+      <c r="C233" t="n">
         <v>0.1310615989515072</v>
       </c>
-      <c r="D233">
+      <c r="D233" t="n">
         <v>225432241153.3421</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
-      <c r="A234" s="2">
+    <row r="234">
+      <c r="A234" s="2" t="n">
         <v>42156</v>
       </c>
-      <c r="B234">
+      <c r="B234" t="n">
         <v>1765492000000</v>
       </c>
-      <c r="C234">
+      <c r="C234" t="n">
         <v>0.1310615989515072</v>
       </c>
-      <c r="D234">
+      <c r="D234" t="n">
         <v>231388204456.0944</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
-      <c r="A235" s="2">
+    <row r="235">
+      <c r="A235" s="2" t="n">
         <v>42186</v>
       </c>
-      <c r="B235">
+      <c r="B235" t="n">
         <v>1799490000000</v>
       </c>
-      <c r="C235">
+      <c r="C235" t="n">
         <v>0.1282051282051282</v>
       </c>
-      <c r="D235">
+      <c r="D235" t="n">
         <v>230703846153.8462</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
-      <c r="A236" s="2">
+    <row r="236">
+      <c r="A236" s="2" t="n">
         <v>42217</v>
       </c>
-      <c r="B236">
+      <c r="B236" t="n">
         <v>1819118000000</v>
       </c>
-      <c r="C236">
+      <c r="C236" t="n">
         <v>0.1277139208173691</v>
       </c>
-      <c r="D236">
+      <c r="D236" t="n">
         <v>232326692209.4508</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
-      <c r="A237" s="2">
+    <row r="237">
+      <c r="A237" s="2" t="n">
         <v>42248</v>
       </c>
-      <c r="B237">
+      <c r="B237" t="n">
         <v>1850305000000</v>
       </c>
-      <c r="C237">
+      <c r="C237" t="n">
         <v>0.1277139208173691</v>
       </c>
-      <c r="D237">
+      <c r="D237" t="n">
         <v>236309706257.9821</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
-      <c r="A238" s="2">
+    <row r="238">
+      <c r="A238" s="2" t="n">
         <v>42278</v>
       </c>
-      <c r="B238">
+      <c r="B238" t="n">
         <v>1868174000000</v>
       </c>
-      <c r="C238">
+      <c r="C238" t="n">
         <v>0.12453300124533</v>
       </c>
-      <c r="D238">
+      <c r="D238" t="n">
         <v>232649315068.4932</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
-      <c r="A239" s="2">
+    <row r="239">
+      <c r="A239" s="2" t="n">
         <v>42309</v>
       </c>
-      <c r="B239">
+      <c r="B239" t="n">
         <v>1876828000000</v>
       </c>
-      <c r="C239">
+      <c r="C239" t="n">
         <v>0.1277139208173691</v>
       </c>
-      <c r="D239">
+      <c r="D239" t="n">
         <v>239697062579.8212</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
-      <c r="A240" s="2">
+    <row r="240">
+      <c r="A240" s="2" t="n">
         <v>42339</v>
       </c>
-      <c r="B240">
+      <c r="B240" t="n">
         <v>1905464000000</v>
       </c>
-      <c r="C240">
+      <c r="C240" t="n">
         <v>0.1277139208173691</v>
       </c>
-      <c r="D240">
+      <c r="D240" t="n">
         <v>243354278416.3474</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
-      <c r="A241" s="2">
+    <row r="241">
+      <c r="A241" s="2" t="n">
         <v>42370</v>
       </c>
-      <c r="B241">
+      <c r="B241" t="n">
         <v>1909422000000</v>
       </c>
-      <c r="C241">
+      <c r="C241" t="n">
         <v>0.1277139208173691</v>
       </c>
-      <c r="D241">
+      <c r="D241" t="n">
         <v>243859770114.9425</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
-      <c r="A242" s="2">
+    <row r="242">
+      <c r="A242" s="2" t="n">
         <v>42401</v>
       </c>
-      <c r="B242">
+      <c r="B242" t="n">
         <v>1922685000000</v>
       </c>
-      <c r="C242">
+      <c r="C242" t="n">
         <v>0.1277139208173691</v>
       </c>
-      <c r="D242">
+      <c r="D242" t="n">
         <v>245553639846.7433</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
-      <c r="A243" s="2">
+    <row r="243">
+      <c r="A243" s="2" t="n">
         <v>42430</v>
       </c>
-      <c r="B243">
+      <c r="B243" t="n">
         <v>1987839000000</v>
       </c>
-      <c r="C243">
+      <c r="C243" t="n">
         <v>0.1126138807869458</v>
       </c>
-      <c r="D243">
+      <c r="D243" t="n">
         <v>223858264169.6416</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
-      <c r="A244" s="2">
+    <row r="244">
+      <c r="A244" s="2" t="n">
         <v>42461</v>
       </c>
-      <c r="B244">
+      <c r="B244" t="n">
         <v>2006632000000</v>
       </c>
-      <c r="C244">
+      <c r="C244" t="n">
         <v>0.1126151489898421</v>
       </c>
-      <c r="D244">
+      <c r="D244" t="n">
         <v>225977161647.7849</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
-      <c r="A245" s="2">
+    <row r="245">
+      <c r="A245" s="2" t="n">
         <v>42491</v>
       </c>
-      <c r="B245">
+      <c r="B245" t="n">
         <v>2044293000000</v>
       </c>
-      <c r="C245">
+      <c r="C245" t="n">
         <v>0.1126151489898421</v>
       </c>
-      <c r="D245">
+      <c r="D245" t="n">
         <v>230218360773.8913</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
-      <c r="A246" s="2">
+    <row r="246">
+      <c r="A246" s="2" t="n">
         <v>42522</v>
       </c>
-      <c r="B246">
+      <c r="B246" t="n">
         <v>2094500000000</v>
       </c>
-      <c r="C246">
+      <c r="C246" t="n">
         <v>0.1126138807869458</v>
       </c>
-      <c r="D246">
+      <c r="D246" t="n">
         <v>235869773308.258</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
-      <c r="A247" s="2">
+    <row r="247">
+      <c r="A247" s="2" t="n">
         <v>42552</v>
       </c>
-      <c r="B247">
+      <c r="B247" t="n">
         <v>2119715000000</v>
       </c>
-      <c r="C247">
+      <c r="C247" t="n">
         <v>0.1126138807869458</v>
       </c>
-      <c r="D247">
+      <c r="D247" t="n">
         <v>238709332312.3008</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
-      <c r="A248" s="2">
+    <row r="248">
+      <c r="A248" s="2" t="n">
         <v>42583</v>
       </c>
-      <c r="B248">
+      <c r="B248" t="n">
         <v>2151648000000</v>
       </c>
-      <c r="C248">
+      <c r="C248" t="n">
         <v>0.1128999480660239</v>
       </c>
-      <c r="D248">
+      <c r="D248" t="n">
         <v>242920947456.3642</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
-      <c r="A249" s="2">
+    <row r="249">
+      <c r="A249" s="2" t="n">
         <v>42614</v>
       </c>
-      <c r="B249">
+      <c r="B249" t="n">
         <v>2183148000000</v>
       </c>
-      <c r="C249">
+      <c r="C249" t="n">
         <v>0.1129012227202421</v>
       </c>
-      <c r="D249">
+      <c r="D249" t="n">
         <v>246480078579.251</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
-      <c r="A250" s="2">
+    <row r="250">
+      <c r="A250" s="2" t="n">
         <v>42644</v>
       </c>
-      <c r="B250">
+      <c r="B250" t="n">
         <v>2198196000000</v>
       </c>
-      <c r="C250">
+      <c r="C250" t="n">
         <v>0.1128884774731043</v>
       </c>
-      <c r="D250">
+      <c r="D250" t="n">
         <v>248150999627.468</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
-      <c r="A251" s="2">
+    <row r="251">
+      <c r="A251" s="2" t="n">
         <v>42675</v>
       </c>
-      <c r="B251">
+      <c r="B251" t="n">
         <v>2601171000000</v>
       </c>
-      <c r="C251">
+      <c r="C251" t="n">
         <v>0.05649717514124294</v>
       </c>
-      <c r="D251">
+      <c r="D251" t="n">
         <v>146958813559.322</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
-      <c r="A252" s="2">
+    <row r="252">
+      <c r="A252" s="2" t="n">
         <v>42705</v>
       </c>
-      <c r="B252">
+      <c r="B252" t="n">
         <v>2648595000000</v>
       </c>
-      <c r="C252">
+      <c r="C252" t="n">
         <v>0.05555555555555555</v>
       </c>
-      <c r="D252">
+      <c r="D252" t="n">
         <v>147144166666.6667</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
-      <c r="A253" s="2">
+    <row r="253">
+      <c r="A253" s="2" t="n">
         <v>42736</v>
       </c>
-      <c r="B253">
+      <c r="B253" t="n">
         <v>2701634000000</v>
       </c>
-      <c r="C253">
+      <c r="C253" t="n">
         <v>0.053475935828877</v>
       </c>
-      <c r="D253">
+      <c r="D253" t="n">
         <v>144472406417.1123</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
-      <c r="A254" s="2">
+    <row r="254">
+      <c r="A254" s="2" t="n">
         <v>42767</v>
       </c>
-      <c r="B254">
+      <c r="B254" t="n">
         <v>2627193000000</v>
       </c>
-      <c r="C254">
+      <c r="C254" t="n">
         <v>0.06369426751592357</v>
       </c>
-      <c r="D254">
+      <c r="D254" t="n">
         <v>167337133757.9618</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
-      <c r="A255" s="2">
+    <row r="255">
+      <c r="A255" s="2" t="n">
         <v>42795</v>
       </c>
-      <c r="B255">
+      <c r="B255" t="n">
         <v>2743818000000</v>
       </c>
-      <c r="C255">
+      <c r="C255" t="n">
         <v>0.05714285714285714</v>
       </c>
-      <c r="D255">
+      <c r="D255" t="n">
         <v>156789600000</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
-      <c r="A256" s="2">
+    <row r="256">
+      <c r="A256" s="2" t="n">
         <v>42826</v>
       </c>
-      <c r="B256">
+      <c r="B256" t="n">
         <v>2784571000000</v>
       </c>
-      <c r="C256">
+      <c r="C256" t="n">
         <v>0.05571030640668524</v>
       </c>
-      <c r="D256">
+      <c r="D256" t="n">
         <v>155129303621.1699</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
-      <c r="A257" s="2">
+    <row r="257">
+      <c r="A257" s="2" t="n">
         <v>42856</v>
       </c>
-      <c r="B257">
+      <c r="B257" t="n">
         <v>2849601000000</v>
       </c>
-    </row>
-    <row r="258" spans="1:4">
-      <c r="A258" s="2">
+      <c r="C257" t="inlineStr"/>
+      <c r="D257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
         <v>42887</v>
       </c>
-      <c r="B258">
+      <c r="B258" t="n">
         <v>2918193000000</v>
       </c>
-      <c r="C258">
+      <c r="C258" t="n">
         <v>0.05514199062586159</v>
       </c>
-      <c r="D258">
+      <c r="D258" t="n">
         <v>160914971050.4549</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
-      <c r="A259" s="2">
+    <row r="259">
+      <c r="A259" s="2" t="n">
         <v>42917</v>
       </c>
-      <c r="B259">
+      <c r="B259" t="n">
         <v>2940815000000</v>
       </c>
-      <c r="C259">
+      <c r="C259" t="n">
         <v>0.05611672278338945</v>
       </c>
-      <c r="D259">
+      <c r="D259" t="n">
         <v>165028900112.2335</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
-      <c r="A260" s="2">
+    <row r="260">
+      <c r="A260" s="2" t="n">
         <v>42948</v>
       </c>
-      <c r="B260">
+      <c r="B260" t="n">
         <v>3003886000000</v>
       </c>
-      <c r="C260">
+      <c r="C260" t="n">
         <v>0.0564652738565782</v>
       </c>
-      <c r="D260">
+      <c r="D260" t="n">
         <v>169615245623.9413</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
-      <c r="A261" s="2">
+    <row r="261">
+      <c r="A261" s="2" t="n">
         <v>42979</v>
       </c>
-      <c r="B261">
+      <c r="B261" t="n">
         <v>3050373000000</v>
       </c>
-      <c r="C261">
+      <c r="C261" t="n">
         <v>0.05668934240362811</v>
       </c>
-      <c r="D261">
+      <c r="D261" t="n">
         <v>172923639455.7823</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
-      <c r="A262" s="2">
+    <row r="262">
+      <c r="A262" s="2" t="n">
         <v>43009</v>
       </c>
-      <c r="B262">
+      <c r="B262" t="n">
         <v>3088052000000</v>
       </c>
-      <c r="C262">
+      <c r="C262" t="n">
         <v>0.05667649059170256</v>
       </c>
-      <c r="D262">
+      <c r="D262" t="n">
         <v>175019950124.6883</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
-      <c r="A263" s="2">
+    <row r="263">
+      <c r="A263" s="2" t="n">
         <v>43040</v>
       </c>
-      <c r="B263">
+      <c r="B263" t="n">
         <v>3140629000000</v>
       </c>
-      <c r="C263">
+      <c r="C263" t="n">
         <v>0.05668934240362811</v>
       </c>
-      <c r="D263">
+      <c r="D263" t="n">
         <v>178040192743.7642</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
-      <c r="A264" s="2">
+    <row r="264">
+      <c r="A264" s="2" t="n">
         <v>43070</v>
       </c>
-      <c r="B264">
+      <c r="B264" t="n">
         <v>3202657000000</v>
       </c>
-      <c r="C264">
+      <c r="C264" t="n">
         <v>0.05624296962879639</v>
       </c>
-      <c r="D264">
+      <c r="D264" t="n">
         <v>180126940382.4522</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
-      <c r="A265" s="2">
+    <row r="265">
+      <c r="A265" s="2" t="n">
         <v>43101</v>
       </c>
-      <c r="B265">
+      <c r="B265" t="n">
         <v>3254247000000</v>
       </c>
-      <c r="C265">
+      <c r="C265" t="n">
         <v>0.05672149744753262</v>
       </c>
-      <c r="D265">
+      <c r="D265" t="n">
         <v>184585762904.1407</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
-      <c r="A266" s="2">
+    <row r="266">
+      <c r="A266" s="2" t="n">
         <v>43132</v>
       </c>
-      <c r="B266">
+      <c r="B266" t="n">
         <v>3294896000000</v>
       </c>
-      <c r="C266">
+      <c r="C266" t="n">
         <v>0.05678591709256105</v>
       </c>
-      <c r="D266">
+      <c r="D266" t="n">
         <v>187103691084.611</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
-      <c r="A267" s="2">
+    <row r="267">
+      <c r="A267" s="2" t="n">
         <v>43160</v>
       </c>
-      <c r="B267">
+      <c r="B267" t="n">
         <v>3343484000000</v>
       </c>
-      <c r="C267">
+      <c r="C267" t="n">
         <v>0.05688282138794085</v>
       </c>
-      <c r="D267">
+      <c r="D267" t="n">
         <v>190186803185.438</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
-      <c r="A268" s="2">
+    <row r="268">
+      <c r="A268" s="2" t="n">
         <v>43191</v>
       </c>
-      <c r="B268">
+      <c r="B268" t="n">
         <v>3379461000000</v>
       </c>
-      <c r="C268">
+      <c r="C268" t="n">
         <v>0.05672149744753262</v>
       </c>
-      <c r="D268">
+      <c r="D268" t="n">
         <v>191688088485.536</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
-      <c r="A269" s="2">
+    <row r="269">
+      <c r="A269" s="2" t="n">
         <v>43221</v>
       </c>
-      <c r="B269">
+      <c r="B269" t="n">
         <v>3401360000000</v>
       </c>
-      <c r="C269">
+      <c r="C269" t="n">
         <v>0.05599104143337066</v>
       </c>
-      <c r="D269">
+      <c r="D269" t="n">
         <v>190445688689.8096</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
-      <c r="A270" s="2">
+    <row r="270">
+      <c r="A270" s="2" t="n">
         <v>43252</v>
       </c>
-      <c r="B270">
+      <c r="B270" t="n">
         <v>3454321000000</v>
       </c>
-      <c r="C270">
+      <c r="C270" t="n">
         <v>0.05605381165919283</v>
       </c>
-      <c r="D270">
+      <c r="D270" t="n">
         <v>193627858744.3946</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
-      <c r="A271" s="2">
+    <row r="271">
+      <c r="A271" s="2" t="n">
         <v>43282</v>
       </c>
-      <c r="B271">
+      <c r="B271" t="n">
         <v>3466152000000</v>
       </c>
-      <c r="C271">
+      <c r="C271" t="n">
         <v>0.05611672278338945</v>
       </c>
-      <c r="D271">
+      <c r="D271" t="n">
         <v>194509090909.0909</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
-      <c r="A272" s="2">
+    <row r="272">
+      <c r="A272" s="2" t="n">
         <v>43313</v>
       </c>
-      <c r="B272">
+      <c r="B272" t="n">
         <v>3515419000000</v>
       </c>
-      <c r="C272">
+      <c r="C272" t="n">
         <v>0.05624296962879639</v>
       </c>
-      <c r="D272">
+      <c r="D272" t="n">
         <v>197717604049.4938</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
-      <c r="A273" s="2">
+    <row r="273">
+      <c r="A273" s="2" t="n">
         <v>43344</v>
       </c>
-      <c r="B273">
+      <c r="B273" t="n">
         <v>3549306000000</v>
       </c>
-      <c r="C273">
+      <c r="C273" t="n">
         <v>0.05621135469364812</v>
       </c>
-      <c r="D273">
+      <c r="D273" t="n">
         <v>199511298482.2934</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
-      <c r="A274" s="2">
+    <row r="274">
+      <c r="A274" s="2" t="n">
         <v>43374</v>
       </c>
-      <c r="B274">
+      <c r="B274" t="n">
         <v>3563376000000</v>
       </c>
-      <c r="C274">
+      <c r="C274" t="n">
         <v>0.05599104143337066</v>
       </c>
-      <c r="D274">
+      <c r="D274" t="n">
         <v>199517133258.6786</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
-      <c r="A275" s="2">
+    <row r="275">
+      <c r="A275" s="2" t="n">
         <v>43405</v>
       </c>
-      <c r="B275">
+      <c r="B275" t="n">
         <v>3581583000000</v>
       </c>
-      <c r="C275">
+      <c r="C275" t="n">
         <v>0.05599104143337066</v>
       </c>
-      <c r="D275">
+      <c r="D275" t="n">
         <v>200536562150.056</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
-      <c r="A276" s="2">
+    <row r="276">
+      <c r="A276" s="2" t="n">
         <v>43435</v>
       </c>
-      <c r="B276">
+      <c r="B276" t="n">
         <v>3628681000000</v>
       </c>
-      <c r="C276">
+      <c r="C276" t="n">
         <v>0.05599104143337066</v>
       </c>
-      <c r="D276">
+      <c r="D276" t="n">
         <v>203173628219.4849</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
-      <c r="A277" s="2">
+    <row r="277">
+      <c r="A277" s="2" t="n">
         <v>43466</v>
       </c>
-      <c r="B277">
+      <c r="B277" t="n">
         <v>3640093000000</v>
       </c>
-      <c r="C277">
+      <c r="C277" t="n">
         <v>0.05672149744753262</v>
       </c>
-      <c r="D277">
+      <c r="D277" t="n">
         <v>206471525808.2813</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
-      <c r="A278" s="2">
+    <row r="278">
+      <c r="A278" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="B278">
+      <c r="B278" t="n">
         <v>3674700000000</v>
       </c>
-      <c r="C278">
+      <c r="C278" t="n">
         <v>0.0572737686139748</v>
       </c>
-      <c r="D278">
+      <c r="D278" t="n">
         <v>210463917525.7732</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
-      <c r="A279" s="2">
+    <row r="279">
+      <c r="A279" s="2" t="n">
         <v>43525</v>
       </c>
-      <c r="B279">
+      <c r="B279" t="n">
         <v>3724689000000</v>
       </c>
-      <c r="C279">
+      <c r="C279" t="n">
         <v>0.05787037037037036</v>
       </c>
-      <c r="D279">
+      <c r="D279" t="n">
         <v>215549131944.4444</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
-      <c r="A280" s="2">
+    <row r="280">
+      <c r="A280" s="2" t="n">
         <v>43556</v>
       </c>
-      <c r="B280">
+      <c r="B280" t="n">
         <v>3762427000000</v>
       </c>
-      <c r="C280">
+      <c r="C280" t="n">
         <v>0.05841121495327103</v>
       </c>
-      <c r="D280">
+      <c r="D280" t="n">
         <v>219767932242.9907</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
-      <c r="A281" s="2">
+    <row r="281">
+      <c r="A281" s="2" t="n">
         <v>43586</v>
       </c>
-      <c r="B281">
+      <c r="B281" t="n">
         <v>3796864000000</v>
       </c>
-      <c r="C281">
+      <c r="C281" t="n">
         <v>0.05980861244019139</v>
       </c>
-      <c r="D281">
+      <c r="D281" t="n">
         <v>227085167464.1149</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
-      <c r="A282" s="2">
+    <row r="282">
+      <c r="A282" s="2" t="n">
         <v>43617</v>
       </c>
-      <c r="B282">
+      <c r="B282" t="n">
         <v>3863642000000</v>
       </c>
-      <c r="C282">
+      <c r="C282" t="n">
         <v>0.06006006006006007</v>
       </c>
-      <c r="D282">
+      <c r="D282" t="n">
         <v>232050570570.5706</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
-      <c r="A283" s="2">
+    <row r="283">
+      <c r="A283" s="2" t="n">
         <v>43647</v>
       </c>
-      <c r="B283">
+      <c r="B283" t="n">
         <v>3884855000000</v>
       </c>
-      <c r="C283">
+      <c r="C283" t="n">
         <v>0.06060606060606061</v>
       </c>
-      <c r="D283">
+      <c r="D283" t="n">
         <v>235445757575.7576</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
-      <c r="A284" s="2">
+    <row r="284">
+      <c r="A284" s="2" t="n">
         <v>43678</v>
       </c>
-      <c r="B284">
+      <c r="B284" t="n">
         <v>3929472000000</v>
       </c>
-      <c r="C284">
+      <c r="C284" t="n">
         <v>0.06060606060606061</v>
       </c>
-      <c r="D284">
+      <c r="D284" t="n">
         <v>238149818181.8182</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
-      <c r="A285" s="2">
+    <row r="285">
+      <c r="A285" s="2" t="n">
         <v>43709</v>
       </c>
-      <c r="B285">
+      <c r="B285" t="n">
         <v>4010381000000</v>
       </c>
-      <c r="C285">
+      <c r="C285" t="n">
         <v>0.06161429451632779</v>
       </c>
-      <c r="D285">
+      <c r="D285" t="n">
         <v>247096796056.6852</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
-      <c r="A286" s="2">
+    <row r="286">
+      <c r="A286" s="2" t="n">
         <v>43739</v>
       </c>
-      <c r="B286">
+      <c r="B286" t="n">
         <v>4024016000000</v>
       </c>
-      <c r="C286">
+      <c r="C286" t="n">
         <v>0.06215040397762586</v>
       </c>
-      <c r="D286">
+      <c r="D286" t="n">
         <v>250094220012.4301</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
-      <c r="A287" s="2">
+    <row r="287">
+      <c r="A287" s="2" t="n">
         <v>43770</v>
       </c>
-      <c r="B287">
+      <c r="B287" t="n">
         <v>4053149000000</v>
       </c>
-      <c r="C287">
+      <c r="C287" t="n">
         <v>0.06222775357809583</v>
       </c>
-      <c r="D287">
+      <c r="D287" t="n">
         <v>252218357187.3055</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
-      <c r="A288" s="2">
+    <row r="288">
+      <c r="A288" s="2" t="n">
         <v>43800</v>
       </c>
-      <c r="B288">
+      <c r="B288" t="n">
         <v>4110516000000</v>
       </c>
-      <c r="C288">
+      <c r="C288" t="n">
         <v>0.0625</v>
       </c>
-      <c r="D288">
+      <c r="D288" t="n">
         <v>256907250000</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
-      <c r="A289" s="2">
+    <row r="289">
+      <c r="A289" s="2" t="n">
         <v>43831</v>
       </c>
-      <c r="B289">
+      <c r="B289" t="n">
         <v>4140451000000</v>
       </c>
-      <c r="C289">
+      <c r="C289" t="n">
         <v>0.06353240152477764</v>
       </c>
-      <c r="D289">
+      <c r="D289" t="n">
         <v>263052795425.6671</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
-      <c r="A290" s="2">
+    <row r="290">
+      <c r="A290" s="2" t="n">
         <v>43862</v>
       </c>
-      <c r="B290">
+      <c r="B290" t="n">
         <v>4186575000000</v>
       </c>
-      <c r="C290">
+      <c r="C290" t="n">
         <v>0.06412311638345623</v>
       </c>
-      <c r="D290">
+      <c r="D290" t="n">
         <v>268456235973.0683</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
-      <c r="A291" s="2">
+    <row r="291">
+      <c r="A291" s="2" t="n">
         <v>43891</v>
       </c>
-      <c r="B291">
+      <c r="B291" t="n">
         <v>4276765000000</v>
       </c>
-      <c r="C291">
+      <c r="C291" t="n">
         <v>0.06373486297004462</v>
       </c>
-      <c r="D291">
+      <c r="D291" t="n">
         <v>272579031230.0829</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
-      <c r="A292" s="2">
+    <row r="292">
+      <c r="A292" s="2" t="n">
         <v>43922</v>
       </c>
-      <c r="B292">
+      <c r="B292" t="n">
         <v>4353065000000</v>
       </c>
-      <c r="C292">
+      <c r="C292" t="n">
         <v>0.06369426751592357</v>
       </c>
-      <c r="D292">
+      <c r="D292" t="n">
         <v>277265286624.2038</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
-      <c r="A293" s="2">
+    <row r="293">
+      <c r="A293" s="2" t="n">
         <v>43952</v>
       </c>
-      <c r="B293">
+      <c r="B293" t="n">
         <v>4451434000000</v>
       </c>
-      <c r="C293">
+      <c r="C293" t="n">
         <v>0.06333122229259025</v>
       </c>
-      <c r="D293">
+      <c r="D293" t="n">
         <v>281914756174.7942</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
-      <c r="A294" s="2">
+    <row r="294">
+      <c r="A294" s="2" t="n">
         <v>43983</v>
       </c>
-      <c r="B294">
+      <c r="B294" t="n">
         <v>4538808000000</v>
       </c>
-      <c r="C294">
+      <c r="C294" t="n">
         <v>0.06207324643078833</v>
       </c>
-      <c r="D294">
+      <c r="D294" t="n">
         <v>281738547486.0335</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
-      <c r="A295" s="2">
+    <row r="295">
+      <c r="A295" s="2" t="n">
         <v>44013</v>
       </c>
-      <c r="B295">
+      <c r="B295" t="n">
         <v>4627173000000</v>
       </c>
-      <c r="C295">
+      <c r="C295" t="n">
         <v>0.06281407035175879</v>
       </c>
-      <c r="D295">
+      <c r="D295" t="n">
         <v>290651570351.7588</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
-      <c r="A296" s="2">
+    <row r="296">
+      <c r="A296" s="2" t="n">
         <v>44044</v>
       </c>
-      <c r="B296">
+      <c r="B296" t="n">
         <v>4682128000000</v>
       </c>
-      <c r="C296">
+      <c r="C296" t="n">
         <v>0.06321112515802781</v>
       </c>
-      <c r="D296">
+      <c r="D296" t="n">
         <v>295962579013.9064</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
-      <c r="A297" s="2">
+    <row r="297">
+      <c r="A297" s="2" t="n">
         <v>44075</v>
       </c>
-      <c r="B297">
+      <c r="B297" t="n">
         <v>4757180000000</v>
       </c>
-      <c r="C297">
+      <c r="C297" t="n">
         <v>0.06357279084551812</v>
       </c>
-      <c r="D297">
+      <c r="D297" t="n">
         <v>302427209154.4819</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
-      <c r="A298" s="2">
+    <row r="298">
+      <c r="A298" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="B298">
+      <c r="B298" t="n">
         <v>4805875000000</v>
       </c>
-      <c r="C298">
+      <c r="C298" t="n">
         <v>0.06389776357827476</v>
       </c>
-      <c r="D298">
+      <c r="D298" t="n">
         <v>307084664536.7412</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
-      <c r="A299" s="2">
+    <row r="299">
+      <c r="A299" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="B299">
+      <c r="B299" t="n">
         <v>4845958000000</v>
       </c>
-      <c r="C299">
+      <c r="C299" t="n">
         <v>0.06406149903907751</v>
       </c>
-      <c r="D299">
+      <c r="D299" t="n">
         <v>310439333760.41</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
-      <c r="A300" s="2">
+    <row r="300">
+      <c r="A300" s="2" t="n">
         <v>44166</v>
       </c>
-      <c r="B300">
+      <c r="B300" t="n">
         <v>4920525000000</v>
       </c>
-      <c r="C300">
+      <c r="C300" t="n">
         <v>0.06373486297004462</v>
       </c>
-      <c r="D300">
+      <c r="D300" t="n">
         <v>313608986615.6788</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
-      <c r="A301" s="2">
+    <row r="301">
+      <c r="A301" s="2" t="n">
         <v>44197</v>
       </c>
-      <c r="B301">
+      <c r="B301" t="n">
         <v>4959491000000</v>
       </c>
-      <c r="C301">
+      <c r="C301" t="n">
         <v>0.06385696040868455</v>
       </c>
-      <c r="D301">
+      <c r="D301" t="n">
         <v>316698020434.2274</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
-      <c r="A302" s="2">
+    <row r="302">
+      <c r="A302" s="2" t="n">
         <v>44228</v>
       </c>
-      <c r="B302">
+      <c r="B302" t="n">
         <v>5023185000000</v>
       </c>
-      <c r="C302">
+      <c r="C302" t="n">
         <v>0.06389776357827476</v>
       </c>
-      <c r="D302">
+      <c r="D302" t="n">
         <v>320970287539.9361</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
-      <c r="A303" s="2">
+    <row r="303">
+      <c r="A303" s="2" t="n">
         <v>44256</v>
       </c>
-      <c r="B303">
+      <c r="B303" t="n">
         <v>5131876000000</v>
       </c>
-      <c r="C303">
+      <c r="C303" t="n">
         <v>0.06379585326953748</v>
       </c>
-      <c r="D303">
+      <c r="D303" t="n">
         <v>327392408293.4609</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
-      <c r="A304" s="2">
+    <row r="304">
+      <c r="A304" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B304">
+      <c r="B304" t="n">
         <v>5184027000000</v>
       </c>
-      <c r="C304">
+      <c r="C304" t="n">
         <v>0.06406149903907751</v>
       </c>
-      <c r="D304">
+      <c r="D304" t="n">
         <v>332096540679.0519</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
-      <c r="A305" s="2">
+    <row r="305">
+      <c r="A305" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="B305">
+      <c r="B305" t="n">
         <v>5257355000000</v>
       </c>
-      <c r="C305">
+      <c r="C305" t="n">
         <v>0.06385696040868455</v>
       </c>
-      <c r="D305">
+      <c r="D305" t="n">
         <v>335718710089.3998</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
-      <c r="A306" s="2">
+    <row r="306">
+      <c r="A306" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B306">
+      <c r="B306" t="n">
         <v>5356609000000</v>
       </c>
-      <c r="C306">
+      <c r="C306" t="n">
         <v>0.06385696040868455</v>
       </c>
-      <c r="D306">
+      <c r="D306" t="n">
         <v>342056768837.8033</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
-      <c r="A307" s="2">
+    <row r="307">
+      <c r="A307" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="B307">
+      <c r="B307" t="n">
         <v>5425832000000</v>
       </c>
-      <c r="C307">
+      <c r="C307" t="n">
         <v>0.06381620931716656</v>
       </c>
-      <c r="D307">
+      <c r="D307" t="n">
         <v>346256030631.7805</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
-      <c r="A308" s="2">
+    <row r="308">
+      <c r="A308" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="B308">
+      <c r="B308" t="n">
         <v>5490613000000</v>
       </c>
-      <c r="C308">
+      <c r="C308" t="n">
         <v>0.06389776357827476</v>
       </c>
-      <c r="D308">
+      <c r="D308" t="n">
         <v>350837891373.8019</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
-      <c r="A309" s="2">
+    <row r="309">
+      <c r="A309" s="2" t="n">
         <v>44440</v>
       </c>
-      <c r="B309">
+      <c r="B309" t="n">
         <v>5574011000000</v>
       </c>
-      <c r="C309">
+      <c r="C309" t="n">
         <v>0.06373486297004462</v>
       </c>
-      <c r="D309">
+      <c r="D309" t="n">
         <v>355258827278.5214</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
-      <c r="A310" s="2">
+    <row r="310">
+      <c r="A310" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B310">
+      <c r="B310" t="n">
         <v>5651909000000</v>
       </c>
-      <c r="C310">
+      <c r="C310" t="n">
         <v>0.06385696040868455</v>
       </c>
-      <c r="D310">
+      <c r="D310" t="n">
         <v>360913729246.4879</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
-      <c r="A311" s="2">
+    <row r="311">
+      <c r="A311" s="2" t="n">
         <v>44501</v>
       </c>
-      <c r="B311">
+      <c r="B311" t="n">
         <v>5740127000000</v>
       </c>
-      <c r="C311">
+      <c r="C311" t="n">
         <v>0.06353643814727745</v>
       </c>
-      <c r="D311">
+      <c r="D311" t="n">
         <v>364707224093.0173</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
-      <c r="A312" s="2">
+    <row r="312">
+      <c r="A312" s="2" t="n">
         <v>44531</v>
       </c>
-      <c r="B312">
+      <c r="B312" t="n">
         <v>5822649000000</v>
       </c>
-      <c r="C312">
+      <c r="C312" t="n">
         <v>0.06385696040868455</v>
       </c>
-      <c r="D312">
+      <c r="D312" t="n">
         <v>371816666666.6667</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
-      <c r="A313" s="2">
+    <row r="313">
+      <c r="A313" s="2" t="n">
         <v>44562</v>
       </c>
-      <c r="B313">
+      <c r="B313" t="n">
         <v>5876621000000</v>
       </c>
-      <c r="C313">
+      <c r="C313" t="n">
         <v>0.06385696040868455</v>
       </c>
-      <c r="D313">
+      <c r="D313" t="n">
         <v>375263154533.8442</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
-      <c r="A314" s="2">
+    <row r="314">
+      <c r="A314" s="2" t="n">
         <v>44593</v>
       </c>
-      <c r="B314">
+      <c r="B314" t="n">
         <v>5948841000000</v>
       </c>
-      <c r="C314">
+      <c r="C314" t="n">
         <v>0.06385696040868455</v>
       </c>
-      <c r="D314">
+      <c r="D314" t="n">
         <v>379874904214.5594</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
-      <c r="A315" s="2">
+    <row r="315">
+      <c r="A315" s="2" t="n">
         <v>44621</v>
       </c>
-      <c r="B315">
+      <c r="B315" t="n">
         <v>6280452000000</v>
       </c>
-      <c r="C315">
+      <c r="C315" t="n">
         <v>0.05485463521667581</v>
       </c>
-      <c r="D315">
+      <c r="D315" t="n">
         <v>344511903455.842</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
-      <c r="A316" s="2">
+    <row r="316">
+      <c r="A316" s="2" t="n">
         <v>44652</v>
       </c>
-      <c r="B316">
+      <c r="B316" t="n">
         <v>6416251000000</v>
       </c>
-      <c r="C316">
+      <c r="C316" t="n">
         <v>0.05431830526887561</v>
       </c>
-      <c r="D316">
+      <c r="D316" t="n">
         <v>348519880499.7284</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
-      <c r="A317" s="2">
+    <row r="317">
+      <c r="A317" s="2" t="n">
         <v>44682</v>
       </c>
-      <c r="B317">
+      <c r="B317" t="n">
         <v>6500587000000</v>
       </c>
-      <c r="C317">
+      <c r="C317" t="n">
         <v>0.05382131324004306</v>
       </c>
-      <c r="D317">
+      <c r="D317" t="n">
         <v>349870129171.1518</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
-      <c r="A318" s="2">
+    <row r="318">
+      <c r="A318" s="2" t="n">
         <v>44713</v>
       </c>
-      <c r="B318">
+      <c r="B318" t="n">
         <v>6614488000000</v>
       </c>
-      <c r="C318">
+      <c r="C318" t="n">
         <v>0.05330490405117271</v>
       </c>
-      <c r="D318">
+      <c r="D318" t="n">
         <v>352584648187.6332</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
-      <c r="A319" s="2">
+    <row r="319">
+      <c r="A319" s="2" t="n">
         <v>44743</v>
       </c>
-      <c r="B319">
+      <c r="B319" t="n">
         <v>6708871000000</v>
       </c>
-      <c r="C319">
+      <c r="C319" t="n">
         <v>0.05299417064122946</v>
       </c>
-      <c r="D319">
+      <c r="D319" t="n">
         <v>355531054583.9957</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
-      <c r="A320" s="2">
+    <row r="320">
+      <c r="A320" s="2" t="n">
         <v>44774</v>
       </c>
-      <c r="B320">
+      <c r="B320" t="n">
         <v>6808405000000</v>
       </c>
-      <c r="C320">
+      <c r="C320" t="n">
         <v>0.05205622071837585</v>
       </c>
-      <c r="D320">
+      <c r="D320" t="n">
         <v>354419833420.0937</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
-      <c r="A321" s="2">
+    <row r="321">
+      <c r="A321" s="2" t="n">
         <v>44805</v>
       </c>
-      <c r="B321">
+      <c r="B321" t="n">
         <v>6949656000000</v>
       </c>
-      <c r="C321">
+      <c r="C321" t="n">
         <v>0.05130836326321191</v>
       </c>
-      <c r="D321">
+      <c r="D321" t="n">
         <v>356575474602.3602</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
-      <c r="A322" s="2">
+    <row r="322">
+      <c r="A322" s="2" t="n">
         <v>44835</v>
       </c>
-      <c r="B322">
+      <c r="B322" t="n">
         <v>7181661000000</v>
       </c>
-      <c r="C322">
+      <c r="C322" t="n">
         <v>0.04140786749482402</v>
       </c>
-      <c r="D322">
+      <c r="D322" t="n">
         <v>297377267080.7454</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
-      <c r="A323" s="2">
+    <row r="323">
+      <c r="A323" s="2" t="n">
         <v>44866</v>
       </c>
-      <c r="B323">
+      <c r="B323" t="n">
         <v>7317012000000</v>
       </c>
-      <c r="C323">
+      <c r="C323" t="n">
         <v>0.04081632653061224</v>
       </c>
-      <c r="D323">
+      <c r="D323" t="n">
         <v>298653551020.4081</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
-      <c r="A324" s="2">
+    <row r="324">
+      <c r="A324" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="B324">
+      <c r="B324" t="n">
         <v>7402740000000</v>
       </c>
-      <c r="C324">
+      <c r="C324" t="n">
         <v>0.04050222762251924</v>
       </c>
-      <c r="D324">
+      <c r="D324" t="n">
         <v>299827460510.3281</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
-      <c r="A325" s="2">
+    <row r="325">
+      <c r="A325" s="2" t="n">
         <v>44927</v>
       </c>
-      <c r="B325">
+      <c r="B325" t="n">
         <v>7710432000000</v>
       </c>
-      <c r="C325">
+      <c r="C325" t="n">
         <v>0.03318951211417192</v>
       </c>
-      <c r="D325">
+      <c r="D325" t="n">
         <v>255905476269.4988</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
-      <c r="A326" s="2">
+    <row r="326">
+      <c r="A326" s="2" t="n">
         <v>44958</v>
       </c>
-      <c r="B326">
+      <c r="B326" t="n">
         <v>7822810000000</v>
       </c>
-      <c r="C326">
+      <c r="C326" t="n">
         <v>0.03270111183780249</v>
       </c>
-      <c r="D326">
+      <c r="D326" t="n">
         <v>255814584695.8797</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
-      <c r="A327" s="2">
+    <row r="327">
+      <c r="A327" s="2" t="n">
         <v>44986</v>
       </c>
-      <c r="B327">
+      <c r="B327" t="n">
         <v>7965913000000</v>
       </c>
-      <c r="C327">
+      <c r="C327" t="n">
         <v>0.03252032520325204</v>
       </c>
-      <c r="D327">
+      <c r="D327" t="n">
         <v>259054081300.813</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
-      <c r="A328" s="2">
+    <row r="328">
+      <c r="A328" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="B328">
+      <c r="B328" t="n">
         <v>8069151000000</v>
       </c>
-      <c r="C328">
+      <c r="C328" t="n">
         <v>0.03241491085899514</v>
       </c>
-      <c r="D328">
+      <c r="D328" t="n">
         <v>261560810372.7715</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
-      <c r="A329" s="2">
+    <row r="329">
+      <c r="A329" s="2" t="n">
         <v>45047</v>
       </c>
-      <c r="B329">
+      <c r="B329" t="n">
         <v>8140532000000</v>
       </c>
-      <c r="C329">
+      <c r="C329" t="n">
         <v>0.03241491085899514</v>
       </c>
-      <c r="D329">
+      <c r="D329" t="n">
         <v>263874619124.7974</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
-      <c r="A330" s="2">
+    <row r="330">
+      <c r="A330" s="2" t="n">
         <v>45078</v>
       </c>
-      <c r="B330">
+      <c r="B330" t="n">
         <v>8248190000000</v>
       </c>
-      <c r="C330">
+      <c r="C330" t="n">
         <v>0.03241491085899514</v>
       </c>
-      <c r="D330">
+      <c r="D330" t="n">
         <v>267364343598.0551</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
-      <c r="A331" s="2">
+    <row r="331">
+      <c r="A331" s="2" t="n">
         <v>45108</v>
       </c>
-      <c r="B331">
+      <c r="B331" t="n">
         <v>8343414000000</v>
       </c>
-      <c r="C331">
+      <c r="C331" t="n">
         <v>0.03241491085899514</v>
       </c>
-      <c r="D331">
+      <c r="D331" t="n">
         <v>270451021069.692</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
-      <c r="A332" s="2">
+    <row r="332">
+      <c r="A332" s="2" t="n">
         <v>45139</v>
       </c>
-      <c r="B332">
+      <c r="B332" t="n">
         <v>8467486000000</v>
       </c>
-      <c r="C332">
+      <c r="C332" t="n">
         <v>0.03241491085899514</v>
       </c>
-      <c r="D332">
+      <c r="D332" t="n">
         <v>274472803889.7893</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
-      <c r="A333" s="2">
+    <row r="333">
+      <c r="A333" s="2" t="n">
         <v>45170</v>
       </c>
-      <c r="B333">
+      <c r="B333" t="n">
         <v>8551079000000</v>
       </c>
-      <c r="C333">
+      <c r="C333" t="n">
         <v>0.03241491085899514</v>
       </c>
-      <c r="D333">
+      <c r="D333" t="n">
         <v>277182463533.2253</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
-      <c r="A334" s="2">
+    <row r="334">
+      <c r="A334" s="2" t="n">
         <v>45200</v>
       </c>
-      <c r="B334">
+      <c r="B334" t="n">
         <v>8682319000000</v>
       </c>
-      <c r="C334">
+      <c r="C334" t="n">
         <v>0.03236245954692557</v>
       </c>
-      <c r="D334">
+      <c r="D334" t="n">
         <v>280981197411.0033</v>
       </c>
     </row>
+    <row r="335">
+      <c r="A335" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B335" t="n">
+        <v>8787150000000</v>
+      </c>
+      <c r="C335" t="n">
+        <v>0.03241491085899514</v>
+      </c>
+      <c r="D335" t="n">
+        <v>284834683954.6191</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Global_M2/TVDataFeed/FinalData/Egypt.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Egypt.xlsx
@@ -1,40 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Egypt_M2 (EGP)</t>
+  </si>
+  <si>
+    <t>Egypt_FX (USD)</t>
+  </si>
+  <si>
+    <t>Egypt_M2 (USD)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +66,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,4625 +385,4583 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D335"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D336"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Egypt_M2 (EGP)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Egypt_FX (USD)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Egypt_M2 (USD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
         <v>35096</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>161125000000</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
         <v>35125</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>161779000000</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
         <v>35156</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>163274000000</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>35186</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>165611000000</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>35217</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>168028000000</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>35247</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>169865000000</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>35278</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>172071000000</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>35309</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>172935000000</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>35339</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>175562000000</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>35370</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>177061000000</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
         <v>35400</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>179156000000</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
         <v>35431</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>180602000000</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
         <v>35462</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>181825000000</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
         <v>35490</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>183044000000</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>35521</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>186512000000</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
         <v>35551</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>190627000000</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2">
         <v>35582</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>193903000000</v>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2">
         <v>35612</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>196435000000</v>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
         <v>35643</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>198455000000</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.2950026550238952</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>58544751902.76713</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
         <v>35674</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>197891000000</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.2954209748892171</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>58461152141.80207</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
         <v>35704</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>200037000000</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.2942388042134997</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>58858647678.45583</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
         <v>35735</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>201499000000</v>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
         <v>35765</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>202336000000</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.2940744008234083</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>59501837965.00514</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
         <v>35796</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>203371000000</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.293728888236158</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>59735937729.47569</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:4">
+      <c r="A26" s="2">
         <v>35827</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>203143000000</v>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2">
         <v>35855</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>202840000000</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>0.2936598831233665</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>59565970692.74366</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:4">
+      <c r="A28" s="2">
         <v>35886</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>203700000000</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>0.2938583602703497</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>59858947987.07023</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:4">
+      <c r="A29" s="2">
         <v>35916</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>207523000000</v>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2">
         <v>35947</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>210487000000</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0.2928086202857812</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>61632408058.09322</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:4">
+      <c r="A31" s="2">
         <v>35977</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>211559000000</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0.2938756318326085</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>62172034794.87481</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:4">
+      <c r="A32" s="2">
         <v>36008</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>214473000000</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.2935564362248642</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>62959929546.4553</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:4">
+      <c r="A33" s="2">
         <v>36039</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>216579000000</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.2930231195241305</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>63462654203.41665</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:4">
+      <c r="A34" s="2">
         <v>36069</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>218506000000</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.2931175987806308</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>64047954039.16051</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:4">
+      <c r="A35" s="2">
         <v>36100</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>219602000000</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.2929029612489382</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>64322076096.18933</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:4">
+      <c r="A36" s="2">
         <v>36130</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>221608000000</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.2925858739540055</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>64839370355.19925</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:4">
+      <c r="A37" s="2">
         <v>36161</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>222545000000</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.2926629400918961</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>65130674002.75103</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:4">
+      <c r="A38" s="2">
         <v>36192</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>224550000000</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.299060948621329</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>67154136012.91943</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:4">
+      <c r="A39" s="2">
         <v>36220</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>227515000000</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.2995805871779509</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>68159077291.7915</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:4">
+      <c r="A40" s="2">
         <v>36251</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>227862000000</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.2932809338064932</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>66827580139.01516</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:4">
+      <c r="A41" s="2">
         <v>36281</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>230413000000</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.2947244326554672</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>67908340701.44415</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:4">
+      <c r="A42" s="2">
         <v>36312</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>234569000000</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.2947331191606001</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>69135253028.3828</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:4">
+      <c r="A43" s="2">
         <v>36342</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>236005000000</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.2947244326554672</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>69556439728.85353</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:4">
+      <c r="A44" s="2">
         <v>36373</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>237548000000</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.2945681630729351</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>69974078001.64958</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:4">
+      <c r="A45" s="2">
         <v>36404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>238981000000</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.2944380649530371</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>70365103200.54176</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:4">
+      <c r="A46" s="2">
         <v>36434</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>240913000000</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.2932551319648093</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>70648973607.03812</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:4">
+      <c r="A47" s="2">
         <v>36465</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>242485000000</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.2944293958308798</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>71394712048.05089</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:4">
+      <c r="A48" s="2">
         <v>36495</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>244097000000</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.2905540866432286</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>70923380887.35217</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:4">
+      <c r="A49" s="2">
         <v>36526</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>243917000000</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.293703007518797</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>71639156484.96242</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:4">
+      <c r="A50" s="2">
         <v>36557</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>244844000000</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>0.293513354857646</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>71864983856.76549</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:4">
+      <c r="A51" s="2">
         <v>36586</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>247477000000</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>0.289452356142179</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>71632800740.99803</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:4">
+      <c r="A52" s="2">
         <v>36617</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>247904000000</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>0.2934272300469484</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>72741784037.55869</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:4">
+      <c r="A53" s="2">
         <v>36647</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>250176000000</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>0.2918004085205719</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>73001459002.0426</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:4">
+      <c r="A54" s="2">
         <v>36678</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>255276000000</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>0.2894356005788712</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>73885962373.37192</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:4">
+      <c r="A55" s="2">
         <v>36708</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>257583000000</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>0.2879355024474518</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>74167290526.92198</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:4">
+      <c r="A56" s="2">
         <v>36739</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>260139000000</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>0.2859593937660852</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>74389190734.91563</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:4">
+      <c r="A57" s="2">
         <v>36770</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>262164000000</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>0.2822466836014677</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>73994919559.69516</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:4">
+      <c r="A58" s="2">
         <v>36800</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>266113000000</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>0.2689979825151311</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>71583860121.04909</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:4">
+      <c r="A59" s="2">
         <v>36831</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>268062000000</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>0.2658655252173451</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>71268444420.81195</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:4">
+      <c r="A60" s="2">
         <v>36861</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>270942000000</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>0.2583979328165374</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>70010852713.17828</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:4">
+      <c r="A61" s="2">
         <v>36892</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>271625000000</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>0.2597402597402597</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>70551948051.94804</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:4">
+      <c r="A62" s="2">
         <v>36923</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>273886000000</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>0.2588996763754046</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>70908996763.75406</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:4">
+      <c r="A63" s="2">
         <v>36951</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>274183000000</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>0.2607561929595828</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>71494915254.23729</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:4">
+      <c r="A64" s="2">
         <v>36982</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>275560000000</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>0.2585114908357676</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>71235426414.70413</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:4">
+      <c r="A65" s="2">
         <v>37012</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>280081000000</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>0.2585649644473174</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>72419133807.36909</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:4">
+      <c r="A66" s="2">
         <v>37043</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>284879000000</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>0.2578648788035069</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>73460288808.66426</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:4">
+      <c r="A67" s="2">
         <v>37073</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>287528000000</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>0.2545500827287769</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>73190276186.83975</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:4">
+      <c r="A68" s="2">
         <v>37104</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>293399000000</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>0.2357211889776772</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>69160361124.86151</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:4">
+      <c r="A69" s="2">
         <v>37135</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>297226000000</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>0.2357211889776772</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>70062466115.07909</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:4">
+      <c r="A70" s="2">
         <v>37165</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>298164000000</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>0.2356823002592505</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>70271977374.49918</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:4">
+      <c r="A71" s="2">
         <v>37196</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>299249000000</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>0.2356545304583481</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>70519382585.1302</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:4">
+      <c r="A72" s="2">
         <v>37226</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>306910000000</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>0.2206531332744925</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>67720653133.27449</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:4">
+      <c r="A73" s="2">
         <v>37257</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>309184000000</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>0.2166847237269773</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>66995449620.80173</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:4">
+      <c r="A74" s="2">
         <v>37288</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>312174000000</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>0.2172732210755025</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>67827050516.0239</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:4">
+      <c r="A75" s="2">
         <v>37316</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>313858000000</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>0.2164502164502164</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>67934632034.63203</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:4">
+      <c r="A76" s="2">
         <v>37347</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>316078000000</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>0.2154708037060978</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>68105580693.81599</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:4">
+      <c r="A77" s="2">
         <v>37377</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>321885000000</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>0.2188183807439825</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>70434354485.77681</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:4">
+      <c r="A78" s="2">
         <v>37408</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>328728000000</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>0.2169197396963123</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>71307592190.88936</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:4">
+      <c r="A79" s="2">
         <v>37438</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>329767000000</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>0.2152852529601723</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>70993972012.91713</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:4">
+      <c r="A80" s="2">
         <v>37469</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>334220000000</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>0.2183406113537118</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>72973799126.63756</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:4">
+      <c r="A81" s="2">
         <v>37500</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>338156000000</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>0.2173865785526402</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>73510575857.04659</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:4">
+      <c r="A82" s="2">
         <v>37530</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>339355000000</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>0.2164502164502164</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>73453463203.4632</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:4">
+      <c r="A83" s="2">
         <v>37561</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>340959000000</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>0.2164502164502164</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>73800649350.64935</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:4">
+      <c r="A84" s="2">
         <v>37591</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>342503000000</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>0.2177700348432056</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>74586890243.90245</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:4">
+      <c r="A85" s="2">
         <v>37622</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>358572000000</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>0.1876172607879925</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>67274296435.27204</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    <row r="86" spans="1:4">
+      <c r="A86" s="2">
         <v>37653</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>363325000000</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>0.1798561151079137</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>65346223021.58274</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    <row r="87" spans="1:4">
+      <c r="A87" s="2">
         <v>37681</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>366561000000</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>0.1739130434782609</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>63749739130.43478</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    <row r="88" spans="1:4">
+      <c r="A88" s="2">
         <v>37712</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>369850000000</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>0.1684919966301601</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>62316764953.6647</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:4">
+      <c r="A89" s="2">
         <v>37742</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>377449000000</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>0.1673640167364017</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>63171380753.13808</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    <row r="90" spans="1:4">
+      <c r="A90" s="2">
         <v>37773</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>384262000000</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>0.1663893510815308</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>63937104825.29119</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    <row r="91" spans="1:4">
+      <c r="A91" s="2">
         <v>37803</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>390672000000</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>0.1624695369618196</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>63472298943.94801</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    <row r="92" spans="1:4">
+      <c r="A92" s="2">
         <v>37834</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>396339000000</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>0.1626016260162602</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>64445365853.65854</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    <row r="93" spans="1:4">
+      <c r="A93" s="2">
         <v>37865</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>401009000000</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>0.163025758069775</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>65374796217.80241</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    <row r="94" spans="1:4">
+      <c r="A94" s="2">
         <v>37895</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>403668000000</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>0.1633986928104575</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>65958823529.41177</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    <row r="95" spans="1:4">
+      <c r="A95" s="2">
         <v>37926</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>408040000000</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>0.1622691721026839</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>66212312984.77915</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    <row r="96" spans="1:4">
+      <c r="A96" s="2">
         <v>37956</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>410807000000</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>0.1627339300244101</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>66852237591.53784</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    <row r="97" spans="1:4">
+      <c r="A97" s="2">
         <v>37987</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>416327000000</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>0.16220600162206</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>67530738037.30737</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    <row r="98" spans="1:4">
+      <c r="A98" s="2">
         <v>38018</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>418961000000</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>0.1615639389288311</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>67688989417.562</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    <row r="99" spans="1:4">
+      <c r="A99" s="2">
         <v>38047</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>420091000000</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>0.1615508885298869</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>67866074313.40872</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    <row r="100" spans="1:4">
+      <c r="A100" s="2">
         <v>38078</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>422901000000</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>0.1613527817219569</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>68236252742.99729</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    <row r="101" spans="1:4">
+      <c r="A101" s="2">
         <v>38108</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>432268000000</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>0.1614205004035512</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>69776916868.44229</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    <row r="102" spans="1:4">
+      <c r="A102" s="2">
         <v>38139</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>434911000000</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>0.1616814874696847</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>70317057396.92805</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    <row r="103" spans="1:4">
+      <c r="A103" s="2">
         <v>38169</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>441277000000</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>0.1611214049786514</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>71099170224.76436</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    <row r="104" spans="1:4">
+      <c r="A104" s="2">
         <v>38200</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>447171000000</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>0.1605780810919309</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>71805861099.95985</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    <row r="105" spans="1:4">
+      <c r="A105" s="2">
         <v>38231</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>450914000000</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>0.1605136436597111</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>72377849117.17496</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    <row r="106" spans="1:4">
+      <c r="A106" s="2">
         <v>38261</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>458404000000</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>0.1606425702811245</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>73639196787.14859</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    <row r="107" spans="1:4">
+      <c r="A107" s="2">
         <v>38292</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>464369000000</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>0.1610305958132045</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>74777616747.18196</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    <row r="108" spans="1:4">
+      <c r="A108" s="2">
         <v>38322</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>468261000000</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>0.164406083025072</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>76984956843.40321</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    <row r="109" spans="1:4">
+      <c r="A109" s="2">
         <v>38353</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>469567000000</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>0.1715265866209262</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>80543224699.82848</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    <row r="110" spans="1:4">
+      <c r="A110" s="2">
         <v>38384</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>474100000000</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>0.1719690455717971</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>81530524505.58899</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    <row r="111" spans="1:4">
+      <c r="A111" s="2">
         <v>38412</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>479063000000</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>0.1725625539257981</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>82668334771.35461</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    <row r="112" spans="1:4">
+      <c r="A112" s="2">
         <v>38443</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>484156000000</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>0.172488141440276</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>83511168607.15825</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    <row r="113" spans="1:4">
+      <c r="A113" s="2">
         <v>38473</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>490130000000</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>0.1727115716753022</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>84651122625.21588</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    <row r="114" spans="1:4">
+      <c r="A114" s="2">
         <v>38504</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>493884000000</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>0.1727861771058316</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>85336328293.73651</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    <row r="115" spans="1:4">
+      <c r="A115" s="2">
         <v>38534</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>505899000000</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>0.1733102253032929</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>87677469670.71057</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    <row r="116" spans="1:4">
+      <c r="A116" s="2">
         <v>38565</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>512730000000</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>0.1733763306633378</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>88895246021.0132</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    <row r="117" spans="1:4">
+      <c r="A117" s="2">
         <v>38596</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>514822000000</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>0.1737619461337967</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>89456472632.49348</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    <row r="118" spans="1:4">
+      <c r="A118" s="2">
         <v>38626</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>516716000000</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>0.1738676866904286</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>89840215595.93149</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    <row r="119" spans="1:4">
+      <c r="A119" s="2">
         <v>38657</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>518905000000</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>0.1736653815428433</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>90115834809.48907</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    <row r="120" spans="1:4">
+      <c r="A120" s="2">
         <v>38687</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>522296000000</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>0.1744044089434581</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>91090725173.53239</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    <row r="121" spans="1:4">
+      <c r="A121" s="2">
         <v>38718</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>528828000000</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>0.1746175874834113</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>92342669553.67744</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    <row r="122" spans="1:4">
+      <c r="A122" s="2">
         <v>38749</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>534409000000</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>0.1745566261695294</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>93284632034.63205</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+    <row r="123" spans="1:4">
+      <c r="A123" s="2">
         <v>38777</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>534663000000</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>0.1744439598778892</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>93268730920.19189</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+    <row r="124" spans="1:4">
+      <c r="A124" s="2">
         <v>38808</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>545907000000</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>0.1739432944859976</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>94956862062.96748</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+    <row r="125" spans="1:4">
+      <c r="A125" s="2">
         <v>38838</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>551179000000</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>0.1733102253032929</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>95524956672.44368</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+    <row r="126" spans="1:4">
+      <c r="A126" s="2">
         <v>38869</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>560356000000</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>0.1739130434782609</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>97453217391.30435</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+    <row r="127" spans="1:4">
+      <c r="A127" s="2">
         <v>38899</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>567104000000</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>0.1739886907351022</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>98669682470.63942</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+    <row r="128" spans="1:4">
+      <c r="A128" s="2">
         <v>38930</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>574499000000</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>0.1741796140179753</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>100066014073.7128</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+    <row r="129" spans="1:4">
+      <c r="A129" s="2">
         <v>38961</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>582226000000</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>0.1743800788197956</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>101528615770.9343</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+    <row r="130" spans="1:4">
+      <c r="A130" s="2">
         <v>38991</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>588952000000</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>0.174544439014173</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>102798296446.2752</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+    <row r="131" spans="1:4">
+      <c r="A131" s="2">
         <v>39022</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>587340000000</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>0.1749934377460845</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>102780645725.7853</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+    <row r="132" spans="1:4">
+      <c r="A132" s="2">
         <v>39052</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>601309000000</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>0.1750945510575711</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>105285929401.877</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
+    <row r="133" spans="1:4">
+      <c r="A133" s="2">
         <v>39083</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>596701000000</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>0.1756851721714687</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>104831517919.8876</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    <row r="134" spans="1:4">
+      <c r="A134" s="2">
         <v>39114</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>604683000000</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>0.1757469244288225</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>106271177504.3937</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+    <row r="135" spans="1:4">
+      <c r="A135" s="2">
         <v>39142</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>610452000000</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>0.1757098678661794</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>107262440258.6449</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+    <row r="136" spans="1:4">
+      <c r="A136" s="2">
         <v>39173</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>619179000000</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>0.176056338028169</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>109010387323.9437</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+    <row r="137" spans="1:4">
+      <c r="A137" s="2">
         <v>39203</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>650023000000</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>0.1759479194158529</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>114370194422.4509</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+    <row r="138" spans="1:4">
+      <c r="A138" s="2">
         <v>39234</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>662688000000</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>0.1758705592683785</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>116547309180.4432</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
+    <row r="139" spans="1:4">
+      <c r="A139" s="2">
         <v>39264</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>671041000000</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>0.1769535673839185</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>118743098810.872</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
+    <row r="140" spans="1:4">
+      <c r="A140" s="2">
         <v>39295</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>676909000000</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>0.1772578215013738</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>119987414694.6734</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
+    <row r="141" spans="1:4">
+      <c r="A141" s="2">
         <v>39326</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>681900000000</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>0.1792114695340502</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>122204301075.2688</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
+    <row r="142" spans="1:4">
+      <c r="A142" s="2">
         <v>39356</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>689933000000</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>0.1817025529208685</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>125362587444.3536</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
+    <row r="143" spans="1:4">
+      <c r="A143" s="2">
         <v>39387</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>704631000000</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>0.1808318264014467</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>127419710669.0778</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
+    <row r="144" spans="1:4">
+      <c r="A144" s="2">
         <v>39417</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>716275000000</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>0.1815541031227306</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>130042665214.2338</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
+    <row r="145" spans="1:4">
+      <c r="A145" s="2">
         <v>39448</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>724715000000</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>0.1802613789995493</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>130638125281.6584</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
+    <row r="146" spans="1:4">
+      <c r="A146" s="2">
         <v>39479</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>738454000000</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>0.1826150474799123</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>134852812271.7312</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
+    <row r="147" spans="1:4">
+      <c r="A147" s="2">
         <v>39508</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>756553000000</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>0.1837120864181655</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>138987930115.9223</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="2" t="n">
+    <row r="148" spans="1:4">
+      <c r="A148" s="2">
         <v>39539</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>760927000000</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>0.186219739292365</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>141699627560.5214</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="2" t="n">
+    <row r="149" spans="1:4">
+      <c r="A149" s="2">
         <v>39569</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>762182000000</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>0.1873466099630927</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>142792213874.8899</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
+    <row r="150" spans="1:4">
+      <c r="A150" s="2">
         <v>39600</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>766664000000</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>0.1878710453144961</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>144033967084.9929</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
+    <row r="151" spans="1:4">
+      <c r="A151" s="2">
         <v>39630</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>775261000000</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>0.188821752265861</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>146386140483.3837</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
+    <row r="152" spans="1:4">
+      <c r="A152" s="2">
         <v>39661</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>781199000000</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>0.1865497621490532</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>145732487641.0782</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
+    <row r="153" spans="1:4">
+      <c r="A153" s="2">
         <v>39692</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>777871000000</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>0.1839249586168843</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>143069891484.2744</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
+    <row r="154" spans="1:4">
+      <c r="A154" s="2">
         <v>39722</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>780543000000</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>0.1795332136445242</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>140133393177.7379</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
+    <row r="155" spans="1:4">
+      <c r="A155" s="2">
         <v>39753</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>784801000000</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>0.1813236627379873</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>142302991840.4352</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
+    <row r="156" spans="1:4">
+      <c r="A156" s="2">
         <v>39783</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>791378000000</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>0.1821991436640248</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>144188393914.5486</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
+    <row r="157" spans="1:4">
+      <c r="A157" s="2">
         <v>39814</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>793354000000</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>0.1798076058617279</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>142651083340.8253</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
+    <row r="158" spans="1:4">
+      <c r="A158" s="2">
         <v>39845</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>799754000000</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>0.1791633073546538</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>143286571710.1138</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
+    <row r="159" spans="1:4">
+      <c r="A159" s="2">
         <v>39873</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>808603000000</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>0.1778410101369376</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>143802774319.7581</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
+    <row r="160" spans="1:4">
+      <c r="A160" s="2">
         <v>39904</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>812410000000</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>0.1775252973548731</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>144223326824.0724</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
+    <row r="161" spans="1:4">
+      <c r="A161" s="2">
         <v>39934</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>826847000000</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>0.1779359430604982</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>147125800711.7438</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
+    <row r="162" spans="1:4">
+      <c r="A162" s="2">
         <v>39965</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>831211000000</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>0.1787629603146228</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>148589739006.0779</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
+    <row r="163" spans="1:4">
+      <c r="A163" s="2">
         <v>39995</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>835457000000</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>0.1802613789995493</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>150600630914.8265</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
+    <row r="164" spans="1:4">
+      <c r="A164" s="2">
         <v>40026</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>836503000000</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>0.1809627216793341</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>151375859572.928</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
+    <row r="165" spans="1:4">
+      <c r="A165" s="2">
         <v>40057</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>847808000000</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>0.1817520901490367</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>154090876045.0745</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
+    <row r="166" spans="1:4">
+      <c r="A166" s="2">
         <v>40087</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>847757000000</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>0.1827819411442149</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>154954670078.5962</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
+    <row r="167" spans="1:4">
+      <c r="A167" s="2">
         <v>40118</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>854057000000</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>0.1825817053131276</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>155935183494.6138</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
+    <row r="168" spans="1:4">
+      <c r="A168" s="2">
         <v>40148</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>866354000000</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>0.1823320266204759</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>157964080590.7558</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
+    <row r="169" spans="1:4">
+      <c r="A169" s="2">
         <v>40179</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>867734000000</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>0.183368478958467</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>159115063720.5464</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
+    <row r="170" spans="1:4">
+      <c r="A170" s="2">
         <v>40210</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>875586000000</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>0.1821493624772313</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>159487431693.9891</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
+    <row r="171" spans="1:4">
+      <c r="A171" s="2">
         <v>40238</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>888176000000</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>0.1817025529208685</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>161383846643.0453</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
+    <row r="172" spans="1:4">
+      <c r="A172" s="2">
         <v>40269</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>890376000000</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>0.1799208348326736</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>160197193234.9766</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
+    <row r="173" spans="1:4">
+      <c r="A173" s="2">
         <v>40299</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>896033000000</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>0.1767096660187312</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>158337692171.7618</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
+    <row r="174" spans="1:4">
+      <c r="A174" s="2">
         <v>40330</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>917459000000</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>0.1755926251097454</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>161099034240.5619</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="2" t="n">
+    <row r="175" spans="1:4">
+      <c r="A175" s="2">
         <v>40360</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>922637000000</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>0.1754385964912281</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>161866140350.8772</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="2" t="n">
+    <row r="176" spans="1:4">
+      <c r="A176" s="2">
         <v>40391</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>935234000000</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>0.1752694768206117</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>163917973884.848</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="2" t="n">
+    <row r="177" spans="1:4">
+      <c r="A177" s="2">
         <v>40422</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>948172000000</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>0.1756543123133673</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>166550500614.7901</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="2" t="n">
+    <row r="178" spans="1:4">
+      <c r="A178" s="2">
         <v>40452</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>961244000000</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>0.1732051615138131</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>166492422274.1837</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="2" t="n">
+    <row r="179" spans="1:4">
+      <c r="A179" s="2">
         <v>40483</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>963255000000</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>0.1727414061150458</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>166394023147.3484</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
+    <row r="180" spans="1:4">
+      <c r="A180" s="2">
         <v>40513</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>973962000000</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>0.1722949689869056</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>167808752584.4245</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
+    <row r="181" spans="1:4">
+      <c r="A181" s="2">
         <v>40544</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>969712000000</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>0.1707941929974381</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>165621178479.9317</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
+    <row r="182" spans="1:4">
+      <c r="A182" s="2">
         <v>40575</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>982547000000</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>0.1698225354504543</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>166858622739.2375</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
+    <row r="183" spans="1:4">
+      <c r="A183" s="2">
         <v>40603</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>988076000000</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>0.167897918065816</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>165895903290.7992</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
+    <row r="184" spans="1:4">
+      <c r="A184" s="2">
         <v>40634</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>986792000000</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>0.1682085786375105</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>165986879730.8663</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
+    <row r="185" spans="1:4">
+      <c r="A185" s="2">
         <v>40664</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>994431000000</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>0.1679261125104954</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>166990931989.9244</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
+    <row r="186" spans="1:4">
+      <c r="A186" s="2">
         <v>40695</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>1009411000000</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>0.1675603217158177</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>169137231903.4853</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="2" t="n">
+    <row r="187" spans="1:4">
+      <c r="A187" s="2">
         <v>40725</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>1018926000000</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>0.1678697330871244</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>171046835655.5313</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="2" t="n">
+    <row r="188" spans="1:4">
+      <c r="A188" s="2">
         <v>40756</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>1024359000000</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>0.1680248676804167</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>172117785432.244</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
+    <row r="189" spans="1:4">
+      <c r="A189" s="2">
         <v>40787</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>1024430000000</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>0.1676727028839705</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>171768947015.4259</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="2" t="n">
+    <row r="190" spans="1:4">
+      <c r="A190" s="2">
         <v>40817</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>1030934000000</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>0.1676164934629568</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>172801542071.7399</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="2" t="n">
+    <row r="191" spans="1:4">
+      <c r="A191" s="2">
         <v>40848</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>1031696000000</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>0.1669170422300117</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>172207644800.5341</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="2" t="n">
+    <row r="192" spans="1:4">
+      <c r="A192" s="2">
         <v>40878</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>1038871000000</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>0.1658649859014762</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>172312323768.4525</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="2" t="n">
+    <row r="193" spans="1:4">
+      <c r="A193" s="2">
         <v>40909</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>1043877000000</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>0.1659475605708596</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>173228841686.0272</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="2" t="n">
+    <row r="194" spans="1:4">
+      <c r="A194" s="2">
         <v>40940</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>1050128000000</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>0.1658649859014762</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>174179465914.7454</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="2" t="n">
+    <row r="195" spans="1:4">
+      <c r="A195" s="2">
         <v>40969</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>1054996000000</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>0.1656177542232527</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>174726068234.5147</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="2" t="n">
+    <row r="196" spans="1:4">
+      <c r="A196" s="2">
         <v>41000</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>1058770000000</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>0.16604400166044</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>175802407638.0241</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="2" t="n">
+    <row r="197" spans="1:4">
+      <c r="A197" s="2">
         <v>41030</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>1067581000000</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>0.1659585767392459</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>177174223313.8609</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="2" t="n">
+    <row r="198" spans="1:4">
+      <c r="A198" s="2">
         <v>41061</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>1094408000000</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>0.1650328415354655</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>180613262039.1458</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="2" t="n">
+    <row r="199" spans="1:4">
+      <c r="A199" s="2">
         <v>41091</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>1101874000000</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>0.1645900883848775</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>181357539048.9985</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="2" t="n">
+    <row r="200" spans="1:4">
+      <c r="A200" s="2">
         <v>41122</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>1115267000000</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>0.1643034355848381</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>183242199694.3956</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="2" t="n">
+    <row r="201" spans="1:4">
+      <c r="A201" s="2">
         <v>41153</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>1124332000000</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>0.164009709374795</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>184401364560.782</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="2" t="n">
+    <row r="202" spans="1:4">
+      <c r="A202" s="2">
         <v>41183</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>1144653000000</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>0.1636446946389998</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>187316390652.6151</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="2" t="n">
+    <row r="203" spans="1:4">
+      <c r="A203" s="2">
         <v>41214</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>1147497000000</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>0.1640446857724044</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>188240784789.7767</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
+    <row r="204" spans="1:4">
+      <c r="A204" s="2">
         <v>41244</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>1167160000000</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>0.1571116592562334</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>183374444217.5054</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
+    <row r="205" spans="1:4">
+      <c r="A205" s="2">
         <v>41275</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>1198095000000</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>0.1489203276247208</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>178420699925.5398</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
+    <row r="206" spans="1:4">
+      <c r="A206" s="2">
         <v>41306</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>1211317000000</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>0.1483591478250549</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>179709957866.002</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
+    <row r="207" spans="1:4">
+      <c r="A207" s="2">
         <v>41334</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>1236938000000</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>0.1469982948197801</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>181827776797.7891</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
+    <row r="208" spans="1:4">
+      <c r="A208" s="2">
         <v>41365</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>1252861000000</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>0.1442169022209403</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>180683732333.4295</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="2" t="n">
+    <row r="209" spans="1:4">
+      <c r="A209" s="2">
         <v>41395</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>1268513000000</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>0.1431987742184927</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>181649506680.2228</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="2" t="n">
+    <row r="210" spans="1:4">
+      <c r="A210" s="2">
         <v>41426</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>1296086000000</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>0.1424704373842428</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>184653939307.5937</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="2" t="n">
+    <row r="211" spans="1:4">
+      <c r="A211" s="2">
         <v>41456</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>1316054000000</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>0.1428795953649859</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>188037262998.4712</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
+    <row r="212" spans="1:4">
+      <c r="A212" s="2">
         <v>41487</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>1329492000000</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>0.1431536754706177</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>190321666308.7825</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="2" t="n">
+    <row r="213" spans="1:4">
+      <c r="A213" s="2">
         <v>41518</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>1334967000000</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>0.145106290357687</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>193712109119.9304</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="2" t="n">
+    <row r="214" spans="1:4">
+      <c r="A214" s="2">
         <v>41548</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>1348484000000</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>0.1451947787957545</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>195792836089.6142</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
+    <row r="215" spans="1:4">
+      <c r="A215" s="2">
         <v>41579</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>1360134000000</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>0.1453488372093023</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>197693895348.8372</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
+    <row r="216" spans="1:4">
+      <c r="A216" s="2">
         <v>41609</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>1387688000000</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>0.1439159530833993</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>199710441102.3962</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
+    <row r="217" spans="1:4">
+      <c r="A217" s="2">
         <v>41640</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>1398255000000</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>0.1436472024707319</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>200855419090.7132</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
+    <row r="218" spans="1:4">
+      <c r="A218" s="2">
         <v>41671</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>1417624000000</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>0.1436678399540263</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>203666977946.9866</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="2" t="n">
+    <row r="219" spans="1:4">
+      <c r="A219" s="2">
         <v>41699</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>1438421000000</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>0.1435276218908329</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>206453145407.8337</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="2" t="n">
+    <row r="220" spans="1:4">
+      <c r="A220" s="2">
         <v>41730</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>1459568000000</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>0.1428591837026243</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>208512693038.472</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="2" t="n">
+    <row r="221" spans="1:4">
+      <c r="A221" s="2">
         <v>41760</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>1484420000000</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>0.1398562277978238</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>207605381667.6457</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
+    <row r="222" spans="1:4">
+      <c r="A222" s="2">
         <v>41791</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>1516601000000</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>0.1398601398601398</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>212112027972.028</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
+    <row r="223" spans="1:4">
+      <c r="A223" s="2">
         <v>41821</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>1545031000000</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>0.1398601398601398</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>216088251748.2517</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
+    <row r="224" spans="1:4">
+      <c r="A224" s="2">
         <v>41852</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>1557379000000</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>0.1398601398601398</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>217815244755.2447</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
+    <row r="225" spans="1:4">
+      <c r="A225" s="2">
         <v>41883</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>1543756000000</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>0.1398601398601398</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>215909930069.9301</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="2" t="n">
+    <row r="226" spans="1:4">
+      <c r="A226" s="2">
         <v>41913</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>1560327000000</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>0.1398601398601398</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>218227552447.5524</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="2" t="n">
+    <row r="227" spans="1:4">
+      <c r="A227" s="2">
         <v>41944</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>1572950000000</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>0.1398601398601398</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>219993006993.007</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="2" t="n">
+    <row r="228" spans="1:4">
+      <c r="A228" s="2">
         <v>41974</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>1606505000000</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>0.1398601398601398</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>224686013986.0139</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="2" t="n">
+    <row r="229" spans="1:4">
+      <c r="A229" s="2">
         <v>42005</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>1627547000000</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>0.1317523056653492</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>214433069828.722</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="2" t="n">
+    <row r="230" spans="1:4">
+      <c r="A230" s="2">
         <v>42036</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>1637378000000</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>0.131578947368421</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>215444473684.2105</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="2" t="n">
+    <row r="231" spans="1:4">
+      <c r="A231" s="2">
         <v>42064</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>1682225000000</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>0.1310615989515072</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>220475098296.1992</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="2" t="n">
+    <row r="232" spans="1:4">
+      <c r="A232" s="2">
         <v>42095</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>1700416000000</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>0.1310615989515072</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>222859239842.7261</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="2" t="n">
+    <row r="233" spans="1:4">
+      <c r="A233" s="2">
         <v>42125</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>1720048000000</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>0.1310615989515072</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>225432241153.3421</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="2" t="n">
+    <row r="234" spans="1:4">
+      <c r="A234" s="2">
         <v>42156</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>1765492000000</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>0.1310615989515072</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>231388204456.0944</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="2" t="n">
+    <row r="235" spans="1:4">
+      <c r="A235" s="2">
         <v>42186</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>1799490000000</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>0.1282051282051282</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>230703846153.8462</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
+    <row r="236" spans="1:4">
+      <c r="A236" s="2">
         <v>42217</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>1819118000000</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>0.1277139208173691</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>232326692209.4508</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
+    <row r="237" spans="1:4">
+      <c r="A237" s="2">
         <v>42248</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>1850305000000</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>0.1277139208173691</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>236309706257.9821</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
+    <row r="238" spans="1:4">
+      <c r="A238" s="2">
         <v>42278</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>1868174000000</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>0.12453300124533</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>232649315068.4932</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
+    <row r="239" spans="1:4">
+      <c r="A239" s="2">
         <v>42309</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>1876828000000</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>0.1277139208173691</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>239697062579.8212</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
+    <row r="240" spans="1:4">
+      <c r="A240" s="2">
         <v>42339</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>1905464000000</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>0.1277139208173691</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>243354278416.3474</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="2" t="n">
+    <row r="241" spans="1:4">
+      <c r="A241" s="2">
         <v>42370</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>1909422000000</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>0.1277139208173691</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>243859770114.9425</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="2" t="n">
+    <row r="242" spans="1:4">
+      <c r="A242" s="2">
         <v>42401</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>1922685000000</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>0.1277139208173691</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>245553639846.7433</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="2" t="n">
+    <row r="243" spans="1:4">
+      <c r="A243" s="2">
         <v>42430</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>1987839000000</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>0.1126138807869458</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>223858264169.6416</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="2" t="n">
+    <row r="244" spans="1:4">
+      <c r="A244" s="2">
         <v>42461</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>2006632000000</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>0.1126151489898421</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>225977161647.7849</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="2" t="n">
+    <row r="245" spans="1:4">
+      <c r="A245" s="2">
         <v>42491</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>2044293000000</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>0.1126151489898421</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>230218360773.8913</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="2" t="n">
+    <row r="246" spans="1:4">
+      <c r="A246" s="2">
         <v>42522</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>2094500000000</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>0.1126138807869458</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>235869773308.258</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="2" t="n">
+    <row r="247" spans="1:4">
+      <c r="A247" s="2">
         <v>42552</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>2119715000000</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>0.1126138807869458</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>238709332312.3008</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="2" t="n">
+    <row r="248" spans="1:4">
+      <c r="A248" s="2">
         <v>42583</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>2151648000000</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>0.1128999480660239</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>242920947456.3642</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="2" t="n">
+    <row r="249" spans="1:4">
+      <c r="A249" s="2">
         <v>42614</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>2183148000000</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>0.1129012227202421</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>246480078579.251</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="2" t="n">
+    <row r="250" spans="1:4">
+      <c r="A250" s="2">
         <v>42644</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>2198196000000</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>0.1128884774731043</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>248150999627.468</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="2" t="n">
+    <row r="251" spans="1:4">
+      <c r="A251" s="2">
         <v>42675</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>2601171000000</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>0.05649717514124294</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>146958813559.322</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="2" t="n">
+    <row r="252" spans="1:4">
+      <c r="A252" s="2">
         <v>42705</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>2648595000000</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>0.05555555555555555</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>147144166666.6667</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="2" t="n">
+    <row r="253" spans="1:4">
+      <c r="A253" s="2">
         <v>42736</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>2701634000000</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>0.053475935828877</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>144472406417.1123</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="2" t="n">
+    <row r="254" spans="1:4">
+      <c r="A254" s="2">
         <v>42767</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>2627193000000</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>0.06369426751592357</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>167337133757.9618</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="2" t="n">
+    <row r="255" spans="1:4">
+      <c r="A255" s="2">
         <v>42795</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>2743818000000</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>0.05714285714285714</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>156789600000</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="2" t="n">
+    <row r="256" spans="1:4">
+      <c r="A256" s="2">
         <v>42826</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>2784571000000</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>0.05571030640668524</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>155129303621.1699</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="2" t="n">
+    <row r="257" spans="1:4">
+      <c r="A257" s="2">
         <v>42856</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>2849601000000</v>
       </c>
-      <c r="C257" t="inlineStr"/>
-      <c r="D257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="2" t="n">
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="2">
         <v>42887</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>2918193000000</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>0.05514199062586159</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>160914971050.4549</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="2" t="n">
+    <row r="259" spans="1:4">
+      <c r="A259" s="2">
         <v>42917</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>2940815000000</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>0.05611672278338945</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>165028900112.2335</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="2" t="n">
+    <row r="260" spans="1:4">
+      <c r="A260" s="2">
         <v>42948</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>3003886000000</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>0.0564652738565782</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>169615245623.9413</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="2" t="n">
+    <row r="261" spans="1:4">
+      <c r="A261" s="2">
         <v>42979</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>3050373000000</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>0.05668934240362811</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>172923639455.7823</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="2" t="n">
+    <row r="262" spans="1:4">
+      <c r="A262" s="2">
         <v>43009</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>3088052000000</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>0.05667649059170256</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>175019950124.6883</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="2" t="n">
+    <row r="263" spans="1:4">
+      <c r="A263" s="2">
         <v>43040</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>3140629000000</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>0.05668934240362811</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>178040192743.7642</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="2" t="n">
+    <row r="264" spans="1:4">
+      <c r="A264" s="2">
         <v>43070</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>3202657000000</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>0.05624296962879639</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>180126940382.4522</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="2" t="n">
+    <row r="265" spans="1:4">
+      <c r="A265" s="2">
         <v>43101</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>3254247000000</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>0.05672149744753262</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>184585762904.1407</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="2" t="n">
+    <row r="266" spans="1:4">
+      <c r="A266" s="2">
         <v>43132</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>3294896000000</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>0.05678591709256105</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>187103691084.611</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="2" t="n">
+    <row r="267" spans="1:4">
+      <c r="A267" s="2">
         <v>43160</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>3343484000000</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>0.05688282138794085</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>190186803185.438</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="2" t="n">
+    <row r="268" spans="1:4">
+      <c r="A268" s="2">
         <v>43191</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>3379461000000</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>0.05672149744753262</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>191688088485.536</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="2" t="n">
+    <row r="269" spans="1:4">
+      <c r="A269" s="2">
         <v>43221</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>3401360000000</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>0.05599104143337066</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>190445688689.8096</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="2" t="n">
+    <row r="270" spans="1:4">
+      <c r="A270" s="2">
         <v>43252</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>3454321000000</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>0.05605381165919283</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>193627858744.3946</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="2" t="n">
+    <row r="271" spans="1:4">
+      <c r="A271" s="2">
         <v>43282</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>3466152000000</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>0.05611672278338945</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>194509090909.0909</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="2" t="n">
+    <row r="272" spans="1:4">
+      <c r="A272" s="2">
         <v>43313</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>3515419000000</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>0.05624296962879639</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>197717604049.4938</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="2" t="n">
+    <row r="273" spans="1:4">
+      <c r="A273" s="2">
         <v>43344</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>3549306000000</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>0.05621135469364812</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>199511298482.2934</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="2" t="n">
+    <row r="274" spans="1:4">
+      <c r="A274" s="2">
         <v>43374</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>3563376000000</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>0.05599104143337066</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>199517133258.6786</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="2" t="n">
+    <row r="275" spans="1:4">
+      <c r="A275" s="2">
         <v>43405</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>3581583000000</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>0.05599104143337066</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>200536562150.056</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="2" t="n">
+    <row r="276" spans="1:4">
+      <c r="A276" s="2">
         <v>43435</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>3628681000000</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>0.05599104143337066</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>203173628219.4849</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="2" t="n">
+    <row r="277" spans="1:4">
+      <c r="A277" s="2">
         <v>43466</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>3640093000000</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>0.05672149744753262</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>206471525808.2813</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="2" t="n">
+    <row r="278" spans="1:4">
+      <c r="A278" s="2">
         <v>43497</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>3674700000000</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>0.0572737686139748</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>210463917525.7732</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="2" t="n">
+    <row r="279" spans="1:4">
+      <c r="A279" s="2">
         <v>43525</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>3724689000000</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>0.05787037037037036</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>215549131944.4444</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="2" t="n">
+    <row r="280" spans="1:4">
+      <c r="A280" s="2">
         <v>43556</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>3762427000000</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>0.05841121495327103</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>219767932242.9907</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="2" t="n">
+    <row r="281" spans="1:4">
+      <c r="A281" s="2">
         <v>43586</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>3796864000000</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>0.05980861244019139</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>227085167464.1149</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="2" t="n">
+    <row r="282" spans="1:4">
+      <c r="A282" s="2">
         <v>43617</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>3863642000000</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>0.06006006006006007</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>232050570570.5706</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="2" t="n">
+    <row r="283" spans="1:4">
+      <c r="A283" s="2">
         <v>43647</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>3884855000000</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>0.06060606060606061</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>235445757575.7576</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="2" t="n">
+    <row r="284" spans="1:4">
+      <c r="A284" s="2">
         <v>43678</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>3929472000000</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>0.06060606060606061</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>238149818181.8182</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="2" t="n">
+    <row r="285" spans="1:4">
+      <c r="A285" s="2">
         <v>43709</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>4010381000000</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>0.06161429451632779</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>247096796056.6852</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="2" t="n">
+    <row r="286" spans="1:4">
+      <c r="A286" s="2">
         <v>43739</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>4024016000000</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>0.06215040397762586</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>250094220012.4301</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="2" t="n">
+    <row r="287" spans="1:4">
+      <c r="A287" s="2">
         <v>43770</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>4053149000000</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>0.06222775357809583</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>252218357187.3055</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="2" t="n">
+    <row r="288" spans="1:4">
+      <c r="A288" s="2">
         <v>43800</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>4110516000000</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>0.0625</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>256907250000</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="2" t="n">
+    <row r="289" spans="1:4">
+      <c r="A289" s="2">
         <v>43831</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>4140451000000</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>0.06353240152477764</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>263052795425.6671</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="2" t="n">
+    <row r="290" spans="1:4">
+      <c r="A290" s="2">
         <v>43862</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>4186575000000</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>0.06412311638345623</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>268456235973.0683</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="2" t="n">
+    <row r="291" spans="1:4">
+      <c r="A291" s="2">
         <v>43891</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>4276765000000</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>0.06373486297004462</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>272579031230.0829</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="2" t="n">
+    <row r="292" spans="1:4">
+      <c r="A292" s="2">
         <v>43922</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>4353065000000</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>0.06369426751592357</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>277265286624.2038</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="2" t="n">
+    <row r="293" spans="1:4">
+      <c r="A293" s="2">
         <v>43952</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>4451434000000</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>0.06333122229259025</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>281914756174.7942</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="2" t="n">
+    <row r="294" spans="1:4">
+      <c r="A294" s="2">
         <v>43983</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>4538808000000</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>0.06207324643078833</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>281738547486.0335</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="2" t="n">
+    <row r="295" spans="1:4">
+      <c r="A295" s="2">
         <v>44013</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>4627173000000</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>0.06281407035175879</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>290651570351.7588</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="2" t="n">
+    <row r="296" spans="1:4">
+      <c r="A296" s="2">
         <v>44044</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>4682128000000</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>0.06321112515802781</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>295962579013.9064</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="2" t="n">
+    <row r="297" spans="1:4">
+      <c r="A297" s="2">
         <v>44075</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>4757180000000</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>0.06357279084551812</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>302427209154.4819</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="2" t="n">
+    <row r="298" spans="1:4">
+      <c r="A298" s="2">
         <v>44105</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>4805875000000</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>0.06389776357827476</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>307084664536.7412</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="2" t="n">
+    <row r="299" spans="1:4">
+      <c r="A299" s="2">
         <v>44136</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>4845958000000</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>0.06406149903907751</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>310439333760.41</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="2" t="n">
+    <row r="300" spans="1:4">
+      <c r="A300" s="2">
         <v>44166</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>4920525000000</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>0.06373486297004462</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>313608986615.6788</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="2" t="n">
+    <row r="301" spans="1:4">
+      <c r="A301" s="2">
         <v>44197</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>4959491000000</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>0.06385696040868455</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>316698020434.2274</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="2" t="n">
+    <row r="302" spans="1:4">
+      <c r="A302" s="2">
         <v>44228</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>5023185000000</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>0.06389776357827476</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>320970287539.9361</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="2" t="n">
+    <row r="303" spans="1:4">
+      <c r="A303" s="2">
         <v>44256</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>5131876000000</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>0.06379585326953748</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>327392408293.4609</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="2" t="n">
+    <row r="304" spans="1:4">
+      <c r="A304" s="2">
         <v>44287</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>5184027000000</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>0.06406149903907751</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>332096540679.0519</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="2" t="n">
+    <row r="305" spans="1:4">
+      <c r="A305" s="2">
         <v>44317</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B305">
         <v>5257355000000</v>
       </c>
-      <c r="C305" t="n">
+      <c r="C305">
         <v>0.06385696040868455</v>
       </c>
-      <c r="D305" t="n">
+      <c r="D305">
         <v>335718710089.3998</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="2" t="n">
+    <row r="306" spans="1:4">
+      <c r="A306" s="2">
         <v>44348</v>
       </c>
-      <c r="B306" t="n">
+      <c r="B306">
         <v>5356609000000</v>
       </c>
-      <c r="C306" t="n">
+      <c r="C306">
         <v>0.06385696040868455</v>
       </c>
-      <c r="D306" t="n">
+      <c r="D306">
         <v>342056768837.8033</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="2" t="n">
+    <row r="307" spans="1:4">
+      <c r="A307" s="2">
         <v>44378</v>
       </c>
-      <c r="B307" t="n">
+      <c r="B307">
         <v>5425832000000</v>
       </c>
-      <c r="C307" t="n">
+      <c r="C307">
         <v>0.06381620931716656</v>
       </c>
-      <c r="D307" t="n">
+      <c r="D307">
         <v>346256030631.7805</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="2" t="n">
+    <row r="308" spans="1:4">
+      <c r="A308" s="2">
         <v>44409</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B308">
         <v>5490613000000</v>
       </c>
-      <c r="C308" t="n">
+      <c r="C308">
         <v>0.06389776357827476</v>
       </c>
-      <c r="D308" t="n">
+      <c r="D308">
         <v>350837891373.8019</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="2" t="n">
+    <row r="309" spans="1:4">
+      <c r="A309" s="2">
         <v>44440</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B309">
         <v>5574011000000</v>
       </c>
-      <c r="C309" t="n">
+      <c r="C309">
         <v>0.06373486297004462</v>
       </c>
-      <c r="D309" t="n">
+      <c r="D309">
         <v>355258827278.5214</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="2" t="n">
+    <row r="310" spans="1:4">
+      <c r="A310" s="2">
         <v>44470</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B310">
         <v>5651909000000</v>
       </c>
-      <c r="C310" t="n">
+      <c r="C310">
         <v>0.06385696040868455</v>
       </c>
-      <c r="D310" t="n">
+      <c r="D310">
         <v>360913729246.4879</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="2" t="n">
+    <row r="311" spans="1:4">
+      <c r="A311" s="2">
         <v>44501</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B311">
         <v>5740127000000</v>
       </c>
-      <c r="C311" t="n">
+      <c r="C311">
         <v>0.06353643814727745</v>
       </c>
-      <c r="D311" t="n">
+      <c r="D311">
         <v>364707224093.0173</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="2" t="n">
+    <row r="312" spans="1:4">
+      <c r="A312" s="2">
         <v>44531</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B312">
         <v>5822649000000</v>
       </c>
-      <c r="C312" t="n">
+      <c r="C312">
         <v>0.06385696040868455</v>
       </c>
-      <c r="D312" t="n">
+      <c r="D312">
         <v>371816666666.6667</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="2" t="n">
+    <row r="313" spans="1:4">
+      <c r="A313" s="2">
         <v>44562</v>
       </c>
-      <c r="B313" t="n">
+      <c r="B313">
         <v>5876621000000</v>
       </c>
-      <c r="C313" t="n">
+      <c r="C313">
         <v>0.06385696040868455</v>
       </c>
-      <c r="D313" t="n">
+      <c r="D313">
         <v>375263154533.8442</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="2" t="n">
+    <row r="314" spans="1:4">
+      <c r="A314" s="2">
         <v>44593</v>
       </c>
-      <c r="B314" t="n">
+      <c r="B314">
         <v>5948841000000</v>
       </c>
-      <c r="C314" t="n">
+      <c r="C314">
         <v>0.06385696040868455</v>
       </c>
-      <c r="D314" t="n">
+      <c r="D314">
         <v>379874904214.5594</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="2" t="n">
+    <row r="315" spans="1:4">
+      <c r="A315" s="2">
         <v>44621</v>
       </c>
-      <c r="B315" t="n">
+      <c r="B315">
         <v>6280452000000</v>
       </c>
-      <c r="C315" t="n">
+      <c r="C315">
         <v>0.05485463521667581</v>
       </c>
-      <c r="D315" t="n">
+      <c r="D315">
         <v>344511903455.842</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="2" t="n">
+    <row r="316" spans="1:4">
+      <c r="A316" s="2">
         <v>44652</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B316">
         <v>6416251000000</v>
       </c>
-      <c r="C316" t="n">
+      <c r="C316">
         <v>0.05431830526887561</v>
       </c>
-      <c r="D316" t="n">
+      <c r="D316">
         <v>348519880499.7284</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="2" t="n">
+    <row r="317" spans="1:4">
+      <c r="A317" s="2">
         <v>44682</v>
       </c>
-      <c r="B317" t="n">
+      <c r="B317">
         <v>6500587000000</v>
       </c>
-      <c r="C317" t="n">
+      <c r="C317">
         <v>0.05382131324004306</v>
       </c>
-      <c r="D317" t="n">
+      <c r="D317">
         <v>349870129171.1518</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="2" t="n">
+    <row r="318" spans="1:4">
+      <c r="A318" s="2">
         <v>44713</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B318">
         <v>6614488000000</v>
       </c>
-      <c r="C318" t="n">
+      <c r="C318">
         <v>0.05330490405117271</v>
       </c>
-      <c r="D318" t="n">
+      <c r="D318">
         <v>352584648187.6332</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="2" t="n">
+    <row r="319" spans="1:4">
+      <c r="A319" s="2">
         <v>44743</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B319">
         <v>6708871000000</v>
       </c>
-      <c r="C319" t="n">
+      <c r="C319">
         <v>0.05299417064122946</v>
       </c>
-      <c r="D319" t="n">
+      <c r="D319">
         <v>355531054583.9957</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="2" t="n">
+    <row r="320" spans="1:4">
+      <c r="A320" s="2">
         <v>44774</v>
       </c>
-      <c r="B320" t="n">
+      <c r="B320">
         <v>6808405000000</v>
       </c>
-      <c r="C320" t="n">
+      <c r="C320">
         <v>0.05205622071837585</v>
       </c>
-      <c r="D320" t="n">
+      <c r="D320">
         <v>354419833420.0937</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="2" t="n">
+    <row r="321" spans="1:4">
+      <c r="A321" s="2">
         <v>44805</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B321">
         <v>6949656000000</v>
       </c>
-      <c r="C321" t="n">
+      <c r="C321">
         <v>0.05130836326321191</v>
       </c>
-      <c r="D321" t="n">
+      <c r="D321">
         <v>356575474602.3602</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="2" t="n">
+    <row r="322" spans="1:4">
+      <c r="A322" s="2">
         <v>44835</v>
       </c>
-      <c r="B322" t="n">
+      <c r="B322">
         <v>7181661000000</v>
       </c>
-      <c r="C322" t="n">
+      <c r="C322">
         <v>0.04140786749482402</v>
       </c>
-      <c r="D322" t="n">
+      <c r="D322">
         <v>297377267080.7454</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="2" t="n">
+    <row r="323" spans="1:4">
+      <c r="A323" s="2">
         <v>44866</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B323">
         <v>7317012000000</v>
       </c>
-      <c r="C323" t="n">
+      <c r="C323">
         <v>0.04081632653061224</v>
       </c>
-      <c r="D323" t="n">
+      <c r="D323">
         <v>298653551020.4081</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="2" t="n">
+    <row r="324" spans="1:4">
+      <c r="A324" s="2">
         <v>44896</v>
       </c>
-      <c r="B324" t="n">
+      <c r="B324">
         <v>7402740000000</v>
       </c>
-      <c r="C324" t="n">
+      <c r="C324">
         <v>0.04050222762251924</v>
       </c>
-      <c r="D324" t="n">
+      <c r="D324">
         <v>299827460510.3281</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="2" t="n">
+    <row r="325" spans="1:4">
+      <c r="A325" s="2">
         <v>44927</v>
       </c>
-      <c r="B325" t="n">
+      <c r="B325">
         <v>7710432000000</v>
       </c>
-      <c r="C325" t="n">
+      <c r="C325">
         <v>0.03318951211417192</v>
       </c>
-      <c r="D325" t="n">
+      <c r="D325">
         <v>255905476269.4988</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="2" t="n">
+    <row r="326" spans="1:4">
+      <c r="A326" s="2">
         <v>44958</v>
       </c>
-      <c r="B326" t="n">
+      <c r="B326">
         <v>7822810000000</v>
       </c>
-      <c r="C326" t="n">
+      <c r="C326">
         <v>0.03270111183780249</v>
       </c>
-      <c r="D326" t="n">
+      <c r="D326">
         <v>255814584695.8797</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="2" t="n">
+    <row r="327" spans="1:4">
+      <c r="A327" s="2">
         <v>44986</v>
       </c>
-      <c r="B327" t="n">
+      <c r="B327">
         <v>7965913000000</v>
       </c>
-      <c r="C327" t="n">
+      <c r="C327">
         <v>0.03252032520325204</v>
       </c>
-      <c r="D327" t="n">
+      <c r="D327">
         <v>259054081300.813</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="2" t="n">
+    <row r="328" spans="1:4">
+      <c r="A328" s="2">
         <v>45017</v>
       </c>
-      <c r="B328" t="n">
+      <c r="B328">
         <v>8069151000000</v>
       </c>
-      <c r="C328" t="n">
+      <c r="C328">
         <v>0.03241491085899514</v>
       </c>
-      <c r="D328" t="n">
+      <c r="D328">
         <v>261560810372.7715</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="2" t="n">
+    <row r="329" spans="1:4">
+      <c r="A329" s="2">
         <v>45047</v>
       </c>
-      <c r="B329" t="n">
+      <c r="B329">
         <v>8140532000000</v>
       </c>
-      <c r="C329" t="n">
+      <c r="C329">
         <v>0.03241491085899514</v>
       </c>
-      <c r="D329" t="n">
+      <c r="D329">
         <v>263874619124.7974</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" s="2" t="n">
+    <row r="330" spans="1:4">
+      <c r="A330" s="2">
         <v>45078</v>
       </c>
-      <c r="B330" t="n">
+      <c r="B330">
         <v>8248190000000</v>
       </c>
-      <c r="C330" t="n">
+      <c r="C330">
         <v>0.03241491085899514</v>
       </c>
-      <c r="D330" t="n">
+      <c r="D330">
         <v>267364343598.0551</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" s="2" t="n">
+    <row r="331" spans="1:4">
+      <c r="A331" s="2">
         <v>45108</v>
       </c>
-      <c r="B331" t="n">
+      <c r="B331">
         <v>8343414000000</v>
       </c>
-      <c r="C331" t="n">
+      <c r="C331">
         <v>0.03241491085899514</v>
       </c>
-      <c r="D331" t="n">
+      <c r="D331">
         <v>270451021069.692</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" s="2" t="n">
+    <row r="332" spans="1:4">
+      <c r="A332" s="2">
         <v>45139</v>
       </c>
-      <c r="B332" t="n">
+      <c r="B332">
         <v>8467486000000</v>
       </c>
-      <c r="C332" t="n">
+      <c r="C332">
         <v>0.03241491085899514</v>
       </c>
-      <c r="D332" t="n">
+      <c r="D332">
         <v>274472803889.7893</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" s="2" t="n">
+    <row r="333" spans="1:4">
+      <c r="A333" s="2">
         <v>45170</v>
       </c>
-      <c r="B333" t="n">
+      <c r="B333">
         <v>8551079000000</v>
       </c>
-      <c r="C333" t="n">
+      <c r="C333">
         <v>0.03241491085899514</v>
       </c>
-      <c r="D333" t="n">
+      <c r="D333">
         <v>277182463533.2253</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="2" t="n">
+    <row r="334" spans="1:4">
+      <c r="A334" s="2">
         <v>45200</v>
       </c>
-      <c r="B334" t="n">
+      <c r="B334">
         <v>8682319000000</v>
       </c>
-      <c r="C334" t="n">
+      <c r="C334">
         <v>0.03236245954692557</v>
       </c>
-      <c r="D334" t="n">
+      <c r="D334">
         <v>280981197411.0033</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="2" t="n">
+    <row r="335" spans="1:4">
+      <c r="A335" s="2">
         <v>45231</v>
       </c>
-      <c r="B335" t="n">
-        <v>8787150000000</v>
-      </c>
-      <c r="C335" t="n">
+      <c r="B335">
+        <v>8787887000000</v>
+      </c>
+      <c r="C335">
         <v>0.03241491085899514</v>
       </c>
-      <c r="D335" t="n">
-        <v>284834683954.6191</v>
+      <c r="D335">
+        <v>284858573743.9222</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B336">
+        <v>8877594000000</v>
+      </c>
+      <c r="C336">
+        <v>0.03236245954692557</v>
+      </c>
+      <c r="D336">
+        <v>287300776699.0292</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>